--- a/irrdash3.xlsx
+++ b/irrdash3.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\JR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\AM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75A1C7B8-EAEA-42C1-9AE2-266AD8D69AD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2D616FA9-3269-4C4E-BB98-9C2669ED1014}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28320" yWindow="2865" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -81,9 +81,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.00000%"/>
-    <numFmt numFmtId="166" formatCode="0.000%"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -112,7 +111,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -122,6 +121,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC98C2E"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -135,9 +140,8 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="9">
@@ -157,12 +161,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{996D8238-5879-4B1C-B12F-35C96EBCED36}"/>
-    <cellStyle name="Normal 2 2 3" xfId="2" xr:uid="{19FF7B0A-2BDF-42D1-8CBE-E7330FD4C512}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -443,7 +448,7 @@
   <dimension ref="B1:N39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -454,13 +459,7 @@
     <row r="1" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C1" s="4"/>
       <c r="D1" s="5"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="K1" s="8"/>
       <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
     </row>
     <row r="2" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
@@ -532,9 +531,16 @@
       <c r="J4" s="6">
         <v>1838.9572589894651</v>
       </c>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
+      <c r="K4" s="8">
+        <v>390</v>
+      </c>
+      <c r="L4" s="8">
+        <f>-171</f>
+        <v>-171</v>
+      </c>
+      <c r="M4" s="8">
+        <v>93</v>
+      </c>
       <c r="N4" s="2"/>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.25">
@@ -948,15 +954,15 @@
         <v>3348.9693611388134</v>
       </c>
       <c r="K15" s="6">
-        <f t="shared" ref="K15:K39" si="1">K14*1.045</f>
+        <f t="shared" ref="K15:M30" si="1">K14*1.045</f>
         <v>2275.5158478573062</v>
       </c>
       <c r="L15" s="6">
-        <f t="shared" ref="L15:L39" si="2">L14*1.045</f>
+        <f t="shared" si="1"/>
         <v>1224.7123095152422</v>
       </c>
       <c r="M15" s="6">
-        <f t="shared" ref="M15:M39" si="3">M14*1.045</f>
+        <f t="shared" si="1"/>
         <v>2466.8090523591418</v>
       </c>
       <c r="N15" s="2"/>
@@ -993,11 +999,11 @@
         <v>2377.9140610108848</v>
       </c>
       <c r="L16" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1279.824363443428</v>
       </c>
       <c r="M16" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>2577.8154597153029</v>
       </c>
       <c r="N16" s="2"/>
@@ -1034,11 +1040,11 @@
         <v>2484.9201937563744</v>
       </c>
       <c r="L17" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1337.4164597983822</v>
       </c>
       <c r="M17" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>2693.8171554024916</v>
       </c>
       <c r="N17" s="2"/>
@@ -1075,11 +1081,11 @@
         <v>2596.7416024754111</v>
       </c>
       <c r="L18" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1397.6002004893094</v>
       </c>
       <c r="M18" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>2815.0389273956034</v>
       </c>
       <c r="N18" s="2"/>
@@ -1116,11 +1122,11 @@
         <v>2713.5949745868043</v>
       </c>
       <c r="L19" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1460.4922095113282</v>
       </c>
       <c r="M19" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>2941.7156791284056</v>
       </c>
       <c r="N19" s="2"/>
@@ -1157,11 +1163,11 @@
         <v>2835.7067484432105</v>
       </c>
       <c r="L20" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1526.2143589393379</v>
       </c>
       <c r="M20" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>3074.0928846891834</v>
       </c>
       <c r="N20" s="2"/>
@@ -1198,11 +1204,11 @@
         <v>2963.3135521231548</v>
       </c>
       <c r="L21" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1594.8940050916081</v>
       </c>
       <c r="M21" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>3212.4270645001966</v>
       </c>
       <c r="N21" s="2"/>
@@ -1239,11 +1245,11 @@
         <v>3096.6626619686963</v>
       </c>
       <c r="L22" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1666.6642353207303</v>
       </c>
       <c r="M22" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>3356.986282402705</v>
       </c>
       <c r="N22" s="2"/>
@@ -1280,11 +1286,11 @@
         <v>3236.0124817572873</v>
       </c>
       <c r="L23" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1741.664125910163</v>
       </c>
       <c r="M23" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>3508.0506651108267</v>
       </c>
       <c r="N23" s="2"/>
@@ -1321,11 +1327,11 @@
         <v>3381.6330434363649</v>
       </c>
       <c r="L24" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1820.0390115761202</v>
       </c>
       <c r="M24" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>3665.9129450408136</v>
       </c>
       <c r="N24" s="2"/>
@@ -1362,11 +1368,11 @@
         <v>3533.8065303910012</v>
       </c>
       <c r="L25" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1901.9407670970454</v>
       </c>
       <c r="M25" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>3830.8790275676502</v>
       </c>
       <c r="N25" s="2"/>
@@ -1403,11 +1409,11 @@
         <v>3692.8278242585961</v>
       </c>
       <c r="L26" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1987.5281016164124</v>
       </c>
       <c r="M26" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>4003.2685838081943</v>
       </c>
       <c r="N26" s="2"/>
@@ -1444,11 +1450,11 @@
         <v>3859.0050763502327</v>
       </c>
       <c r="L27" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2076.966866189151</v>
       </c>
       <c r="M27" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>4183.4156700795629</v>
       </c>
       <c r="N27" s="2"/>
@@ -1485,11 +1491,11 @@
         <v>4032.660304785993</v>
       </c>
       <c r="L28" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2170.4303751676625</v>
       </c>
       <c r="M28" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>4371.669375233143</v>
       </c>
       <c r="N28" s="2"/>
@@ -1526,11 +1532,11 @@
         <v>4214.1300185013624</v>
       </c>
       <c r="L29" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2268.0997420502072</v>
       </c>
       <c r="M29" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>4568.3944971186338</v>
       </c>
       <c r="N29" s="2"/>
@@ -1567,11 +1573,11 @@
         <v>4403.7658693339235</v>
       </c>
       <c r="L30" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2370.1642304424663</v>
       </c>
       <c r="M30" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>4773.972249488972</v>
       </c>
       <c r="N30" s="2"/>
@@ -1604,7 +1610,7 @@
         <v>1147.0099514965668</v>
       </c>
       <c r="K31" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="K31:M39" si="2">K30*1.045</f>
         <v>4601.9353334539501</v>
       </c>
       <c r="L31" s="6">
@@ -1612,7 +1618,7 @@
         <v>2476.8216208123772</v>
       </c>
       <c r="M31" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>4988.8010007159755</v>
       </c>
       <c r="N31" s="2"/>
@@ -1645,7 +1651,7 @@
         <v>1008.6391977551166</v>
       </c>
       <c r="K32" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4809.0224234593779</v>
       </c>
       <c r="L32" s="6">
@@ -1653,7 +1659,7 @@
         <v>2588.2785937489339</v>
       </c>
       <c r="M32" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>5213.2970457481943</v>
       </c>
       <c r="N32" s="2"/>
@@ -1684,7 +1690,7 @@
         <v>-9143.7086394191319</v>
       </c>
       <c r="K33" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5025.4284325150493</v>
       </c>
       <c r="L33" s="6">
@@ -1692,7 +1698,7 @@
         <v>2704.7511304676359</v>
       </c>
       <c r="M33" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>5447.8954128068626</v>
       </c>
       <c r="N33" s="2"/>
@@ -1719,7 +1725,7 @@
       <c r="I34" s="6"/>
       <c r="J34" s="6"/>
       <c r="K34" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5251.5727119782259</v>
       </c>
       <c r="L34" s="6">
@@ -1727,7 +1733,7 @@
         <v>2826.4649313386794</v>
       </c>
       <c r="M34" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>5693.050706383171</v>
       </c>
       <c r="N34" s="2"/>
@@ -1750,7 +1756,7 @@
       <c r="I35" s="6"/>
       <c r="J35" s="6"/>
       <c r="K35" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5487.893484017246</v>
       </c>
       <c r="L35" s="6">
@@ -1758,7 +1764,7 @@
         <v>2953.6558532489198</v>
       </c>
       <c r="M35" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>5949.2379881704137</v>
       </c>
       <c r="N35" s="2"/>
@@ -1781,7 +1787,7 @@
       <c r="I36" s="6"/>
       <c r="J36" s="6"/>
       <c r="K36" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5734.8486907980214</v>
       </c>
       <c r="L36" s="6">
@@ -1789,7 +1795,7 @@
         <v>3086.5703666451209</v>
       </c>
       <c r="M36" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>6216.9536976380823</v>
       </c>
       <c r="N36" s="2"/>
@@ -1812,7 +1818,7 @@
       <c r="I37" s="6"/>
       <c r="J37" s="6"/>
       <c r="K37" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5992.9168818839316</v>
       </c>
       <c r="L37" s="6">
@@ -1820,7 +1826,7 @@
         <v>3225.466033144151</v>
       </c>
       <c r="M37" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>6496.7166140317959</v>
       </c>
       <c r="N37" s="2"/>
@@ -1843,7 +1849,7 @@
       <c r="I38" s="6"/>
       <c r="J38" s="6"/>
       <c r="K38" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6262.5981415687083</v>
       </c>
       <c r="L38" s="6">
@@ -1851,7 +1857,7 @@
         <v>3370.6120046356377</v>
       </c>
       <c r="M38" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>6789.068861663226</v>
       </c>
       <c r="N38" s="2"/>
@@ -1874,7 +1880,7 @@
       <c r="I39" s="6"/>
       <c r="J39" s="6"/>
       <c r="K39" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6544.4150579392999</v>
       </c>
       <c r="L39" s="6">
@@ -1882,7 +1888,7 @@
         <v>3522.2895448442414</v>
       </c>
       <c r="M39" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>7094.5769604380703</v>
       </c>
       <c r="N39" s="2"/>
@@ -1894,6 +1900,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="f0bab05a-e9c1-4e32-93e9-8363aec9c620" xsi:nil="true"/>
@@ -1902,15 +1917,6 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2149,20 +2155,20 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{618C5CC8-9B8E-49D5-B2E6-D98C4C570E2E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{47140DD7-5C12-4BA5-9C24-A1CF0564C7A2}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="f0bab05a-e9c1-4e32-93e9-8363aec9c620"/>
     <ds:schemaRef ds:uri="1a4d52ec-ae83-4798-bc6c-3cf1b4f12457"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{618C5CC8-9B8E-49D5-B2E6-D98C4C570E2E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/irrdash3.xlsx
+++ b/irrdash3.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\AM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2D616FA9-3269-4C4E-BB98-9C2669ED1014}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{979C1BC6-0F06-43CB-A22A-B75E093667E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -448,7 +448,7 @@
   <dimension ref="B1:N39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -510,32 +510,31 @@
         <v>2025</v>
       </c>
       <c r="C4" s="6">
-        <v>-470.07729254066106</v>
+        <v>-470.67382307367177</v>
       </c>
       <c r="D4" s="6">
         <v>4631.5827837508277</v>
       </c>
       <c r="E4" s="6">
-        <v>259.69634674561604</v>
+        <v>2562.1769637306775</v>
       </c>
       <c r="F4" s="6">
         <v>2428.3455854420963</v>
       </c>
       <c r="G4" s="6">
-        <v>470.53560029950881</v>
+        <v>497.00440293673478</v>
       </c>
       <c r="H4" s="6">
         <v>634.91871668367071</v>
       </c>
       <c r="I4" s="6"/>
       <c r="J4" s="6">
-        <v>1838.9572589894651</v>
+        <v>2470.6685737558964</v>
       </c>
       <c r="K4" s="8">
         <v>390</v>
       </c>
       <c r="L4" s="8">
-        <f>-171</f>
         <v>-171</v>
       </c>
       <c r="M4" s="8">
@@ -549,26 +548,26 @@
         <v>2026</v>
       </c>
       <c r="C5" s="6">
-        <v>3540.9143400719549</v>
+        <v>3538.0972351014188</v>
       </c>
       <c r="D5" s="6">
         <v>2774.4473082058207</v>
       </c>
       <c r="E5" s="6">
-        <v>473.23480588674295</v>
+        <v>1612.3117163755858</v>
       </c>
       <c r="F5" s="6">
         <v>6605.1316597436398</v>
       </c>
       <c r="G5" s="6">
-        <v>1774.7956374828339</v>
+        <v>1693.9837038587689</v>
       </c>
       <c r="H5" s="6">
         <v>2004.1712547254886</v>
       </c>
       <c r="I5" s="6"/>
       <c r="J5" s="6">
-        <v>3340.2335776106015</v>
+        <v>3395.5747095853553</v>
       </c>
       <c r="K5" s="6">
         <v>954.45860804386211</v>
@@ -587,26 +586,26 @@
         <v>2027</v>
       </c>
       <c r="C6" s="6">
-        <v>4487.2836689563428</v>
+        <v>4484.7904693203254</v>
       </c>
       <c r="D6" s="6">
         <v>673.43742485870416</v>
       </c>
       <c r="E6" s="6">
-        <v>-228.37809154432637</v>
+        <v>1821.950645537243</v>
       </c>
       <c r="F6" s="6">
         <v>7900.2130668713089</v>
       </c>
       <c r="G6" s="6">
-        <v>2441.7434255389576</v>
+        <v>2259.1950231492797</v>
       </c>
       <c r="H6" s="6">
         <v>4084.7121578827696</v>
       </c>
       <c r="I6" s="6"/>
       <c r="J6" s="6">
-        <v>3977.0650246851001</v>
+        <v>3635.0885112152737</v>
       </c>
       <c r="K6" s="6">
         <v>1323.0224151276375</v>
@@ -625,26 +624,26 @@
         <v>2028</v>
       </c>
       <c r="C7" s="6">
-        <v>4281.3266716423122</v>
+        <v>4206.9186344387399</v>
       </c>
       <c r="D7" s="6">
         <v>389.63683938603481</v>
       </c>
       <c r="E7" s="6">
-        <v>236.15445037241295</v>
+        <v>2117.288752087004</v>
       </c>
       <c r="F7" s="6">
         <v>8970.6623737203936</v>
       </c>
       <c r="G7" s="6">
-        <v>2483.9191419610434</v>
+        <v>2478.0978770114771</v>
       </c>
       <c r="H7" s="6">
         <v>6117.2916382972935</v>
       </c>
       <c r="I7" s="6"/>
       <c r="J7" s="6">
-        <v>3708.3378865388313</v>
+        <v>2977.598282919068</v>
       </c>
       <c r="K7" s="6">
         <v>1507.4723309960461</v>
@@ -663,26 +662,26 @@
         <v>2029</v>
       </c>
       <c r="C8" s="6">
-        <v>4153.4624720596612</v>
+        <v>4067.4204566323524</v>
       </c>
       <c r="D8" s="6">
         <v>2311.5546413059237</v>
       </c>
       <c r="E8" s="6">
-        <v>2933.0584075083675</v>
+        <v>2305.749296073699</v>
       </c>
       <c r="F8" s="6">
         <v>9237.6405361497691</v>
       </c>
       <c r="G8" s="6">
-        <v>3116.0841982876836</v>
+        <v>3127.6169503912374</v>
       </c>
       <c r="H8" s="6">
         <v>3899.4702261429343</v>
       </c>
       <c r="I8" s="6"/>
       <c r="J8" s="6">
-        <v>3678.9452003577035</v>
+        <v>3646.3271603092389</v>
       </c>
       <c r="K8" s="6">
         <v>1635.8695434730157</v>
@@ -701,26 +700,26 @@
         <v>2030</v>
       </c>
       <c r="C9" s="6">
-        <v>4021.585718509763</v>
+        <v>3928.0296285032227</v>
       </c>
       <c r="D9" s="6">
-        <v>3537.0973056120552</v>
+        <v>3521.2581378660516</v>
       </c>
       <c r="E9" s="6">
-        <v>2584.1782197624211</v>
+        <v>2334.3930682906407</v>
       </c>
       <c r="F9" s="6">
         <v>10839.835620002665</v>
       </c>
       <c r="G9" s="6">
-        <v>3120.0155930606043</v>
+        <v>3135.4157475244697</v>
       </c>
       <c r="H9" s="6">
         <v>4383.2125308107861</v>
       </c>
       <c r="I9" s="6"/>
       <c r="J9" s="6">
-        <v>4038.9006423352334</v>
+        <v>3779.3370608942714</v>
       </c>
       <c r="K9" s="6">
         <v>1746.0218707119739</v>
@@ -739,26 +738,26 @@
         <v>2031</v>
       </c>
       <c r="C10" s="6">
-        <v>4558.6128231237944</v>
+        <v>4457.7693973052974</v>
       </c>
       <c r="D10" s="6">
-        <v>4625.9719104248497</v>
+        <v>4610.1327426788457</v>
       </c>
       <c r="E10" s="6">
-        <v>2418.1968669878111</v>
+        <v>2698.8352551361245</v>
       </c>
       <c r="F10" s="6">
         <v>10211.313108230523</v>
       </c>
       <c r="G10" s="6">
-        <v>5080.3311247053607</v>
+        <v>5091.8442177925972</v>
       </c>
       <c r="H10" s="6">
         <v>4145.3991286421342</v>
       </c>
       <c r="I10" s="6"/>
       <c r="J10" s="6">
-        <v>3735.6378393354767</v>
+        <v>3585.6760560062871</v>
       </c>
       <c r="K10" s="6">
         <v>1824.9420592681549</v>
@@ -777,26 +776,26 @@
         <v>2032</v>
       </c>
       <c r="C11" s="6">
-        <v>4816.4259050152114</v>
+        <v>4713.9381927342747</v>
       </c>
       <c r="D11" s="6">
-        <v>6687.585750508475</v>
+        <v>6671.7465827624719</v>
       </c>
       <c r="E11" s="6">
-        <v>3307.1696871664731</v>
+        <v>-1901.0880179800049</v>
       </c>
       <c r="F11" s="6">
         <v>9987.3934409373414</v>
       </c>
       <c r="G11" s="6">
-        <v>5088.8279142110832</v>
+        <v>5098.8551820805624</v>
       </c>
       <c r="H11" s="6">
         <v>4215.0850783417927</v>
       </c>
       <c r="I11" s="6"/>
       <c r="J11" s="6">
-        <v>3590.8552422301036</v>
+        <v>3727.5573586510754</v>
       </c>
       <c r="K11" s="6">
         <v>1907.4294403470753</v>
@@ -815,26 +814,26 @@
         <v>2033</v>
       </c>
       <c r="C12" s="6">
-        <v>4768.8705149021262</v>
+        <v>4667.1760781167613</v>
       </c>
       <c r="D12" s="6">
-        <v>6951.0842590534066</v>
+        <v>6935.2450913074026</v>
       </c>
       <c r="E12" s="6">
-        <v>3450.576423429548</v>
+        <v>2997.8126357310402</v>
       </c>
       <c r="F12" s="6">
         <v>9680.9944600591734</v>
       </c>
       <c r="G12" s="6">
-        <v>5214.188620400947</v>
+        <v>5223.4525592457339</v>
       </c>
       <c r="H12" s="6">
         <v>4372.7686671726688</v>
       </c>
       <c r="I12" s="6"/>
       <c r="J12" s="6">
-        <v>3503.6756889048042</v>
+        <v>3643.5858251722557</v>
       </c>
       <c r="K12" s="6">
         <v>1993.6452510507629</v>
@@ -853,26 +852,26 @@
         <v>2034</v>
       </c>
       <c r="C13" s="6">
-        <v>4774.6423530601933</v>
+        <v>4673.7718433813397</v>
       </c>
       <c r="D13" s="6">
-        <v>8381.8057261740469</v>
+        <v>8365.9665584280428</v>
       </c>
       <c r="E13" s="6">
-        <v>3772.8269409253971</v>
+        <v>3745.918668263882</v>
       </c>
       <c r="F13" s="6">
         <v>9921.497499168494</v>
       </c>
       <c r="G13" s="6">
-        <v>5576.6688713119083</v>
+        <v>5584.8625290540622</v>
       </c>
       <c r="H13" s="6">
         <v>4240.1806955791226</v>
       </c>
       <c r="I13" s="6"/>
       <c r="J13" s="6">
-        <v>3298.0434867902745</v>
+        <v>3664.1788446593159</v>
       </c>
       <c r="K13" s="6">
         <v>2083.758016398257</v>
@@ -891,37 +890,34 @@
         <v>2035</v>
       </c>
       <c r="C14" s="6">
-        <v>4893.884463648641</v>
+        <v>4793.5138564519721</v>
       </c>
       <c r="D14" s="6">
-        <v>8218.561569471929</v>
+        <v>8202.7224017259268</v>
       </c>
       <c r="E14" s="6">
-        <v>3879.8720258696685</v>
+        <v>3852.2226561050143</v>
       </c>
       <c r="F14" s="6">
         <v>6527.7649641655671</v>
       </c>
       <c r="G14" s="6">
-        <v>5482.6642934679448</v>
+        <v>5490.4819889390856</v>
       </c>
       <c r="H14" s="6">
         <v>3841.6157904558904</v>
       </c>
       <c r="I14" s="6"/>
       <c r="J14" s="6">
-        <v>3549.8535135736265</v>
+        <v>3812.0348759286694</v>
       </c>
       <c r="K14" s="6">
-        <f>K13*1.045</f>
         <v>2177.5271271361785</v>
       </c>
       <c r="L14" s="6">
-        <f>L13*1.045</f>
         <v>1171.9735019284615</v>
       </c>
       <c r="M14" s="6">
-        <f>M13*1.045</f>
         <v>2360.5828252240594</v>
       </c>
       <c r="N14" s="2"/>
@@ -932,37 +928,34 @@
         <v>2036</v>
       </c>
       <c r="C15" s="6">
-        <v>4799.2383611580071</v>
+        <v>4700.7821417897921</v>
       </c>
       <c r="D15" s="6">
-        <v>8516.7862900855398</v>
+        <v>8500.9471223395376</v>
       </c>
       <c r="E15" s="6">
-        <v>3953.2791227004495</v>
+        <v>1292.1868499840036</v>
       </c>
       <c r="F15" s="6">
         <v>9674.569649226436</v>
       </c>
       <c r="G15" s="6">
-        <v>5563.6833809868667</v>
+        <v>5570.4881470965656</v>
       </c>
       <c r="H15" s="6">
         <v>4400.1977012755015</v>
       </c>
       <c r="I15" s="6"/>
       <c r="J15" s="6">
-        <v>3348.9693611388134</v>
+        <v>3318.8099678628996</v>
       </c>
       <c r="K15" s="6">
-        <f t="shared" ref="K15:M30" si="1">K14*1.045</f>
         <v>2275.5158478573062</v>
       </c>
       <c r="L15" s="6">
-        <f t="shared" si="1"/>
         <v>1224.7123095152422</v>
       </c>
       <c r="M15" s="6">
-        <f t="shared" si="1"/>
         <v>2466.8090523591418</v>
       </c>
       <c r="N15" s="2"/>
@@ -973,37 +966,34 @@
         <v>2037</v>
       </c>
       <c r="C16" s="6">
-        <v>4784.1198159647183</v>
+        <v>4687.6723673403949</v>
       </c>
       <c r="D16" s="6">
-        <v>7642.981812738758</v>
+        <v>7627.1426449927549</v>
       </c>
       <c r="E16" s="6">
-        <v>4029.7008037159894</v>
+        <v>1345.4715567423414</v>
       </c>
       <c r="F16" s="6">
         <v>9501.6374868994753</v>
       </c>
       <c r="G16" s="6">
-        <v>5423.9617461551525</v>
+        <v>5430.9492258061327</v>
       </c>
       <c r="H16" s="6">
         <v>3904.8083792461571</v>
       </c>
       <c r="I16" s="6"/>
       <c r="J16" s="6">
-        <v>3335.6825118585457</v>
+        <v>3417.6935498699613</v>
       </c>
       <c r="K16" s="6">
-        <f t="shared" si="1"/>
         <v>2377.9140610108848</v>
       </c>
       <c r="L16" s="6">
-        <f t="shared" si="1"/>
         <v>1279.824363443428</v>
       </c>
       <c r="M16" s="6">
-        <f t="shared" si="1"/>
         <v>2577.8154597153029</v>
       </c>
       <c r="N16" s="2"/>
@@ -1014,37 +1004,34 @@
         <v>2038</v>
       </c>
       <c r="C17" s="6">
-        <v>4830.074703920719</v>
+        <v>4739.0067507614331</v>
       </c>
       <c r="D17" s="6">
-        <v>7768.617389661802</v>
+        <v>7752.7782219157989</v>
       </c>
       <c r="E17" s="6">
-        <v>3895.251076567326</v>
+        <v>2087.2685693971134</v>
       </c>
       <c r="F17" s="6">
         <v>9477.7672293524847</v>
       </c>
       <c r="G17" s="6">
-        <v>5275.612357544559</v>
+        <v>5281.6984417918602</v>
       </c>
       <c r="H17" s="6">
         <v>3180.1465108740372</v>
       </c>
       <c r="I17" s="6"/>
       <c r="J17" s="6">
-        <v>3123.0309937566981</v>
+        <v>3449.9858942749584</v>
       </c>
       <c r="K17" s="6">
-        <f t="shared" si="1"/>
         <v>2484.9201937563744</v>
       </c>
       <c r="L17" s="6">
-        <f t="shared" si="1"/>
         <v>1337.4164597983822</v>
       </c>
       <c r="M17" s="6">
-        <f t="shared" si="1"/>
         <v>2693.8171554024916</v>
       </c>
       <c r="N17" s="2"/>
@@ -1055,37 +1042,34 @@
         <v>2039</v>
       </c>
       <c r="C18" s="6">
-        <v>4842.1277434881831</v>
+        <v>4755.4401850625918</v>
       </c>
       <c r="D18" s="6">
-        <v>7688.1988661520581</v>
+        <v>7672.359698406055</v>
       </c>
       <c r="E18" s="6">
-        <v>3786.6898147982774</v>
+        <v>3070.6699008059168</v>
       </c>
       <c r="F18" s="6">
         <v>9451.957591022785</v>
       </c>
       <c r="G18" s="6">
-        <v>5449.0655221987899</v>
+        <v>5455.0497239954748</v>
       </c>
       <c r="H18" s="6">
         <v>2985.349127054737</v>
       </c>
       <c r="I18" s="6"/>
       <c r="J18" s="6">
-        <v>2964.2091620897868</v>
+        <v>1591.4154739747762</v>
       </c>
       <c r="K18" s="6">
-        <f t="shared" si="1"/>
         <v>2596.7416024754111</v>
       </c>
       <c r="L18" s="6">
-        <f t="shared" si="1"/>
         <v>1397.6002004893094</v>
       </c>
       <c r="M18" s="6">
-        <f t="shared" si="1"/>
         <v>2815.0389273956034</v>
       </c>
       <c r="N18" s="2"/>
@@ -1096,37 +1080,34 @@
         <v>2040</v>
       </c>
       <c r="C19" s="6">
-        <v>4799.5684413266417</v>
+        <v>4712.8263351238811</v>
       </c>
       <c r="D19" s="6">
-        <v>7386.762896206701</v>
+        <v>7370.923728460697</v>
       </c>
       <c r="E19" s="6">
-        <v>3762.5816721540959</v>
+        <v>3066.649476961069</v>
       </c>
       <c r="F19" s="6">
         <v>9809.1114632965837</v>
       </c>
       <c r="G19" s="6">
-        <v>5557.6912291659464</v>
+        <v>5562.4537677373455</v>
       </c>
       <c r="H19" s="6">
         <v>3146.9679929508952</v>
       </c>
       <c r="I19" s="6"/>
       <c r="J19" s="6">
-        <v>2697.6717324259812</v>
+        <v>2387.1653240800347</v>
       </c>
       <c r="K19" s="6">
-        <f t="shared" si="1"/>
         <v>2713.5949745868043</v>
       </c>
       <c r="L19" s="6">
-        <f t="shared" si="1"/>
         <v>1460.4922095113282</v>
       </c>
       <c r="M19" s="6">
-        <f t="shared" si="1"/>
         <v>2941.7156791284056</v>
       </c>
       <c r="N19" s="2"/>
@@ -1137,37 +1118,34 @@
         <v>2041</v>
       </c>
       <c r="C20" s="6">
-        <v>4399.9247277184049</v>
+        <v>4323.0631179204865</v>
       </c>
       <c r="D20" s="6">
-        <v>7228.8199644252427</v>
+        <v>7212.9807966792396</v>
       </c>
       <c r="E20" s="6">
-        <v>3803.9102379595579</v>
+        <v>3423.5276954198116</v>
       </c>
       <c r="F20" s="6">
         <v>8177.7095148837079</v>
       </c>
       <c r="G20" s="6">
-        <v>4538.3055936954843</v>
+        <v>4547.2721925786218</v>
       </c>
       <c r="H20" s="6">
         <v>2438.287854523574</v>
       </c>
       <c r="I20" s="6"/>
       <c r="J20" s="6">
-        <v>2330.4179333099287</v>
+        <v>1701.053814332302</v>
       </c>
       <c r="K20" s="6">
-        <f t="shared" si="1"/>
         <v>2835.7067484432105</v>
       </c>
       <c r="L20" s="6">
-        <f t="shared" si="1"/>
         <v>1526.2143589393379</v>
       </c>
       <c r="M20" s="6">
-        <f t="shared" si="1"/>
         <v>3074.0928846891834</v>
       </c>
       <c r="N20" s="2"/>
@@ -1178,37 +1156,34 @@
         <v>2042</v>
       </c>
       <c r="C21" s="6">
-        <v>7466.7533134751366</v>
+        <v>7403.3146914586268</v>
       </c>
       <c r="D21" s="6">
-        <v>7130.3313543855566</v>
+        <v>7114.4921866395543</v>
       </c>
       <c r="E21" s="6">
-        <v>3834.5186700875056</v>
+        <v>3151.2409985786162</v>
       </c>
       <c r="F21" s="6">
         <v>6902.4335581849218</v>
       </c>
       <c r="G21" s="6">
-        <v>4583.4893779691274</v>
+        <v>4591.0521644979535</v>
       </c>
       <c r="H21" s="6">
         <v>738.06028430544143</v>
       </c>
       <c r="I21" s="6"/>
       <c r="J21" s="6">
-        <v>2306.3715149248005</v>
+        <v>1502.8038567993208</v>
       </c>
       <c r="K21" s="6">
-        <f t="shared" si="1"/>
         <v>2963.3135521231548</v>
       </c>
       <c r="L21" s="6">
-        <f t="shared" si="1"/>
         <v>1594.8940050916081</v>
       </c>
       <c r="M21" s="6">
-        <f t="shared" si="1"/>
         <v>3212.4270645001966</v>
       </c>
       <c r="N21" s="2"/>
@@ -1219,37 +1194,34 @@
         <v>2043</v>
       </c>
       <c r="C22" s="6">
-        <v>4082.8018330996283</v>
+        <v>4017.1851521178701</v>
       </c>
       <c r="D22" s="6">
-        <v>6876.8639307183448</v>
+        <v>6861.0247629723408</v>
       </c>
       <c r="E22" s="6">
-        <v>3717.2806938345634</v>
+        <v>4028.4904524185981</v>
       </c>
       <c r="F22" s="6">
         <v>6264.1358442520304</v>
       </c>
       <c r="G22" s="6">
-        <v>4336.8962060678705</v>
+        <v>4343.9829427370814</v>
       </c>
       <c r="H22" s="6">
         <v>601.78349273418473</v>
       </c>
       <c r="I22" s="6"/>
       <c r="J22" s="6">
-        <v>2121.4473692195506</v>
+        <v>1286.1994885699846</v>
       </c>
       <c r="K22" s="6">
-        <f t="shared" si="1"/>
         <v>3096.6626619686963</v>
       </c>
       <c r="L22" s="6">
-        <f t="shared" si="1"/>
         <v>1666.6642353207303</v>
       </c>
       <c r="M22" s="6">
-        <f t="shared" si="1"/>
         <v>3356.986282402705</v>
       </c>
       <c r="N22" s="2"/>
@@ -1260,37 +1232,34 @@
         <v>2044</v>
       </c>
       <c r="C23" s="6">
-        <v>3852.667034486688</v>
+        <v>3795.2581068349973</v>
       </c>
       <c r="D23" s="6">
-        <v>7344.4384158116782</v>
+        <v>7328.5992480656741</v>
       </c>
       <c r="E23" s="6">
-        <v>3790.0102540918851</v>
+        <v>4620.092509010864</v>
       </c>
       <c r="F23" s="6">
         <v>7208.5854147848531</v>
       </c>
       <c r="G23" s="6">
-        <v>4858.5152282250665</v>
+        <v>4864.1456318902165</v>
       </c>
       <c r="H23" s="6">
         <v>626.68616578319768</v>
       </c>
       <c r="I23" s="6"/>
       <c r="J23" s="6">
-        <v>1907.5238338295449</v>
+        <v>1344.2654914942575</v>
       </c>
       <c r="K23" s="6">
-        <f t="shared" si="1"/>
         <v>3236.0124817572873</v>
       </c>
       <c r="L23" s="6">
-        <f t="shared" si="1"/>
         <v>1741.664125910163</v>
       </c>
       <c r="M23" s="6">
-        <f t="shared" si="1"/>
         <v>3508.0506651108267</v>
       </c>
       <c r="N23" s="2"/>
@@ -1301,37 +1270,34 @@
         <v>2045</v>
       </c>
       <c r="C24" s="6">
-        <v>-7186.5069331900895</v>
+        <v>-5562.2536831526349</v>
       </c>
       <c r="D24" s="6">
-        <v>7566.6377641682593</v>
+        <v>7550.7985964222553</v>
       </c>
       <c r="E24" s="6">
-        <v>4742.4203247734558</v>
+        <v>5023.1832415108129</v>
       </c>
       <c r="F24" s="6">
         <v>7251.4632082702119</v>
       </c>
       <c r="G24" s="6">
-        <v>4821.5574412152373</v>
+        <v>4826.8320156433474</v>
       </c>
       <c r="H24" s="6">
         <v>-2769.3016555129261</v>
       </c>
       <c r="I24" s="6"/>
       <c r="J24" s="6">
-        <v>1670.7720956730427</v>
+        <v>239.15492205244067</v>
       </c>
       <c r="K24" s="6">
-        <f t="shared" si="1"/>
         <v>3381.6330434363649</v>
       </c>
       <c r="L24" s="6">
-        <f t="shared" si="1"/>
         <v>1820.0390115761202</v>
       </c>
       <c r="M24" s="6">
-        <f t="shared" si="1"/>
         <v>3665.9129450408136</v>
       </c>
       <c r="N24" s="2"/>
@@ -1342,37 +1308,34 @@
         <v>2046</v>
       </c>
       <c r="C25" s="6">
-        <v>19239.429035307097</v>
+        <v>19624.904747554589</v>
       </c>
       <c r="D25" s="6">
-        <v>10488.491981940064</v>
+        <v>10472.65281419406</v>
       </c>
       <c r="E25" s="6">
-        <v>3033.7095210751645</v>
+        <v>4721.6374938368863</v>
       </c>
       <c r="F25" s="6">
         <v>8154.2210641793599</v>
       </c>
       <c r="G25" s="6">
-        <v>4097.4729854077032</v>
+        <v>4107.4633820636591</v>
       </c>
       <c r="H25" s="6">
         <v>-2520.1257992102474</v>
       </c>
       <c r="I25" s="6"/>
       <c r="J25" s="6">
-        <v>2096.2619438485176</v>
+        <v>362.63640822107453</v>
       </c>
       <c r="K25" s="6">
-        <f t="shared" si="1"/>
         <v>3533.8065303910012</v>
       </c>
       <c r="L25" s="6">
-        <f t="shared" si="1"/>
         <v>1901.9407670970454</v>
       </c>
       <c r="M25" s="6">
-        <f t="shared" si="1"/>
         <v>3830.8790275676502</v>
       </c>
       <c r="N25" s="2"/>
@@ -1383,37 +1346,34 @@
         <v>2047</v>
       </c>
       <c r="C26" s="6">
-        <v>791.80123356588774</v>
+        <v>795.63070761713402</v>
       </c>
       <c r="D26" s="6">
-        <v>6954.0386467505059</v>
+        <v>6938.1994790045019</v>
       </c>
       <c r="E26" s="6">
-        <v>3464.1990001157724</v>
+        <v>4294.765699330982</v>
       </c>
       <c r="F26" s="6">
         <v>8198.0874546577325</v>
       </c>
       <c r="G26" s="6">
-        <v>4195.8340317293942</v>
+        <v>4204.7632074703888</v>
       </c>
       <c r="H26" s="6">
         <v>-2175.9164101714859</v>
       </c>
       <c r="I26" s="6"/>
       <c r="J26" s="6">
-        <v>2065.0161686230008</v>
+        <v>472.14988904221639</v>
       </c>
       <c r="K26" s="6">
-        <f t="shared" si="1"/>
         <v>3692.8278242585961</v>
       </c>
       <c r="L26" s="6">
-        <f t="shared" si="1"/>
         <v>1987.5281016164124</v>
       </c>
       <c r="M26" s="6">
-        <f t="shared" si="1"/>
         <v>4003.2685838081943</v>
       </c>
       <c r="N26" s="2"/>
@@ -1424,37 +1384,34 @@
         <v>2048</v>
       </c>
       <c r="C27" s="6">
-        <v>646.3394177568839</v>
+        <v>660.98607955045611</v>
       </c>
       <c r="D27" s="6">
-        <v>20649.635028734989</v>
+        <v>20633.795860988983</v>
       </c>
       <c r="E27" s="6">
-        <v>16492.268225812324</v>
+        <v>5055.0799980076945</v>
       </c>
       <c r="F27" s="6">
         <v>8278.9794027489297</v>
       </c>
       <c r="G27" s="6">
-        <v>3919.9779418885555</v>
+        <v>3929.1449403481429</v>
       </c>
       <c r="H27" s="6">
         <v>-1881.4274824677523</v>
       </c>
       <c r="I27" s="6"/>
       <c r="J27" s="6">
-        <v>1613.2379442650899</v>
+        <v>514.78768513764919</v>
       </c>
       <c r="K27" s="6">
-        <f t="shared" si="1"/>
         <v>3859.0050763502327</v>
       </c>
       <c r="L27" s="6">
-        <f t="shared" si="1"/>
         <v>2076.966866189151</v>
       </c>
       <c r="M27" s="6">
-        <f t="shared" si="1"/>
         <v>4183.4156700795629</v>
       </c>
       <c r="N27" s="2"/>
@@ -1465,37 +1422,34 @@
         <v>2049</v>
       </c>
       <c r="C28" s="6">
-        <v>657.76821661463134</v>
+        <v>675.09294550410686</v>
       </c>
       <c r="D28" s="6">
-        <v>22616.878417472588</v>
+        <v>22601.266606201407</v>
       </c>
       <c r="E28" s="6">
-        <v>102.47119948152432</v>
+        <v>5328.3082035796997</v>
       </c>
       <c r="F28" s="6">
         <v>8351.1674389202817</v>
       </c>
       <c r="G28" s="6">
-        <v>4365.7916073732331</v>
+        <v>4359.9855593499242</v>
       </c>
       <c r="H28" s="6">
         <v>-1802.3619580907712</v>
       </c>
       <c r="I28" s="6"/>
       <c r="J28" s="6">
-        <v>1427.5767118333999</v>
+        <v>51.21045494692499</v>
       </c>
       <c r="K28" s="6">
-        <f t="shared" si="1"/>
         <v>4032.660304785993</v>
       </c>
       <c r="L28" s="6">
-        <f t="shared" si="1"/>
         <v>2170.4303751676625</v>
       </c>
       <c r="M28" s="6">
-        <f t="shared" si="1"/>
         <v>4371.669375233143</v>
       </c>
       <c r="N28" s="2"/>
@@ -1506,37 +1460,34 @@
         <v>2050</v>
       </c>
       <c r="C29" s="6">
-        <v>627.69790831893624</v>
+        <v>647.12467514705827</v>
       </c>
       <c r="D29" s="6">
-        <v>1968.7973628197744</v>
+        <v>1953.4096445333475</v>
       </c>
       <c r="E29" s="6">
-        <v>87.219314961474382</v>
+        <v>53235.522726057818</v>
       </c>
       <c r="F29" s="6">
         <v>8321.4072834855524</v>
       </c>
       <c r="G29" s="6">
-        <v>5227.7553408017602</v>
+        <v>5226.3542632588751</v>
       </c>
       <c r="H29" s="6">
         <v>168.25225081348492</v>
       </c>
       <c r="I29" s="6"/>
       <c r="J29" s="6">
-        <v>1328.4045540011414</v>
+        <v>68.529977450706909</v>
       </c>
       <c r="K29" s="6">
-        <f t="shared" si="1"/>
         <v>4214.1300185013624</v>
       </c>
       <c r="L29" s="6">
-        <f t="shared" si="1"/>
         <v>2268.0997420502072</v>
       </c>
       <c r="M29" s="6">
-        <f t="shared" si="1"/>
         <v>4568.3944971186338</v>
       </c>
       <c r="N29" s="2"/>
@@ -1547,37 +1498,32 @@
         <v>2051</v>
       </c>
       <c r="C30" s="6">
-        <v>595.34274946037465</v>
+        <v>616.58550080762438</v>
       </c>
       <c r="D30" s="6">
-        <v>2080.3404392303305</v>
-      </c>
-      <c r="E30" s="6">
-        <v>35.879674436407193</v>
-      </c>
+        <v>2065.0517150395103</v>
+      </c>
+      <c r="E30" s="6"/>
       <c r="F30" s="6">
         <v>9144.8197090018821</v>
       </c>
       <c r="G30" s="6">
-        <v>5056.5087165108007</v>
+        <v>5055.0627512252313</v>
       </c>
       <c r="H30" s="6">
         <v>146.78636228306991</v>
       </c>
       <c r="I30" s="6"/>
       <c r="J30" s="6">
-        <v>1251.0906162366011</v>
+        <v>99.397506451781567</v>
       </c>
       <c r="K30" s="6">
-        <f t="shared" si="1"/>
         <v>4403.7658693339235</v>
       </c>
       <c r="L30" s="6">
-        <f t="shared" si="1"/>
         <v>2370.1642304424663</v>
       </c>
       <c r="M30" s="6">
-        <f t="shared" si="1"/>
         <v>4773.972249488972</v>
       </c>
       <c r="N30" s="2"/>
@@ -1588,37 +1534,32 @@
         <v>2052</v>
       </c>
       <c r="C31" s="6">
-        <v>871.21867878933472</v>
+        <v>896.01752122538289</v>
       </c>
       <c r="D31" s="6">
-        <v>2201.7684729595517</v>
-      </c>
-      <c r="E31" s="6">
-        <v>138.50058789677985</v>
-      </c>
+        <v>2186.807936918362</v>
+      </c>
+      <c r="E31" s="6"/>
       <c r="F31" s="6">
         <v>9162.796070732622</v>
       </c>
       <c r="G31" s="6">
-        <v>5041.8859177461327</v>
+        <v>5039.7898278747607</v>
       </c>
       <c r="H31" s="6">
         <v>139.18288371686043</v>
       </c>
       <c r="I31" s="6"/>
       <c r="J31" s="6">
-        <v>1147.0099514965668</v>
+        <v>150.46339294311417</v>
       </c>
       <c r="K31" s="6">
-        <f t="shared" ref="K31:M39" si="2">K30*1.045</f>
         <v>4601.9353334539501</v>
       </c>
       <c r="L31" s="6">
-        <f t="shared" si="2"/>
         <v>2476.8216208123772</v>
       </c>
       <c r="M31" s="6">
-        <f t="shared" si="2"/>
         <v>4988.8010007159755</v>
       </c>
       <c r="N31" s="2"/>
@@ -1629,37 +1570,32 @@
         <v>2053</v>
       </c>
       <c r="C32" s="6">
-        <v>561.53211972038309</v>
+        <v>594.06019348621635</v>
       </c>
       <c r="D32" s="6">
-        <v>2058.9975272030188</v>
-      </c>
-      <c r="E32" s="6">
-        <v>0</v>
-      </c>
+        <v>2044.4828406936576</v>
+      </c>
+      <c r="E32" s="6"/>
       <c r="F32" s="6">
         <v>9216.2516001340518</v>
       </c>
       <c r="G32" s="6">
-        <v>4747.3169960524219</v>
+        <v>4744.7092284408018</v>
       </c>
       <c r="H32" s="6">
         <v>131.58178701880718</v>
       </c>
       <c r="I32" s="6"/>
       <c r="J32" s="6">
-        <v>1008.6391977551166</v>
+        <v>269.27948694934048</v>
       </c>
       <c r="K32" s="6">
-        <f t="shared" si="2"/>
         <v>4809.0224234593779</v>
       </c>
       <c r="L32" s="6">
-        <f t="shared" si="2"/>
         <v>2588.2785937489339</v>
       </c>
       <c r="M32" s="6">
-        <f t="shared" si="2"/>
         <v>5213.2970457481943</v>
       </c>
       <c r="N32" s="2"/>
@@ -1670,35 +1606,32 @@
         <v>2054</v>
       </c>
       <c r="C33" s="6">
-        <v>76.629140407886979</v>
+        <v>115.97255023351308</v>
       </c>
       <c r="D33" s="6">
-        <v>1932.9879397577138</v>
+        <v>1918.4732532483524</v>
       </c>
       <c r="E33" s="6"/>
       <c r="F33" s="6">
         <v>9262.1506561333863</v>
       </c>
       <c r="G33" s="6">
-        <v>-14772.646053733937</v>
+        <v>-14671.572646668461</v>
       </c>
       <c r="H33" s="6">
         <v>701.42523164397414</v>
       </c>
       <c r="I33" s="6"/>
       <c r="J33" s="6">
-        <v>-9143.7086394191319</v>
+        <v>307.0113537120485</v>
       </c>
       <c r="K33" s="6">
-        <f t="shared" si="2"/>
         <v>5025.4284325150493</v>
       </c>
       <c r="L33" s="6">
-        <f t="shared" si="2"/>
         <v>2704.7511304676359</v>
       </c>
       <c r="M33" s="6">
-        <f t="shared" si="2"/>
         <v>5447.8954128068626</v>
       </c>
       <c r="N33" s="2"/>
@@ -1709,31 +1642,30 @@
         <v>2055</v>
       </c>
       <c r="C34" s="6">
-        <v>-4235.618114575107</v>
+        <v>-3352.7390670035115</v>
       </c>
       <c r="D34" s="6">
-        <v>1795.2481613444838</v>
+        <v>1783.7952481592715</v>
       </c>
       <c r="E34" s="6"/>
       <c r="F34" s="6">
         <v>9211.7283853004719</v>
       </c>
       <c r="G34" s="6">
-        <v>55449.894995778042</v>
+        <v>55386.705890640995</v>
       </c>
       <c r="H34" s="6"/>
       <c r="I34" s="6"/>
-      <c r="J34" s="6"/>
+      <c r="J34" s="6">
+        <v>28.019573813242371</v>
+      </c>
       <c r="K34" s="6">
-        <f t="shared" si="2"/>
         <v>5251.5727119782259</v>
       </c>
       <c r="L34" s="6">
-        <f t="shared" si="2"/>
         <v>2826.4649313386794</v>
       </c>
       <c r="M34" s="6">
-        <f t="shared" si="2"/>
         <v>5693.050706383171</v>
       </c>
       <c r="N34" s="2"/>
@@ -1745,7 +1677,7 @@
       </c>
       <c r="C35" s="7"/>
       <c r="D35" s="6">
-        <v>-241.6100927561447</v>
+        <v>-243.83066214652581</v>
       </c>
       <c r="E35" s="6"/>
       <c r="F35" s="6">
@@ -1754,17 +1686,16 @@
       <c r="G35" s="6"/>
       <c r="H35" s="6"/>
       <c r="I35" s="6"/>
-      <c r="J35" s="6"/>
+      <c r="J35" s="6">
+        <v>-236.84261895953409</v>
+      </c>
       <c r="K35" s="6">
-        <f t="shared" si="2"/>
         <v>5487.893484017246</v>
       </c>
       <c r="L35" s="6">
-        <f t="shared" si="2"/>
         <v>2953.6558532489198</v>
       </c>
       <c r="M35" s="6">
-        <f t="shared" si="2"/>
         <v>5949.2379881704137</v>
       </c>
       <c r="N35" s="2"/>
@@ -1785,17 +1716,16 @@
       <c r="G36" s="6"/>
       <c r="H36" s="6"/>
       <c r="I36" s="6"/>
-      <c r="J36" s="6"/>
+      <c r="J36" s="6">
+        <v>-657.70216614234812</v>
+      </c>
       <c r="K36" s="6">
-        <f t="shared" si="2"/>
         <v>5734.8486907980214</v>
       </c>
       <c r="L36" s="6">
-        <f t="shared" si="2"/>
         <v>3086.5703666451209</v>
       </c>
       <c r="M36" s="6">
-        <f t="shared" si="2"/>
         <v>6216.9536976380823</v>
       </c>
       <c r="N36" s="2"/>
@@ -1816,17 +1746,16 @@
       <c r="G37" s="6"/>
       <c r="H37" s="6"/>
       <c r="I37" s="6"/>
-      <c r="J37" s="6"/>
+      <c r="J37" s="6">
+        <v>-585.34752945623063</v>
+      </c>
       <c r="K37" s="6">
-        <f t="shared" si="2"/>
         <v>5992.9168818839316</v>
       </c>
       <c r="L37" s="6">
-        <f t="shared" si="2"/>
         <v>3225.466033144151</v>
       </c>
       <c r="M37" s="6">
-        <f t="shared" si="2"/>
         <v>6496.7166140317959</v>
       </c>
       <c r="N37" s="2"/>
@@ -1847,17 +1776,16 @@
       <c r="G38" s="6"/>
       <c r="H38" s="6"/>
       <c r="I38" s="6"/>
-      <c r="J38" s="6"/>
+      <c r="J38" s="6">
+        <v>-501.98046488067251</v>
+      </c>
       <c r="K38" s="6">
-        <f t="shared" si="2"/>
         <v>6262.5981415687083</v>
       </c>
       <c r="L38" s="6">
-        <f t="shared" si="2"/>
         <v>3370.6120046356377</v>
       </c>
       <c r="M38" s="6">
-        <f t="shared" si="2"/>
         <v>6789.068861663226</v>
       </c>
       <c r="N38" s="2"/>
@@ -1878,17 +1806,16 @@
       <c r="G39" s="6"/>
       <c r="H39" s="6"/>
       <c r="I39" s="6"/>
-      <c r="J39" s="6"/>
+      <c r="J39" s="6">
+        <v>61.548390186488291</v>
+      </c>
       <c r="K39" s="6">
-        <f t="shared" si="2"/>
         <v>6544.4150579392999</v>
       </c>
       <c r="L39" s="6">
-        <f t="shared" si="2"/>
         <v>3522.2895448442414</v>
       </c>
       <c r="M39" s="6">
-        <f t="shared" si="2"/>
         <v>7094.5769604380703</v>
       </c>
       <c r="N39" s="2"/>
@@ -1900,15 +1827,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="f0bab05a-e9c1-4e32-93e9-8363aec9c620" xsi:nil="true"/>
@@ -1917,6 +1835,15 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2155,20 +2082,20 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{618C5CC8-9B8E-49D5-B2E6-D98C4C570E2E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{47140DD7-5C12-4BA5-9C24-A1CF0564C7A2}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="f0bab05a-e9c1-4e32-93e9-8363aec9c620"/>
     <ds:schemaRef ds:uri="1a4d52ec-ae83-4798-bc6c-3cf1b4f12457"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{618C5CC8-9B8E-49D5-B2E6-D98C4C570E2E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/irrdash3.xlsx
+++ b/irrdash3.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{979C1BC6-0F06-43CB-A22A-B75E093667E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F92CC7F-0D76-4A72-9387-D4C1290F15C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="duration" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="14">
   <si>
     <t>CPLE6</t>
   </si>
@@ -75,6 +76,9 @@
   </si>
   <si>
     <t>Tickers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Duration </t>
   </si>
 </sst>
 </file>
@@ -131,7 +135,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -139,12 +143,88 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -162,6 +242,22 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -447,8 +543,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:N39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1826,27 +1922,116 @@
 </worksheet>
 </file>
 
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="f0bab05a-e9c1-4e32-93e9-8363aec9c620" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1a4d52ec-ae83-4798-bc6c-3cf1b4f12457">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D94BCFB6-56BF-474C-B5EB-3DCB364764B7}">
+  <dimension ref="C2:D13"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="E30" sqref="E29:E30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C2" s="9"/>
+      <c r="D2" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C3" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="12">
+        <v>9.2365173983567814</v>
+      </c>
+    </row>
+    <row r="4" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C4" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="14">
+        <v>12.524916327714633</v>
+      </c>
+    </row>
+    <row r="5" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C5" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="14">
+        <v>13.211357066524261</v>
+      </c>
+    </row>
+    <row r="6" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C6" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="14">
+        <v>12.165457920077804</v>
+      </c>
+    </row>
+    <row r="7" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C7" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="14">
+        <v>12.531975519499337</v>
+      </c>
+    </row>
+    <row r="8" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C8" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="14">
+        <v>6.2003485422552087</v>
+      </c>
+    </row>
+    <row r="9" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C9" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="14" t="e">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="10" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C10" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="14">
+        <v>6.6670443152122205</v>
+      </c>
+    </row>
+    <row r="11" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C11" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="14">
+        <v>11.008902896001793</v>
+      </c>
+    </row>
+    <row r="12" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C12" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="14">
+        <v>11.674696166367394</v>
+      </c>
+    </row>
+    <row r="13" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C13" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="14">
+        <v>11.202254750584091</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010020E4BAF79DB213408BB296F3F8F32329" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="9679123e7a51fb6c2fee49c985862cfe">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1a4d52ec-ae83-4798-bc6c-3cf1b4f12457" xmlns:ns3="f0bab05a-e9c1-4e32-93e9-8363aec9c620" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ddaff962f7439efafa6fc254a8996caa" ns2:_="" ns3:_="">
     <xsd:import namespace="1a4d52ec-ae83-4798-bc6c-3cf1b4f12457"/>
@@ -2081,26 +2266,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{47140DD7-5C12-4BA5-9C24-A1CF0564C7A2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="f0bab05a-e9c1-4e32-93e9-8363aec9c620"/>
-    <ds:schemaRef ds:uri="1a4d52ec-ae83-4798-bc6c-3cf1b4f12457"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{618C5CC8-9B8E-49D5-B2E6-D98C4C570E2E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="f0bab05a-e9c1-4e32-93e9-8363aec9c620" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1a4d52ec-ae83-4798-bc6c-3cf1b4f12457">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{873E7543-F0E8-474C-8FBB-787032D90621}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2117,4 +2303,23 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{618C5CC8-9B8E-49D5-B2E6-D98C4C570E2E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{47140DD7-5C12-4BA5-9C24-A1CF0564C7A2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="f0bab05a-e9c1-4e32-93e9-8363aec9c620"/>
+    <ds:schemaRef ds:uri="1a4d52ec-ae83-4798-bc6c-3cf1b4f12457"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/irrdash3.xlsx
+++ b/irrdash3.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\JR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F92CC7F-0D76-4A72-9387-D4C1290F15C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDAD27ED-A653-4AAF-AF9A-604AB36A10B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="duration" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterate="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="15">
   <si>
     <t>CPLE6</t>
   </si>
@@ -79,6 +79,9 @@
   </si>
   <si>
     <t xml:space="preserve">Duration </t>
+  </si>
+  <si>
+    <t>ELET6</t>
   </si>
 </sst>
 </file>
@@ -229,7 +232,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -258,6 +260,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -543,8 +548,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:N39"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B28"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -553,1368 +558,1602 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C1" s="4"/>
-      <c r="D1" s="5"/>
-      <c r="L1" s="4"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="4"/>
+      <c r="L1" s="3"/>
     </row>
     <row r="2" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L2" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N2" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="2"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" s="1">
         <v>2025</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="5">
         <v>-470.67382307367177</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="5">
         <v>4631.5827837508277</v>
       </c>
-      <c r="E4" s="6">
-        <v>2562.1769637306775</v>
-      </c>
-      <c r="F4" s="6">
+      <c r="E4" s="5">
+        <v>-1047.5957141760605</v>
+      </c>
+      <c r="F4" s="5">
         <v>2428.3455854420963</v>
       </c>
-      <c r="G4" s="6">
+      <c r="G4" s="5">
         <v>497.00440293673478</v>
       </c>
-      <c r="H4" s="6">
+      <c r="H4" s="5">
         <v>634.91871668367071</v>
       </c>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6">
+      <c r="I4" s="5">
+        <v>1910.3402658406817</v>
+      </c>
+      <c r="J4" s="5">
         <v>2470.6685737558964</v>
       </c>
-      <c r="K4" s="8">
+      <c r="K4" s="7">
         <v>390</v>
       </c>
-      <c r="L4" s="8">
+      <c r="L4" s="7">
+        <f>-171</f>
         <v>-171</v>
       </c>
-      <c r="M4" s="8">
+      <c r="M4" s="7">
         <v>93</v>
       </c>
-      <c r="N4" s="2"/>
+      <c r="N4" s="5">
+        <v>12568.378973210172</v>
+      </c>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B5" s="1">
         <f>B4+1</f>
         <v>2026</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="5">
         <v>3538.0972351014188</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="5">
         <v>2774.4473082058207</v>
       </c>
-      <c r="E5" s="6">
-        <v>1612.3117163755858</v>
-      </c>
-      <c r="F5" s="6">
+      <c r="E5" s="5">
+        <v>1423.5911688211188</v>
+      </c>
+      <c r="F5" s="5">
         <v>6605.1316597436398</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5" s="5">
         <v>1693.9837038587689</v>
       </c>
-      <c r="H5" s="6">
+      <c r="H5" s="5">
         <v>2004.1712547254886</v>
       </c>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6">
+      <c r="I5" s="5">
+        <v>1867.7164444544671</v>
+      </c>
+      <c r="J5" s="5">
         <v>3395.5747095853553</v>
       </c>
-      <c r="K5" s="6">
+      <c r="K5" s="5">
         <v>954.45860804386211</v>
       </c>
-      <c r="L5" s="6">
+      <c r="L5" s="5">
         <v>384.21253758543025</v>
       </c>
-      <c r="M5" s="6">
+      <c r="M5" s="5">
         <v>1226.6329817372125</v>
       </c>
-      <c r="N5" s="2"/>
+      <c r="N5" s="5">
+        <v>12287.951266142702</v>
+      </c>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B6" s="1">
         <f t="shared" ref="B6:B39" si="0">B5+1</f>
         <v>2027</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="5">
         <v>4484.7904693203254</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="5">
         <v>673.43742485870416</v>
       </c>
-      <c r="E6" s="6">
-        <v>1821.950645537243</v>
-      </c>
-      <c r="F6" s="6">
+      <c r="E6" s="5">
+        <v>836.48604610360985</v>
+      </c>
+      <c r="F6" s="5">
         <v>7900.2130668713089</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G6" s="5">
         <v>2259.1950231492797</v>
       </c>
-      <c r="H6" s="6">
+      <c r="H6" s="5">
         <v>4084.7121578827696</v>
       </c>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6">
+      <c r="I6" s="5">
+        <v>1625.0577269054047</v>
+      </c>
+      <c r="J6" s="5">
         <v>3635.0885112152737</v>
       </c>
-      <c r="K6" s="6">
+      <c r="K6" s="5">
         <v>1323.0224151276375</v>
       </c>
-      <c r="L6" s="6">
+      <c r="L6" s="5">
         <v>681.59040551930434</v>
       </c>
-      <c r="M6" s="6">
+      <c r="M6" s="5">
         <v>1314.4750719842391</v>
       </c>
-      <c r="N6" s="2"/>
+      <c r="N6" s="5">
+        <v>10691.467761164782</v>
+      </c>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7" s="1">
         <f t="shared" si="0"/>
         <v>2028</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="5">
         <v>4206.9186344387399</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="5">
         <v>389.63683938603481</v>
       </c>
-      <c r="E7" s="6">
-        <v>2117.288752087004</v>
-      </c>
-      <c r="F7" s="6">
+      <c r="E7" s="5">
+        <v>1886.5332002018404</v>
+      </c>
+      <c r="F7" s="5">
         <v>8970.6623737203936</v>
       </c>
-      <c r="G7" s="6">
+      <c r="G7" s="5">
         <v>2478.0978770114771</v>
       </c>
-      <c r="H7" s="6">
+      <c r="H7" s="5">
         <v>6117.2916382972935</v>
       </c>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6">
+      <c r="I7" s="5">
+        <v>1512.8503706123583</v>
+      </c>
+      <c r="J7" s="5">
         <v>2977.598282919068</v>
       </c>
-      <c r="K7" s="6">
+      <c r="K7" s="5">
         <v>1507.4723309960461</v>
       </c>
-      <c r="L7" s="6">
+      <c r="L7" s="5">
         <v>872.03777354326485</v>
       </c>
-      <c r="M7" s="6">
+      <c r="M7" s="5">
         <v>1582.1842275077693</v>
       </c>
-      <c r="N7" s="2"/>
+      <c r="N7" s="5">
+        <v>9953.2408585075154</v>
+      </c>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B8" s="1">
         <f t="shared" si="0"/>
         <v>2029</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="5">
         <v>4067.4204566323524</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="5">
         <v>2311.5546413059237</v>
       </c>
-      <c r="E8" s="6">
-        <v>2305.749296073699</v>
-      </c>
-      <c r="F8" s="6">
+      <c r="E8" s="5">
+        <v>2728.8526153584262</v>
+      </c>
+      <c r="F8" s="5">
         <v>9237.6405361497691</v>
       </c>
-      <c r="G8" s="6">
+      <c r="G8" s="5">
         <v>3127.6169503912374</v>
       </c>
-      <c r="H8" s="6">
+      <c r="H8" s="5">
         <v>3899.4702261429343</v>
       </c>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6">
+      <c r="I8" s="5">
+        <v>1364.3379496901132</v>
+      </c>
+      <c r="J8" s="5">
         <v>3646.3271603092389</v>
       </c>
-      <c r="K8" s="6">
+      <c r="K8" s="5">
         <v>1635.8695434730157</v>
       </c>
-      <c r="L8" s="6">
+      <c r="L8" s="5">
         <v>877.4496011171874</v>
       </c>
-      <c r="M8" s="6">
+      <c r="M8" s="5">
         <v>1741.7854333559026</v>
       </c>
-      <c r="N8" s="2"/>
+      <c r="N8" s="5">
+        <v>8976.1581776070689</v>
+      </c>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B9" s="1">
         <f t="shared" si="0"/>
         <v>2030</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="5">
         <v>3928.0296285032227</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="5">
         <v>3521.2581378660516</v>
       </c>
-      <c r="E9" s="6">
-        <v>2334.3930682906407</v>
-      </c>
-      <c r="F9" s="6">
+      <c r="E9" s="5">
+        <v>1996.046006674206</v>
+      </c>
+      <c r="F9" s="5">
         <v>10839.835620002665</v>
       </c>
-      <c r="G9" s="6">
+      <c r="G9" s="5">
         <v>3135.4157475244697</v>
       </c>
-      <c r="H9" s="6">
+      <c r="H9" s="5">
         <v>4383.2125308107861</v>
       </c>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6">
+      <c r="I9" s="5">
+        <v>904.45875123107317</v>
+      </c>
+      <c r="J9" s="5">
         <v>3779.3370608942714</v>
       </c>
-      <c r="K9" s="6">
+      <c r="K9" s="5">
         <v>1746.0218707119739</v>
       </c>
-      <c r="L9" s="6">
+      <c r="L9" s="5">
         <v>939.73174467553906</v>
       </c>
-      <c r="M9" s="6">
+      <c r="M9" s="5">
         <v>1892.8027068433896</v>
       </c>
-      <c r="N9" s="2"/>
+      <c r="N9" s="5">
+        <v>5950.552660369136</v>
+      </c>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B10" s="1">
         <f t="shared" si="0"/>
         <v>2031</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="5">
         <v>4457.7693973052974</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="5">
         <v>4610.1327426788457</v>
       </c>
-      <c r="E10" s="6">
-        <v>2698.8352551361245</v>
-      </c>
-      <c r="F10" s="6">
+      <c r="E10" s="5">
+        <v>3040.4333366384258</v>
+      </c>
+      <c r="F10" s="5">
         <v>10211.313108230523</v>
       </c>
-      <c r="G10" s="6">
+      <c r="G10" s="5">
         <v>5091.8442177925972</v>
       </c>
-      <c r="H10" s="6">
+      <c r="H10" s="5">
         <v>4145.3991286421342</v>
       </c>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6">
+      <c r="I10" s="5">
+        <v>1442.8759435865741</v>
+      </c>
+      <c r="J10" s="5">
         <v>3585.6760560062871</v>
       </c>
-      <c r="K10" s="6">
+      <c r="K10" s="5">
         <v>1824.9420592681549</v>
       </c>
-      <c r="L10" s="6">
+      <c r="L10" s="5">
         <v>982.20761953487329</v>
       </c>
-      <c r="M10" s="6">
+      <c r="M10" s="5">
         <v>1978.3573891927106</v>
       </c>
-      <c r="N10" s="2"/>
+      <c r="N10" s="5">
+        <v>9492.8699324378231</v>
+      </c>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11" s="1">
         <f t="shared" si="0"/>
         <v>2032</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="5">
         <v>4713.9381927342747</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11" s="5">
         <v>6671.7465827624719</v>
       </c>
-      <c r="E11" s="6">
-        <v>-1901.0880179800049</v>
-      </c>
-      <c r="F11" s="6">
+      <c r="E11" s="5">
+        <v>3079.6282281473705</v>
+      </c>
+      <c r="F11" s="5">
         <v>9987.3934409373414</v>
       </c>
-      <c r="G11" s="6">
+      <c r="G11" s="5">
         <v>5098.8551820805624</v>
       </c>
-      <c r="H11" s="6">
+      <c r="H11" s="5">
         <v>4215.0850783417927</v>
       </c>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6">
+      <c r="I11" s="5">
+        <v>1478.278136200965</v>
+      </c>
+      <c r="J11" s="5">
         <v>3727.5573586510754</v>
       </c>
-      <c r="K11" s="6">
+      <c r="K11" s="5">
         <v>1907.4294403470753</v>
       </c>
-      <c r="L11" s="6">
+      <c r="L11" s="5">
         <v>1026.6034039378494</v>
       </c>
-      <c r="M11" s="6">
+      <c r="M11" s="5">
         <v>2067.7791431842211</v>
       </c>
-      <c r="N11" s="2"/>
+      <c r="N11" s="5">
+        <v>9725.7855973675159</v>
+      </c>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B12" s="1">
         <f t="shared" si="0"/>
         <v>2033</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12" s="5">
         <v>4667.1760781167613</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D12" s="5">
         <v>6935.2450913074026</v>
       </c>
-      <c r="E12" s="6">
-        <v>2997.8126357310402</v>
-      </c>
-      <c r="F12" s="6">
+      <c r="E12" s="5">
+        <v>3365.750967532942</v>
+      </c>
+      <c r="F12" s="5">
         <v>9680.9944600591734</v>
       </c>
-      <c r="G12" s="6">
+      <c r="G12" s="5">
         <v>5223.4525592457339</v>
       </c>
-      <c r="H12" s="6">
+      <c r="H12" s="5">
         <v>4372.7686671726688</v>
       </c>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6">
+      <c r="I12" s="5">
+        <v>1702.812375841015</v>
+      </c>
+      <c r="J12" s="5">
         <v>3643.5858251722557</v>
       </c>
-      <c r="K12" s="6">
+      <c r="K12" s="5">
         <v>1993.6452510507629</v>
       </c>
-      <c r="L12" s="6">
+      <c r="L12" s="5">
         <v>1073.0058777958402</v>
       </c>
-      <c r="M12" s="6">
+      <c r="M12" s="5">
         <v>2161.2427604561476</v>
       </c>
-      <c r="N12" s="2"/>
+      <c r="N12" s="5">
+        <v>11203.02578683494</v>
+      </c>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B13" s="1">
         <f t="shared" si="0"/>
         <v>2034</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C13" s="5">
         <v>4673.7718433813397</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D13" s="5">
         <v>8365.9665584280428</v>
       </c>
-      <c r="E13" s="6">
-        <v>3745.918668263882</v>
-      </c>
-      <c r="F13" s="6">
+      <c r="E13" s="5">
+        <v>3998.2297037974399</v>
+      </c>
+      <c r="F13" s="5">
         <v>9921.497499168494</v>
       </c>
-      <c r="G13" s="6">
+      <c r="G13" s="5">
         <v>5584.8625290540622</v>
       </c>
-      <c r="H13" s="6">
+      <c r="H13" s="5">
         <v>4240.1806955791226</v>
       </c>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6">
+      <c r="I13" s="5">
+        <v>1979.6073019892672</v>
+      </c>
+      <c r="J13" s="5">
         <v>3664.1788446593159</v>
       </c>
-      <c r="K13" s="6">
+      <c r="K13" s="5">
         <v>2083.758016398257</v>
       </c>
-      <c r="L13" s="6">
+      <c r="L13" s="5">
         <v>1121.5057434722121</v>
       </c>
-      <c r="M13" s="6">
+      <c r="M13" s="5">
         <v>2258.9309332287653</v>
       </c>
-      <c r="N13" s="2"/>
+      <c r="N13" s="5">
+        <v>13024.095881989959</v>
+      </c>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B14" s="1">
         <f t="shared" si="0"/>
         <v>2035</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C14" s="5">
         <v>4793.5138564519721</v>
       </c>
-      <c r="D14" s="6">
+      <c r="D14" s="5">
         <v>8202.7224017259268</v>
       </c>
-      <c r="E14" s="6">
-        <v>3852.2226561050143</v>
-      </c>
-      <c r="F14" s="6">
+      <c r="E14" s="5">
+        <v>3357.9892161586899</v>
+      </c>
+      <c r="F14" s="5">
         <v>6527.7649641655671</v>
       </c>
-      <c r="G14" s="6">
+      <c r="G14" s="5">
         <v>5490.4819889390856</v>
       </c>
-      <c r="H14" s="6">
+      <c r="H14" s="5">
         <v>3841.6157904558904</v>
       </c>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6">
+      <c r="I14" s="5">
+        <v>1993.5461747859215</v>
+      </c>
+      <c r="J14" s="5">
         <v>3812.0348759286694</v>
       </c>
-      <c r="K14" s="6">
+      <c r="K14" s="5">
+        <f>K13*1.045</f>
         <v>2177.5271271361785</v>
       </c>
-      <c r="L14" s="6">
+      <c r="L14" s="5">
+        <f>L13*1.045</f>
         <v>1171.9735019284615</v>
       </c>
-      <c r="M14" s="6">
+      <c r="M14" s="5">
+        <f>M13*1.045</f>
         <v>2360.5828252240594</v>
       </c>
-      <c r="N14" s="2"/>
+      <c r="N14" s="5">
+        <v>13115.801552911693</v>
+      </c>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B15" s="1">
         <f t="shared" si="0"/>
         <v>2036</v>
       </c>
-      <c r="C15" s="6">
+      <c r="C15" s="5">
         <v>4700.7821417897921</v>
       </c>
-      <c r="D15" s="6">
+      <c r="D15" s="5">
         <v>8500.9471223395376</v>
       </c>
-      <c r="E15" s="6">
-        <v>1292.1868499840036</v>
-      </c>
-      <c r="F15" s="6">
+      <c r="E15" s="5">
+        <v>3890.7284841014853</v>
+      </c>
+      <c r="F15" s="5">
         <v>9674.569649226436</v>
       </c>
-      <c r="G15" s="6">
+      <c r="G15" s="5">
         <v>5570.4881470965656</v>
       </c>
-      <c r="H15" s="6">
+      <c r="H15" s="5">
         <v>4400.1977012755015</v>
       </c>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6">
+      <c r="I15" s="5">
+        <v>1999.1896102157625</v>
+      </c>
+      <c r="J15" s="5">
         <v>3318.8099678628996</v>
       </c>
-      <c r="K15" s="6">
+      <c r="K15" s="5">
+        <f t="shared" ref="K15:M30" si="1">K14*1.045</f>
         <v>2275.5158478573062</v>
       </c>
-      <c r="L15" s="6">
+      <c r="L15" s="5">
+        <f t="shared" si="1"/>
         <v>1224.7123095152422</v>
       </c>
-      <c r="M15" s="6">
+      <c r="M15" s="5">
+        <f t="shared" si="1"/>
         <v>2466.8090523591418</v>
       </c>
-      <c r="N15" s="2"/>
+      <c r="N15" s="5">
+        <v>13152.930454218638</v>
+      </c>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B16" s="1">
         <f t="shared" si="0"/>
         <v>2037</v>
       </c>
-      <c r="C16" s="6">
+      <c r="C16" s="5">
         <v>4687.6723673403949</v>
       </c>
-      <c r="D16" s="6">
+      <c r="D16" s="5">
         <v>7627.1426449927549</v>
       </c>
-      <c r="E16" s="6">
-        <v>1345.4715567423414</v>
-      </c>
-      <c r="F16" s="6">
+      <c r="E16" s="5">
+        <v>3795.421343208634</v>
+      </c>
+      <c r="F16" s="5">
         <v>9501.6374868994753</v>
       </c>
-      <c r="G16" s="6">
+      <c r="G16" s="5">
         <v>5430.9492258061327</v>
       </c>
-      <c r="H16" s="6">
+      <c r="H16" s="5">
         <v>3904.8083792461571</v>
       </c>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6">
+      <c r="I16" s="5">
+        <v>1469.3286433478743</v>
+      </c>
+      <c r="J16" s="5">
         <v>3417.6935498699613</v>
       </c>
-      <c r="K16" s="6">
+      <c r="K16" s="5">
+        <f t="shared" si="1"/>
         <v>2377.9140610108848</v>
       </c>
-      <c r="L16" s="6">
+      <c r="L16" s="5">
+        <f t="shared" si="1"/>
         <v>1279.824363443428</v>
       </c>
-      <c r="M16" s="6">
+      <c r="M16" s="5">
+        <f t="shared" si="1"/>
         <v>2577.8154597153029</v>
       </c>
-      <c r="N16" s="2"/>
+      <c r="N16" s="5">
+        <v>9666.905710989693</v>
+      </c>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17" s="1">
         <f t="shared" si="0"/>
         <v>2038</v>
       </c>
-      <c r="C17" s="6">
+      <c r="C17" s="5">
         <v>4739.0067507614331</v>
       </c>
-      <c r="D17" s="6">
+      <c r="D17" s="5">
         <v>7752.7782219157989</v>
       </c>
-      <c r="E17" s="6">
-        <v>2087.2685693971134</v>
-      </c>
-      <c r="F17" s="6">
+      <c r="E17" s="5">
+        <v>4241.1276645324469</v>
+      </c>
+      <c r="F17" s="5">
         <v>9477.7672293524847</v>
       </c>
-      <c r="G17" s="6">
+      <c r="G17" s="5">
         <v>5281.6984417918602</v>
       </c>
-      <c r="H17" s="6">
+      <c r="H17" s="5">
         <v>3180.1465108740372</v>
       </c>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6">
+      <c r="I17" s="5">
+        <v>1508.0722156017994</v>
+      </c>
+      <c r="J17" s="5">
         <v>3449.9858942749584</v>
       </c>
-      <c r="K17" s="6">
+      <c r="K17" s="5">
+        <f t="shared" si="1"/>
         <v>2484.9201937563744</v>
       </c>
-      <c r="L17" s="6">
+      <c r="L17" s="5">
+        <f t="shared" si="1"/>
         <v>1337.4164597983822</v>
       </c>
-      <c r="M17" s="6">
+      <c r="M17" s="5">
+        <f t="shared" si="1"/>
         <v>2693.8171554024916</v>
       </c>
-      <c r="N17" s="2"/>
+      <c r="N17" s="5">
+        <v>9921.8047504804363</v>
+      </c>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" s="1">
         <f t="shared" si="0"/>
         <v>2039</v>
       </c>
-      <c r="C18" s="6">
+      <c r="C18" s="5">
         <v>4755.4401850625918</v>
       </c>
-      <c r="D18" s="6">
+      <c r="D18" s="5">
         <v>7672.359698406055</v>
       </c>
-      <c r="E18" s="6">
-        <v>3070.6699008059168</v>
-      </c>
-      <c r="F18" s="6">
+      <c r="E18" s="5">
+        <v>4700.1076438236432</v>
+      </c>
+      <c r="F18" s="5">
         <v>9451.957591022785</v>
       </c>
-      <c r="G18" s="6">
+      <c r="G18" s="5">
         <v>5455.0497239954748</v>
       </c>
-      <c r="H18" s="6">
+      <c r="H18" s="5">
         <v>2985.349127054737</v>
       </c>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6">
+      <c r="I18" s="5">
+        <v>1609.051536376933</v>
+      </c>
+      <c r="J18" s="5">
         <v>1591.4154739747762</v>
       </c>
-      <c r="K18" s="6">
+      <c r="K18" s="5">
+        <f t="shared" si="1"/>
         <v>2596.7416024754111</v>
       </c>
-      <c r="L18" s="6">
+      <c r="L18" s="5">
+        <f t="shared" si="1"/>
         <v>1397.6002004893094</v>
       </c>
-      <c r="M18" s="6">
+      <c r="M18" s="5">
+        <f t="shared" si="1"/>
         <v>2815.0389273956034</v>
       </c>
-      <c r="N18" s="2"/>
+      <c r="N18" s="5">
+        <v>10586.160935948119</v>
+      </c>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" s="1">
         <f t="shared" si="0"/>
         <v>2040</v>
       </c>
-      <c r="C19" s="6">
+      <c r="C19" s="5">
         <v>4712.8263351238811</v>
       </c>
-      <c r="D19" s="6">
+      <c r="D19" s="5">
         <v>7370.923728460697</v>
       </c>
-      <c r="E19" s="6">
-        <v>3066.649476961069</v>
-      </c>
-      <c r="F19" s="6">
+      <c r="E19" s="5">
+        <v>4448.8476307615656</v>
+      </c>
+      <c r="F19" s="5">
         <v>9809.1114632965837</v>
       </c>
-      <c r="G19" s="6">
+      <c r="G19" s="5">
         <v>5562.4537677373455</v>
       </c>
-      <c r="H19" s="6">
+      <c r="H19" s="5">
         <v>3146.9679929508952</v>
       </c>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6">
+      <c r="I19" s="5">
+        <v>905.55856109873594</v>
+      </c>
+      <c r="J19" s="5">
         <v>2387.1653240800347</v>
       </c>
-      <c r="K19" s="6">
+      <c r="K19" s="5">
+        <f t="shared" si="1"/>
         <v>2713.5949745868043</v>
       </c>
-      <c r="L19" s="6">
+      <c r="L19" s="5">
+        <f t="shared" si="1"/>
         <v>1460.4922095113282</v>
       </c>
-      <c r="M19" s="6">
+      <c r="M19" s="5">
+        <f t="shared" si="1"/>
         <v>2941.7156791284056</v>
       </c>
-      <c r="N19" s="2"/>
+      <c r="N19" s="5">
+        <v>5957.7884536267202</v>
+      </c>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" s="1">
         <f t="shared" si="0"/>
         <v>2041</v>
       </c>
-      <c r="C20" s="6">
+      <c r="C20" s="5">
         <v>4323.0631179204865</v>
       </c>
-      <c r="D20" s="6">
+      <c r="D20" s="5">
         <v>7212.9807966792396</v>
       </c>
-      <c r="E20" s="6">
-        <v>3423.5276954198116</v>
-      </c>
-      <c r="F20" s="6">
+      <c r="E20" s="5">
+        <v>4404.6638333651717</v>
+      </c>
+      <c r="F20" s="5">
         <v>8177.7095148837079</v>
       </c>
-      <c r="G20" s="6">
+      <c r="G20" s="5">
         <v>4547.2721925786218</v>
       </c>
-      <c r="H20" s="6">
+      <c r="H20" s="5">
         <v>2438.287854523574</v>
       </c>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6">
+      <c r="I20" s="5">
+        <v>1571.163826467832</v>
+      </c>
+      <c r="J20" s="5">
         <v>1701.053814332302</v>
       </c>
-      <c r="K20" s="6">
+      <c r="K20" s="5">
+        <f t="shared" si="1"/>
         <v>2835.7067484432105</v>
       </c>
-      <c r="L20" s="6">
+      <c r="L20" s="5">
+        <f t="shared" si="1"/>
         <v>1526.2143589393379</v>
       </c>
-      <c r="M20" s="6">
+      <c r="M20" s="5">
+        <f t="shared" si="1"/>
         <v>3074.0928846891834</v>
       </c>
-      <c r="N20" s="2"/>
+      <c r="N20" s="5">
+        <v>10336.892726991075</v>
+      </c>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" s="1">
         <f t="shared" si="0"/>
         <v>2042</v>
       </c>
-      <c r="C21" s="6">
+      <c r="C21" s="5">
         <v>7403.3146914586268</v>
       </c>
-      <c r="D21" s="6">
+      <c r="D21" s="5">
         <v>7114.4921866395543</v>
       </c>
-      <c r="E21" s="6">
-        <v>3151.2409985786162</v>
-      </c>
-      <c r="F21" s="6">
+      <c r="E21" s="5">
+        <v>4322.8251616964926</v>
+      </c>
+      <c r="F21" s="5">
         <v>6902.4335581849218</v>
       </c>
-      <c r="G21" s="6">
+      <c r="G21" s="5">
         <v>4591.0521644979535</v>
       </c>
-      <c r="H21" s="6">
+      <c r="H21" s="5">
         <v>738.06028430544143</v>
       </c>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6">
+      <c r="I21" s="5">
+        <v>3429.6463359064046</v>
+      </c>
+      <c r="J21" s="5">
         <v>1502.8038567993208</v>
       </c>
-      <c r="K21" s="6">
+      <c r="K21" s="5">
+        <f t="shared" si="1"/>
         <v>2963.3135521231548</v>
       </c>
-      <c r="L21" s="6">
+      <c r="L21" s="5">
+        <f t="shared" si="1"/>
         <v>1594.8940050916081</v>
       </c>
-      <c r="M21" s="6">
+      <c r="M21" s="5">
+        <f t="shared" si="1"/>
         <v>3212.4270645001966</v>
       </c>
-      <c r="N21" s="2"/>
+      <c r="N21" s="5">
+        <v>22564.092724488615</v>
+      </c>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22" s="1">
         <f t="shared" si="0"/>
         <v>2043</v>
       </c>
-      <c r="C22" s="6">
+      <c r="C22" s="5">
         <v>4017.1851521178701</v>
       </c>
-      <c r="D22" s="6">
+      <c r="D22" s="5">
         <v>6861.0247629723408</v>
       </c>
-      <c r="E22" s="6">
-        <v>4028.4904524185981</v>
-      </c>
-      <c r="F22" s="6">
+      <c r="E22" s="5">
+        <v>4704.9869228474563</v>
+      </c>
+      <c r="F22" s="5">
         <v>6264.1358442520304</v>
       </c>
-      <c r="G22" s="6">
+      <c r="G22" s="5">
         <v>4343.9829427370814</v>
       </c>
-      <c r="H22" s="6">
+      <c r="H22" s="5">
         <v>601.78349273418473</v>
       </c>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6">
+      <c r="I22" s="5">
+        <v>3575.9025766681743</v>
+      </c>
+      <c r="J22" s="5">
         <v>1286.1994885699846</v>
       </c>
-      <c r="K22" s="6">
+      <c r="K22" s="5">
+        <f t="shared" si="1"/>
         <v>3096.6626619686963</v>
       </c>
-      <c r="L22" s="6">
+      <c r="L22" s="5">
+        <f t="shared" si="1"/>
         <v>1666.6642353207303</v>
       </c>
-      <c r="M22" s="6">
+      <c r="M22" s="5">
+        <f t="shared" si="1"/>
         <v>3356.986282402705</v>
       </c>
-      <c r="N22" s="2"/>
+      <c r="N22" s="5">
+        <v>23526.331700424169</v>
+      </c>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23" s="1">
         <f t="shared" si="0"/>
         <v>2044</v>
       </c>
-      <c r="C23" s="6">
+      <c r="C23" s="5">
         <v>3795.2581068349973</v>
       </c>
-      <c r="D23" s="6">
+      <c r="D23" s="5">
         <v>7328.5992480656741</v>
       </c>
-      <c r="E23" s="6">
-        <v>4620.092509010864</v>
-      </c>
-      <c r="F23" s="6">
+      <c r="E23" s="5">
+        <v>5466.3907696940523</v>
+      </c>
+      <c r="F23" s="5">
         <v>7208.5854147848531</v>
       </c>
-      <c r="G23" s="6">
+      <c r="G23" s="5">
         <v>4864.1456318902165</v>
       </c>
-      <c r="H23" s="6">
+      <c r="H23" s="5">
         <v>626.68616578319768</v>
       </c>
-      <c r="I23" s="6"/>
-      <c r="J23" s="6">
+      <c r="I23" s="5">
+        <v>208.43109107741782</v>
+      </c>
+      <c r="J23" s="5">
         <v>1344.2654914942575</v>
       </c>
-      <c r="K23" s="6">
+      <c r="K23" s="5">
+        <f t="shared" si="1"/>
         <v>3236.0124817572873</v>
       </c>
-      <c r="L23" s="6">
+      <c r="L23" s="5">
+        <f t="shared" si="1"/>
         <v>1741.664125910163</v>
       </c>
-      <c r="M23" s="6">
+      <c r="M23" s="5">
+        <f t="shared" si="1"/>
         <v>3508.0506651108267</v>
       </c>
-      <c r="N23" s="2"/>
+      <c r="N23" s="5">
+        <v>1371.2954646369503</v>
+      </c>
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B24" s="1">
         <f t="shared" si="0"/>
         <v>2045</v>
       </c>
-      <c r="C24" s="6">
+      <c r="C24" s="5">
         <v>-5562.2536831526349</v>
       </c>
-      <c r="D24" s="6">
+      <c r="D24" s="5">
         <v>7550.7985964222553</v>
       </c>
-      <c r="E24" s="6">
-        <v>5023.1832415108129</v>
-      </c>
-      <c r="F24" s="6">
+      <c r="E24" s="5">
+        <v>6800.1708681005994</v>
+      </c>
+      <c r="F24" s="5">
         <v>7251.4632082702119</v>
       </c>
-      <c r="G24" s="6">
+      <c r="G24" s="5">
         <v>4826.8320156433474</v>
       </c>
-      <c r="H24" s="6">
+      <c r="H24" s="5">
         <v>-2769.3016555129261</v>
       </c>
-      <c r="I24" s="6"/>
-      <c r="J24" s="6">
+      <c r="I24" s="5">
+        <v>625.32963005381805</v>
+      </c>
+      <c r="J24" s="5">
         <v>239.15492205244067</v>
       </c>
-      <c r="K24" s="6">
+      <c r="K24" s="5">
+        <f t="shared" si="1"/>
         <v>3381.6330434363649</v>
       </c>
-      <c r="L24" s="6">
+      <c r="L24" s="5">
+        <f t="shared" si="1"/>
         <v>1820.0390115761202</v>
       </c>
-      <c r="M24" s="6">
+      <c r="M24" s="5">
+        <f t="shared" si="1"/>
         <v>3665.9129450408136</v>
       </c>
-      <c r="N24" s="2"/>
+      <c r="N24" s="5">
+        <v>4114.1255902047551</v>
+      </c>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B25" s="1">
         <f t="shared" si="0"/>
         <v>2046</v>
       </c>
-      <c r="C25" s="6">
+      <c r="C25" s="5">
         <v>19624.904747554589</v>
       </c>
-      <c r="D25" s="6">
+      <c r="D25" s="5">
         <v>10472.65281419406</v>
       </c>
-      <c r="E25" s="6">
-        <v>4721.6374938368863</v>
-      </c>
-      <c r="F25" s="6">
+      <c r="E25" s="5">
+        <v>4836.6248297612428</v>
+      </c>
+      <c r="F25" s="5">
         <v>8154.2210641793599</v>
       </c>
-      <c r="G25" s="6">
+      <c r="G25" s="5">
         <v>4107.4633820636591</v>
       </c>
-      <c r="H25" s="6">
+      <c r="H25" s="5">
         <v>-2520.1257992102474</v>
       </c>
-      <c r="I25" s="6"/>
-      <c r="J25" s="6">
+      <c r="I25" s="5">
+        <v>882.36437232330456</v>
+      </c>
+      <c r="J25" s="5">
         <v>362.63640822107453</v>
       </c>
-      <c r="K25" s="6">
+      <c r="K25" s="5">
+        <f t="shared" si="1"/>
         <v>3533.8065303910012</v>
       </c>
-      <c r="L25" s="6">
+      <c r="L25" s="5">
+        <f t="shared" si="1"/>
         <v>1901.9407670970454</v>
       </c>
-      <c r="M25" s="6">
+      <c r="M25" s="5">
+        <f t="shared" si="1"/>
         <v>3830.8790275676502</v>
       </c>
-      <c r="N25" s="2"/>
+      <c r="N25" s="5">
+        <v>5805.1908459028873</v>
+      </c>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B26" s="1">
         <f t="shared" si="0"/>
         <v>2047</v>
       </c>
-      <c r="C26" s="6">
+      <c r="C26" s="5">
         <v>795.63070761713402</v>
       </c>
-      <c r="D26" s="6">
+      <c r="D26" s="5">
         <v>6938.1994790045019</v>
       </c>
-      <c r="E26" s="6">
-        <v>4294.765699330982</v>
-      </c>
-      <c r="F26" s="6">
+      <c r="E26" s="5">
+        <v>4570.7074782877553</v>
+      </c>
+      <c r="F26" s="5">
         <v>8198.0874546577325</v>
       </c>
-      <c r="G26" s="6">
+      <c r="G26" s="5">
         <v>4204.7632074703888</v>
       </c>
-      <c r="H26" s="6">
+      <c r="H26" s="5">
         <v>-2175.9164101714859</v>
       </c>
-      <c r="I26" s="6"/>
-      <c r="J26" s="6">
+      <c r="I26" s="5">
+        <v>5717.7724254876202</v>
+      </c>
+      <c r="J26" s="5">
         <v>472.14988904221639</v>
       </c>
-      <c r="K26" s="6">
+      <c r="K26" s="5">
+        <f t="shared" si="1"/>
         <v>3692.8278242585961</v>
       </c>
-      <c r="L26" s="6">
+      <c r="L26" s="5">
+        <f t="shared" si="1"/>
         <v>1987.5281016164124</v>
       </c>
-      <c r="M26" s="6">
+      <c r="M26" s="5">
+        <f t="shared" si="1"/>
         <v>4003.2685838081943</v>
       </c>
-      <c r="N26" s="2"/>
+      <c r="N26" s="5">
+        <v>37617.974143718733</v>
+      </c>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B27" s="1">
         <f t="shared" si="0"/>
         <v>2048</v>
       </c>
-      <c r="C27" s="6">
+      <c r="C27" s="5">
         <v>660.98607955045611</v>
       </c>
-      <c r="D27" s="6">
+      <c r="D27" s="5">
         <v>20633.795860988983</v>
       </c>
-      <c r="E27" s="6">
-        <v>5055.0799980076945</v>
-      </c>
-      <c r="F27" s="6">
+      <c r="E27" s="5">
+        <v>65371.712835673432</v>
+      </c>
+      <c r="F27" s="5">
         <v>8278.9794027489297</v>
       </c>
-      <c r="G27" s="6">
+      <c r="G27" s="5">
         <v>3929.1449403481429</v>
       </c>
-      <c r="H27" s="6">
+      <c r="H27" s="5">
         <v>-1881.4274824677523</v>
       </c>
-      <c r="I27" s="6"/>
-      <c r="J27" s="6">
+      <c r="I27" s="5">
+        <v>1263.9425839796477</v>
+      </c>
+      <c r="J27" s="5">
         <v>514.78768513764919</v>
       </c>
-      <c r="K27" s="6">
+      <c r="K27" s="5">
+        <f t="shared" si="1"/>
         <v>3859.0050763502327</v>
       </c>
-      <c r="L27" s="6">
+      <c r="L27" s="5">
+        <f t="shared" si="1"/>
         <v>2076.966866189151</v>
       </c>
-      <c r="M27" s="6">
+      <c r="M27" s="5">
+        <f t="shared" si="1"/>
         <v>4183.4156700795629</v>
       </c>
-      <c r="N27" s="2"/>
+      <c r="N27" s="5">
+        <v>8315.6439090414751</v>
+      </c>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B28" s="1">
         <f t="shared" si="0"/>
         <v>2049</v>
       </c>
-      <c r="C28" s="6">
+      <c r="C28" s="5">
         <v>675.09294550410686</v>
       </c>
-      <c r="D28" s="6">
+      <c r="D28" s="5">
         <v>22601.266606201407</v>
       </c>
-      <c r="E28" s="6">
-        <v>5328.3082035796997</v>
-      </c>
-      <c r="F28" s="6">
+      <c r="E28" s="5">
+        <v>176.52578358770324</v>
+      </c>
+      <c r="F28" s="5">
         <v>8351.1674389202817</v>
       </c>
-      <c r="G28" s="6">
+      <c r="G28" s="5">
         <v>4359.9855593499242</v>
       </c>
-      <c r="H28" s="6">
+      <c r="H28" s="5">
         <v>-1802.3619580907712</v>
       </c>
-      <c r="I28" s="6"/>
-      <c r="J28" s="6">
+      <c r="I28" s="5">
+        <v>21.722954410910749</v>
+      </c>
+      <c r="J28" s="5">
         <v>51.21045494692499</v>
       </c>
-      <c r="K28" s="6">
+      <c r="K28" s="5">
+        <f t="shared" si="1"/>
         <v>4032.660304785993</v>
       </c>
-      <c r="L28" s="6">
+      <c r="L28" s="5">
+        <f t="shared" si="1"/>
         <v>2170.4303751676625</v>
       </c>
-      <c r="M28" s="6">
+      <c r="M28" s="5">
+        <f t="shared" si="1"/>
         <v>4371.669375233143</v>
       </c>
-      <c r="N28" s="2"/>
+      <c r="N28" s="5">
+        <v>142.91816402348886</v>
+      </c>
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B29" s="1">
         <f t="shared" si="0"/>
         <v>2050</v>
       </c>
-      <c r="C29" s="6">
+      <c r="C29" s="5">
         <v>647.12467514705827</v>
       </c>
-      <c r="D29" s="6">
+      <c r="D29" s="5">
         <v>1953.4096445333475</v>
       </c>
-      <c r="E29" s="6">
-        <v>53235.522726057818</v>
-      </c>
-      <c r="F29" s="6">
+      <c r="E29" s="5">
+        <v>163.40515541828785</v>
+      </c>
+      <c r="F29" s="5">
         <v>8321.4072834855524</v>
       </c>
-      <c r="G29" s="6">
+      <c r="G29" s="5">
         <v>5226.3542632588751</v>
       </c>
-      <c r="H29" s="6">
+      <c r="H29" s="5">
         <v>168.25225081348492</v>
       </c>
-      <c r="I29" s="6"/>
-      <c r="J29" s="6">
+      <c r="I29" s="5">
+        <v>31.607676579629818</v>
+      </c>
+      <c r="J29" s="5">
         <v>68.529977450706909</v>
       </c>
-      <c r="K29" s="6">
+      <c r="K29" s="5">
+        <f t="shared" si="1"/>
         <v>4214.1300185013624</v>
       </c>
-      <c r="L29" s="6">
+      <c r="L29" s="5">
+        <f t="shared" si="1"/>
         <v>2268.0997420502072</v>
       </c>
-      <c r="M29" s="6">
+      <c r="M29" s="5">
+        <f t="shared" si="1"/>
         <v>4568.3944971186338</v>
       </c>
-      <c r="N29" s="2"/>
+      <c r="N29" s="5">
+        <v>207.9510466375614</v>
+      </c>
     </row>
     <row r="30" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B30" s="1">
         <f t="shared" si="0"/>
         <v>2051</v>
       </c>
-      <c r="C30" s="6">
+      <c r="C30" s="5">
         <v>616.58550080762438</v>
       </c>
-      <c r="D30" s="6">
+      <c r="D30" s="5">
         <v>2065.0517150395103</v>
       </c>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6">
+      <c r="E30" s="5">
+        <v>115.73315299785321</v>
+      </c>
+      <c r="F30" s="5">
         <v>9144.8197090018821</v>
       </c>
-      <c r="G30" s="6">
+      <c r="G30" s="5">
         <v>5055.0627512252313</v>
       </c>
-      <c r="H30" s="6">
+      <c r="H30" s="5">
         <v>146.78636228306991</v>
       </c>
-      <c r="I30" s="6"/>
-      <c r="J30" s="6">
+      <c r="I30" s="5">
+        <v>565.45374305641292</v>
+      </c>
+      <c r="J30" s="5">
         <v>99.397506451781567</v>
       </c>
-      <c r="K30" s="6">
+      <c r="K30" s="5">
+        <f t="shared" si="1"/>
         <v>4403.7658693339235</v>
       </c>
-      <c r="L30" s="6">
+      <c r="L30" s="5">
+        <f t="shared" si="1"/>
         <v>2370.1642304424663</v>
       </c>
-      <c r="M30" s="6">
+      <c r="M30" s="5">
+        <f t="shared" si="1"/>
         <v>4773.972249488972</v>
       </c>
-      <c r="N30" s="2"/>
+      <c r="N30" s="5">
+        <v>3720.1942824702533</v>
+      </c>
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B31" s="1">
         <f t="shared" si="0"/>
         <v>2052</v>
       </c>
-      <c r="C31" s="6">
+      <c r="C31" s="5">
         <v>896.01752122538289</v>
       </c>
-      <c r="D31" s="6">
+      <c r="D31" s="5">
         <v>2186.807936918362</v>
       </c>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6">
+      <c r="E31" s="5">
+        <v>91.809703028503719</v>
+      </c>
+      <c r="F31" s="5">
         <v>9162.796070732622</v>
       </c>
-      <c r="G31" s="6">
+      <c r="G31" s="5">
         <v>5039.7898278747607</v>
       </c>
-      <c r="H31" s="6">
+      <c r="H31" s="5">
         <v>139.18288371686043</v>
       </c>
-      <c r="I31" s="6"/>
-      <c r="J31" s="6">
+      <c r="I31" s="5">
+        <v>-2028.5808695841597</v>
+      </c>
+      <c r="J31" s="5">
         <v>150.46339294311417</v>
       </c>
-      <c r="K31" s="6">
+      <c r="K31" s="5">
+        <f t="shared" ref="K31:M39" si="2">K30*1.045</f>
         <v>4601.9353334539501</v>
       </c>
-      <c r="L31" s="6">
+      <c r="L31" s="5">
+        <f t="shared" si="2"/>
         <v>2476.8216208123772</v>
       </c>
-      <c r="M31" s="6">
+      <c r="M31" s="5">
+        <f t="shared" si="2"/>
         <v>4988.8010007159755</v>
       </c>
-      <c r="N31" s="2"/>
+      <c r="N31" s="5">
+        <v>-13346.299401545604</v>
+      </c>
     </row>
     <row r="32" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B32" s="1">
         <f t="shared" si="0"/>
         <v>2053</v>
       </c>
-      <c r="C32" s="6">
+      <c r="C32" s="5">
         <v>594.06019348621635</v>
       </c>
-      <c r="D32" s="6">
+      <c r="D32" s="5">
         <v>2044.4828406936576</v>
       </c>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6">
+      <c r="E32" s="5">
+        <v>0</v>
+      </c>
+      <c r="F32" s="5">
         <v>9216.2516001340518</v>
       </c>
-      <c r="G32" s="6">
+      <c r="G32" s="5">
         <v>4744.7092284408018</v>
       </c>
-      <c r="H32" s="6">
+      <c r="H32" s="5">
         <v>131.58178701880718</v>
       </c>
-      <c r="I32" s="6"/>
-      <c r="J32" s="6">
+      <c r="I32" s="5">
+        <v>-45.921960791611475</v>
+      </c>
+      <c r="J32" s="5">
         <v>269.27948694934048</v>
       </c>
-      <c r="K32" s="6">
+      <c r="K32" s="5">
+        <f t="shared" si="2"/>
         <v>4809.0224234593779</v>
       </c>
-      <c r="L32" s="6">
+      <c r="L32" s="5">
+        <f t="shared" si="2"/>
         <v>2588.2785937489339</v>
       </c>
-      <c r="M32" s="6">
+      <c r="M32" s="5">
+        <f t="shared" si="2"/>
         <v>5213.2970457481943</v>
       </c>
-      <c r="N32" s="2"/>
+      <c r="N32" s="5">
+        <v>-302.12659846118009</v>
+      </c>
     </row>
     <row r="33" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B33" s="1">
         <f t="shared" si="0"/>
         <v>2054</v>
       </c>
-      <c r="C33" s="6">
+      <c r="C33" s="5">
         <v>115.97255023351308</v>
       </c>
-      <c r="D33" s="6">
+      <c r="D33" s="5">
         <v>1918.4732532483524</v>
       </c>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6">
+      <c r="E33" s="5"/>
+      <c r="F33" s="5">
         <v>9262.1506561333863</v>
       </c>
-      <c r="G33" s="6">
+      <c r="G33" s="5">
         <v>-14671.572646668461</v>
       </c>
-      <c r="H33" s="6">
+      <c r="H33" s="5">
         <v>701.42523164397414</v>
       </c>
-      <c r="I33" s="6"/>
-      <c r="J33" s="6">
+      <c r="I33" s="5">
+        <v>-37.010932626242912</v>
+      </c>
+      <c r="J33" s="5">
         <v>307.0113537120485</v>
       </c>
-      <c r="K33" s="6">
+      <c r="K33" s="5">
+        <f t="shared" si="2"/>
         <v>5025.4284325150493</v>
       </c>
-      <c r="L33" s="6">
+      <c r="L33" s="5">
+        <f t="shared" si="2"/>
         <v>2704.7511304676359</v>
       </c>
-      <c r="M33" s="6">
+      <c r="M33" s="5">
+        <f t="shared" si="2"/>
         <v>5447.8954128068626</v>
       </c>
-      <c r="N33" s="2"/>
+      <c r="N33" s="5">
+        <v>-243.49977630496312</v>
+      </c>
     </row>
     <row r="34" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B34" s="1">
         <f t="shared" si="0"/>
         <v>2055</v>
       </c>
-      <c r="C34" s="6">
+      <c r="C34" s="5">
         <v>-3352.7390670035115</v>
       </c>
-      <c r="D34" s="6">
+      <c r="D34" s="5">
         <v>1783.7952481592715</v>
       </c>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6">
+      <c r="E34" s="5"/>
+      <c r="F34" s="5">
         <v>9211.7283853004719</v>
       </c>
-      <c r="G34" s="6">
+      <c r="G34" s="5">
         <v>55386.705890640995</v>
       </c>
-      <c r="H34" s="6"/>
-      <c r="I34" s="6"/>
-      <c r="J34" s="6">
+      <c r="H34" s="5"/>
+      <c r="I34" s="5">
+        <v>-30.127705403040821</v>
+      </c>
+      <c r="J34" s="5">
         <v>28.019573813242371</v>
       </c>
-      <c r="K34" s="6">
+      <c r="K34" s="5">
+        <f t="shared" si="2"/>
         <v>5251.5727119782259</v>
       </c>
-      <c r="L34" s="6">
+      <c r="L34" s="5">
+        <f t="shared" si="2"/>
         <v>2826.4649313386794</v>
       </c>
-      <c r="M34" s="6">
+      <c r="M34" s="5">
+        <f t="shared" si="2"/>
         <v>5693.050706383171</v>
       </c>
-      <c r="N34" s="2"/>
+      <c r="N34" s="5">
+        <v>-198.21412230559554</v>
+      </c>
     </row>
     <row r="35" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B35" s="1">
         <f t="shared" si="0"/>
         <v>2056</v>
       </c>
-      <c r="C35" s="7"/>
-      <c r="D35" s="6">
+      <c r="C35" s="6"/>
+      <c r="D35" s="5">
         <v>-243.83066214652581</v>
       </c>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6">
+      <c r="E35" s="5"/>
+      <c r="F35" s="5">
         <v>10226.484665801081</v>
       </c>
-      <c r="G35" s="6"/>
-      <c r="H35" s="6"/>
-      <c r="I35" s="6"/>
-      <c r="J35" s="6">
+      <c r="G35" s="5"/>
+      <c r="H35" s="5"/>
+      <c r="I35" s="5">
+        <v>-50.937750239084195</v>
+      </c>
+      <c r="J35" s="5">
         <v>-236.84261895953409</v>
       </c>
-      <c r="K35" s="6">
+      <c r="K35" s="5">
+        <f t="shared" si="2"/>
         <v>5487.893484017246</v>
       </c>
-      <c r="L35" s="6">
+      <c r="L35" s="5">
+        <f t="shared" si="2"/>
         <v>2953.6558532489198</v>
       </c>
-      <c r="M35" s="6">
+      <c r="M35" s="5">
+        <f t="shared" si="2"/>
         <v>5949.2379881704137</v>
       </c>
-      <c r="N35" s="2"/>
+      <c r="N35" s="5">
+        <v>-335.12613459246893</v>
+      </c>
     </row>
     <row r="36" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B36" s="1">
         <f t="shared" si="0"/>
         <v>2057</v>
       </c>
-      <c r="C36" s="7"/>
-      <c r="D36" s="6">
+      <c r="C36" s="6"/>
+      <c r="D36" s="5">
         <v>1520.9819928855056</v>
       </c>
-      <c r="E36" s="6"/>
-      <c r="F36" s="6">
+      <c r="E36" s="5"/>
+      <c r="F36" s="5">
         <v>10213.216200994053</v>
       </c>
-      <c r="G36" s="6"/>
-      <c r="H36" s="6"/>
-      <c r="I36" s="6"/>
-      <c r="J36" s="6">
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
+      <c r="I36" s="5">
+        <v>-117.11967923122944</v>
+      </c>
+      <c r="J36" s="5">
         <v>-657.70216614234812</v>
       </c>
-      <c r="K36" s="6">
+      <c r="K36" s="5">
+        <f t="shared" si="2"/>
         <v>5734.8486907980214</v>
       </c>
-      <c r="L36" s="6">
+      <c r="L36" s="5">
+        <f t="shared" si="2"/>
         <v>3086.5703666451209</v>
       </c>
-      <c r="M36" s="6">
+      <c r="M36" s="5">
+        <f t="shared" si="2"/>
         <v>6216.9536976380823</v>
       </c>
-      <c r="N36" s="2"/>
+      <c r="N36" s="5">
+        <v>-770.54571906388662</v>
+      </c>
     </row>
     <row r="37" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B37" s="1">
         <f t="shared" si="0"/>
         <v>2058</v>
       </c>
-      <c r="C37" s="7"/>
-      <c r="D37" s="6">
+      <c r="C37" s="6"/>
+      <c r="D37" s="5">
         <v>1526.5556934875719</v>
       </c>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6">
+      <c r="E37" s="5"/>
+      <c r="F37" s="5">
         <v>10248.472431009239</v>
       </c>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="6"/>
-      <c r="J37" s="6">
+      <c r="G37" s="5"/>
+      <c r="H37" s="5"/>
+      <c r="I37" s="5">
+        <v>-1499.9268304457303</v>
+      </c>
+      <c r="J37" s="5">
         <v>-585.34752945623063</v>
       </c>
-      <c r="K37" s="6">
+      <c r="K37" s="5">
+        <f t="shared" si="2"/>
         <v>5992.9168818839316</v>
       </c>
-      <c r="L37" s="6">
+      <c r="L37" s="5">
+        <f t="shared" si="2"/>
         <v>3225.466033144151</v>
       </c>
-      <c r="M37" s="6">
+      <c r="M37" s="5">
+        <f t="shared" si="2"/>
         <v>6496.7166140317959</v>
       </c>
-      <c r="N37" s="2"/>
+      <c r="N37" s="5">
+        <v>-9868.2151940255881</v>
+      </c>
     </row>
     <row r="38" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B38" s="1">
         <f t="shared" si="0"/>
         <v>2059</v>
       </c>
-      <c r="C38" s="7"/>
-      <c r="D38" s="6">
+      <c r="C38" s="6"/>
+      <c r="D38" s="5">
         <v>1531.3693875356348</v>
       </c>
-      <c r="E38" s="6"/>
-      <c r="F38" s="6">
+      <c r="E38" s="5"/>
+      <c r="F38" s="5">
         <v>10277.342439080616</v>
       </c>
-      <c r="G38" s="6"/>
-      <c r="H38" s="6"/>
-      <c r="I38" s="6"/>
-      <c r="J38" s="6">
+      <c r="G38" s="5"/>
+      <c r="H38" s="5"/>
+      <c r="I38" s="5"/>
+      <c r="J38" s="5">
         <v>-501.98046488067251</v>
       </c>
-      <c r="K38" s="6">
+      <c r="K38" s="5">
+        <f t="shared" si="2"/>
         <v>6262.5981415687083</v>
       </c>
-      <c r="L38" s="6">
+      <c r="L38" s="5">
+        <f t="shared" si="2"/>
         <v>3370.6120046356377</v>
       </c>
-      <c r="M38" s="6">
+      <c r="M38" s="5">
+        <f t="shared" si="2"/>
         <v>6789.068861663226</v>
       </c>
-      <c r="N38" s="2"/>
+      <c r="N38" s="5"/>
     </row>
     <row r="39" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B39" s="1">
         <f t="shared" si="0"/>
         <v>2060</v>
       </c>
-      <c r="C39" s="7"/>
-      <c r="D39" s="6">
+      <c r="C39" s="6"/>
+      <c r="D39" s="5">
         <v>17083.220148344564</v>
       </c>
-      <c r="E39" s="6"/>
-      <c r="F39" s="6">
+      <c r="E39" s="5"/>
+      <c r="F39" s="5">
         <v>126239.11166860364</v>
       </c>
-      <c r="G39" s="6"/>
-      <c r="H39" s="6"/>
-      <c r="I39" s="6"/>
-      <c r="J39" s="6">
+      <c r="G39" s="5"/>
+      <c r="H39" s="5"/>
+      <c r="I39" s="5"/>
+      <c r="J39" s="5">
         <v>61.548390186488291</v>
       </c>
-      <c r="K39" s="6">
+      <c r="K39" s="5">
+        <f t="shared" si="2"/>
         <v>6544.4150579392999</v>
       </c>
-      <c r="L39" s="6">
+      <c r="L39" s="5">
+        <f t="shared" si="2"/>
         <v>3522.2895448442414</v>
       </c>
-      <c r="M39" s="6">
+      <c r="M39" s="5">
+        <f t="shared" si="2"/>
         <v>7094.5769604380703</v>
       </c>
-      <c r="N39" s="2"/>
+      <c r="N39" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1924,106 +2163,114 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D94BCFB6-56BF-474C-B5EB-3DCB364764B7}">
-  <dimension ref="C2:D13"/>
+  <dimension ref="C2:D14"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E30" sqref="E29:E30"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C2" s="9"/>
-      <c r="D2" s="10" t="s">
+      <c r="C2" s="8"/>
+      <c r="D2" s="9" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="12">
-        <v>9.2365173983567814</v>
+      <c r="D3" s="11">
+        <v>9.2337396205789979</v>
       </c>
     </row>
     <row r="4" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="14">
-        <v>12.524916327714633</v>
+      <c r="D4" s="13">
+        <v>12.522138549936855</v>
       </c>
     </row>
     <row r="5" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="14">
-        <v>13.211357066524261</v>
+      <c r="D5" s="13">
+        <v>14.433849503735471</v>
       </c>
     </row>
     <row r="6" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="14">
-        <v>12.165457920077804</v>
+      <c r="D6" s="13">
+        <v>12.162680142300024</v>
       </c>
     </row>
     <row r="7" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="14">
-        <v>12.531975519499337</v>
+      <c r="D7" s="13">
+        <v>12.529197741721557</v>
       </c>
     </row>
     <row r="8" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="14">
-        <v>6.2003485422552087</v>
+      <c r="D8" s="13">
+        <v>6.1975707644774349</v>
       </c>
     </row>
     <row r="9" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="13">
+        <v>8.190683748997424</v>
+      </c>
+    </row>
+    <row r="10" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C10" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="13">
+        <v>6.6642665374344405</v>
+      </c>
+    </row>
+    <row r="11" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C11" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="13">
+        <v>11.006125118224018</v>
+      </c>
+    </row>
+    <row r="12" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C12" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="13">
+        <v>11.671918388589615</v>
+      </c>
+    </row>
+    <row r="13" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C13" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="13">
+        <v>11.199476972806313</v>
+      </c>
+    </row>
+    <row r="14" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C14" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="14" t="e">
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="10" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C10" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="14">
-        <v>6.6670443152122205</v>
-      </c>
-    </row>
-    <row r="11" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C11" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" s="14">
-        <v>11.008902896001793</v>
-      </c>
-    </row>
-    <row r="12" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C12" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" s="14">
-        <v>11.674696166367394</v>
-      </c>
-    </row>
-    <row r="13" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C13" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" s="14">
-        <v>11.202254750584091</v>
+      <c r="D14" s="13">
+        <v>8.1906837489974222</v>
       </c>
     </row>
   </sheetData>
@@ -2032,6 +2279,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="f0bab05a-e9c1-4e32-93e9-8363aec9c620" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1a4d52ec-ae83-4798-bc6c-3cf1b4f12457">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010020E4BAF79DB213408BB296F3F8F32329" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="9679123e7a51fb6c2fee49c985862cfe">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1a4d52ec-ae83-4798-bc6c-3cf1b4f12457" xmlns:ns3="f0bab05a-e9c1-4e32-93e9-8363aec9c620" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ddaff962f7439efafa6fc254a8996caa" ns2:_="" ns3:_="">
     <xsd:import namespace="1a4d52ec-ae83-4798-bc6c-3cf1b4f12457"/>
@@ -2266,27 +2533,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{47140DD7-5C12-4BA5-9C24-A1CF0564C7A2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="f0bab05a-e9c1-4e32-93e9-8363aec9c620"/>
+    <ds:schemaRef ds:uri="1a4d52ec-ae83-4798-bc6c-3cf1b4f12457"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="f0bab05a-e9c1-4e32-93e9-8363aec9c620" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1a4d52ec-ae83-4798-bc6c-3cf1b4f12457">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{618C5CC8-9B8E-49D5-B2E6-D98C4C570E2E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{873E7543-F0E8-474C-8FBB-787032D90621}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2303,23 +2569,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{618C5CC8-9B8E-49D5-B2E6-D98C4C570E2E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{47140DD7-5C12-4BA5-9C24-A1CF0564C7A2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="f0bab05a-e9c1-4e32-93e9-8363aec9c620"/>
-    <ds:schemaRef ds:uri="1a4d52ec-ae83-4798-bc6c-3cf1b4f12457"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/irrdash3.xlsx
+++ b/irrdash3.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\JR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDAD27ED-A653-4AAF-AF9A-604AB36A10B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0CF49908-F9E4-48D5-AFD8-3ADBDD68710E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="duration" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029" iterate="1"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -549,7 +549,7 @@
   <dimension ref="B1:N39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="P10" sqref="P10"/>
+      <selection activeCell="T23" sqref="T23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -624,10 +624,10 @@
         <v>2025</v>
       </c>
       <c r="C4" s="5">
-        <v>-470.67382307367177</v>
+        <v>-121.59310206259966</v>
       </c>
       <c r="D4" s="5">
-        <v>4631.5827837508277</v>
+        <v>4611.1790284361814</v>
       </c>
       <c r="E4" s="5">
         <v>-1047.5957141760605</v>
@@ -667,10 +667,10 @@
         <v>2026</v>
       </c>
       <c r="C5" s="5">
-        <v>3538.0972351014188</v>
+        <v>1392.0699002682704</v>
       </c>
       <c r="D5" s="5">
-        <v>2774.4473082058207</v>
+        <v>2567.4289707736116</v>
       </c>
       <c r="E5" s="5">
         <v>1423.5911688211188</v>
@@ -709,10 +709,10 @@
         <v>2027</v>
       </c>
       <c r="C6" s="5">
-        <v>4484.7904693203254</v>
+        <v>1838.0876872796198</v>
       </c>
       <c r="D6" s="5">
-        <v>673.43742485870416</v>
+        <v>989.20857123354551</v>
       </c>
       <c r="E6" s="5">
         <v>836.48604610360985</v>
@@ -751,10 +751,10 @@
         <v>2028</v>
       </c>
       <c r="C7" s="5">
-        <v>4206.9186344387399</v>
+        <v>1754.901826303947</v>
       </c>
       <c r="D7" s="5">
-        <v>389.63683938603481</v>
+        <v>221.30914058918347</v>
       </c>
       <c r="E7" s="5">
         <v>1886.5332002018404</v>
@@ -793,10 +793,10 @@
         <v>2029</v>
       </c>
       <c r="C8" s="5">
-        <v>4067.4204566323524</v>
+        <v>1710.7683203219235</v>
       </c>
       <c r="D8" s="5">
-        <v>2311.5546413059237</v>
+        <v>2106.6256296028787</v>
       </c>
       <c r="E8" s="5">
         <v>2728.8526153584262</v>
@@ -835,10 +835,10 @@
         <v>2030</v>
       </c>
       <c r="C9" s="5">
-        <v>3928.0296285032227</v>
+        <v>1647.0656812304687</v>
       </c>
       <c r="D9" s="5">
-        <v>3521.2581378660516</v>
+        <v>5294.6326235182451</v>
       </c>
       <c r="E9" s="5">
         <v>1996.046006674206</v>
@@ -877,10 +877,10 @@
         <v>2031</v>
       </c>
       <c r="C10" s="5">
-        <v>4457.7693973052974</v>
+        <v>1917.7340557348034</v>
       </c>
       <c r="D10" s="5">
-        <v>4610.1327426788457</v>
+        <v>4427.5790990897876</v>
       </c>
       <c r="E10" s="5">
         <v>3040.4333366384258</v>
@@ -919,10 +919,10 @@
         <v>2032</v>
       </c>
       <c r="C11" s="5">
-        <v>4713.9381927342747</v>
+        <v>2029.3531672554727</v>
       </c>
       <c r="D11" s="5">
-        <v>6671.7465827624719</v>
+        <v>6699.9736305483148</v>
       </c>
       <c r="E11" s="5">
         <v>3079.6282281473705</v>
@@ -961,10 +961,10 @@
         <v>2033</v>
       </c>
       <c r="C12" s="5">
-        <v>4667.1760781167613</v>
+        <v>1997.8470570346981</v>
       </c>
       <c r="D12" s="5">
-        <v>6935.2450913074026</v>
+        <v>6197.7326120145926</v>
       </c>
       <c r="E12" s="5">
         <v>3365.750967532942</v>
@@ -1003,10 +1003,10 @@
         <v>2034</v>
       </c>
       <c r="C13" s="5">
-        <v>4673.7718433813397</v>
+        <v>1991.984589130936</v>
       </c>
       <c r="D13" s="5">
-        <v>8365.9665584280428</v>
+        <v>8111.977184249773</v>
       </c>
       <c r="E13" s="5">
         <v>3998.2297037974399</v>
@@ -1045,10 +1045,10 @@
         <v>2035</v>
       </c>
       <c r="C14" s="5">
-        <v>4793.5138564519721</v>
+        <v>2057.1948533202863</v>
       </c>
       <c r="D14" s="5">
-        <v>8202.7224017259268</v>
+        <v>8099.8737408743837</v>
       </c>
       <c r="E14" s="5">
         <v>3357.9892161586899</v>
@@ -1090,10 +1090,10 @@
         <v>2036</v>
       </c>
       <c r="C15" s="5">
-        <v>4700.7821417897921</v>
+        <v>2011.0737052291402</v>
       </c>
       <c r="D15" s="5">
-        <v>8500.9471223395376</v>
+        <v>8288.8144031864449</v>
       </c>
       <c r="E15" s="5">
         <v>3890.7284841014853</v>
@@ -1135,10 +1135,10 @@
         <v>2037</v>
       </c>
       <c r="C16" s="5">
-        <v>4687.6723673403949</v>
+        <v>2007.6284353019623</v>
       </c>
       <c r="D16" s="5">
-        <v>7627.1426449927549</v>
+        <v>7428.9529537233184</v>
       </c>
       <c r="E16" s="5">
         <v>3795.421343208634</v>
@@ -1180,10 +1180,10 @@
         <v>2038</v>
       </c>
       <c r="C17" s="5">
-        <v>4739.0067507614331</v>
+        <v>2028.547263757755</v>
       </c>
       <c r="D17" s="5">
-        <v>7752.7782219157989</v>
+        <v>7636.3305582043422</v>
       </c>
       <c r="E17" s="5">
         <v>4241.1276645324469</v>
@@ -1225,10 +1225,10 @@
         <v>2039</v>
       </c>
       <c r="C18" s="5">
-        <v>4755.4401850625918</v>
+        <v>2034.06030417581</v>
       </c>
       <c r="D18" s="5">
-        <v>7672.359698406055</v>
+        <v>7537.1078262266747</v>
       </c>
       <c r="E18" s="5">
         <v>4700.1076438236432</v>
@@ -1270,10 +1270,10 @@
         <v>2040</v>
       </c>
       <c r="C19" s="5">
-        <v>4712.8263351238811</v>
+        <v>1996.6375211769482</v>
       </c>
       <c r="D19" s="5">
-        <v>7370.923728460697</v>
+        <v>7239.4228885436014</v>
       </c>
       <c r="E19" s="5">
         <v>4448.8476307615656</v>
@@ -1315,10 +1315,10 @@
         <v>2041</v>
       </c>
       <c r="C20" s="5">
-        <v>4323.0631179204865</v>
+        <v>1842.4093558445461</v>
       </c>
       <c r="D20" s="5">
-        <v>7212.9807966792396</v>
+        <v>7128.8511428279435</v>
       </c>
       <c r="E20" s="5">
         <v>4404.6638333651717</v>
@@ -1360,10 +1360,10 @@
         <v>2042</v>
       </c>
       <c r="C21" s="5">
-        <v>7403.3146914586268</v>
+        <v>3128.2932890377224</v>
       </c>
       <c r="D21" s="5">
-        <v>7114.4921866395543</v>
+        <v>6983.7524039036143</v>
       </c>
       <c r="E21" s="5">
         <v>4322.8251616964926</v>
@@ -1405,10 +1405,10 @@
         <v>2043</v>
       </c>
       <c r="C22" s="5">
-        <v>4017.1851521178701</v>
+        <v>1739.2665875421385</v>
       </c>
       <c r="D22" s="5">
-        <v>6861.0247629723408</v>
+        <v>6736.245310886472</v>
       </c>
       <c r="E22" s="5">
         <v>4704.9869228474563</v>
@@ -1450,10 +1450,10 @@
         <v>2044</v>
       </c>
       <c r="C23" s="5">
-        <v>3795.2581068349973</v>
+        <v>1647.2597047795962</v>
       </c>
       <c r="D23" s="5">
-        <v>7328.5992480656741</v>
+        <v>7188.6301287649376</v>
       </c>
       <c r="E23" s="5">
         <v>5466.3907696940523</v>
@@ -1495,10 +1495,10 @@
         <v>2045</v>
       </c>
       <c r="C24" s="5">
-        <v>-5562.2536831526349</v>
+        <v>-2195.4704725154825</v>
       </c>
       <c r="D24" s="5">
-        <v>7550.7985964222553</v>
+        <v>7435.8005160484045</v>
       </c>
       <c r="E24" s="5">
         <v>6800.1708681005994</v>
@@ -1540,10 +1540,10 @@
         <v>2046</v>
       </c>
       <c r="C25" s="5">
-        <v>19624.904747554589</v>
+        <v>8383.1529293208077</v>
       </c>
       <c r="D25" s="5">
-        <v>10472.65281419406</v>
+        <v>9736.2645221372186</v>
       </c>
       <c r="E25" s="5">
         <v>4836.6248297612428</v>
@@ -1585,10 +1585,10 @@
         <v>2047</v>
       </c>
       <c r="C26" s="5">
-        <v>795.63070761713402</v>
+        <v>416.63938550832677</v>
       </c>
       <c r="D26" s="5">
-        <v>6938.1994790045019</v>
+        <v>6916.0347688484908</v>
       </c>
       <c r="E26" s="5">
         <v>4570.7074782877553</v>
@@ -1630,10 +1630,10 @@
         <v>2048</v>
       </c>
       <c r="C27" s="5">
-        <v>660.98607955045611</v>
+        <v>357.61370388398888</v>
       </c>
       <c r="D27" s="5">
-        <v>20633.795860988983</v>
+        <v>17792.412517860637</v>
       </c>
       <c r="E27" s="5">
         <v>65371.712835673432</v>
@@ -1675,10 +1675,10 @@
         <v>2049</v>
       </c>
       <c r="C28" s="5">
-        <v>675.09294550410686</v>
+        <v>363.24130408974872</v>
       </c>
       <c r="D28" s="5">
-        <v>22601.266606201407</v>
+        <v>21724.322353370055</v>
       </c>
       <c r="E28" s="5">
         <v>176.52578358770324</v>
@@ -1720,10 +1720,10 @@
         <v>2050</v>
       </c>
       <c r="C29" s="5">
-        <v>647.12467514705827</v>
+        <v>349.11790942905429</v>
       </c>
       <c r="D29" s="5">
-        <v>1953.4096445333475</v>
+        <v>1858.9630331803621</v>
       </c>
       <c r="E29" s="5">
         <v>163.40515541828785</v>
@@ -1765,10 +1765,10 @@
         <v>2051</v>
       </c>
       <c r="C30" s="5">
-        <v>616.58550080762438</v>
+        <v>333.88971618004257</v>
       </c>
       <c r="D30" s="5">
-        <v>2065.0517150395103</v>
+        <v>1984.3939238409062</v>
       </c>
       <c r="E30" s="5">
         <v>115.73315299785321</v>
@@ -1810,10 +1810,10 @@
         <v>2052</v>
       </c>
       <c r="C31" s="5">
-        <v>896.01752122538289</v>
+        <v>449.03465195398087</v>
       </c>
       <c r="D31" s="5">
-        <v>2186.807936918362</v>
+        <v>2044.0408195728162</v>
       </c>
       <c r="E31" s="5">
         <v>91.809703028503719</v>
@@ -1855,10 +1855,10 @@
         <v>2053</v>
       </c>
       <c r="C32" s="5">
-        <v>594.06019348621635</v>
+        <v>305.07381364064832</v>
       </c>
       <c r="D32" s="5">
-        <v>2044.4828406936576</v>
+        <v>1996.6431526746217</v>
       </c>
       <c r="E32" s="5">
         <v>0</v>
@@ -1900,10 +1900,10 @@
         <v>2054</v>
       </c>
       <c r="C33" s="5">
-        <v>115.97255023351308</v>
+        <v>78.665003562786595</v>
       </c>
       <c r="D33" s="5">
-        <v>1918.4732532483524</v>
+        <v>1898.8909132589124</v>
       </c>
       <c r="E33" s="5"/>
       <c r="F33" s="5">
@@ -1943,10 +1943,10 @@
         <v>2055</v>
       </c>
       <c r="C34" s="5">
-        <v>-3352.7390670035115</v>
+        <v>-1319.7553754182525</v>
       </c>
       <c r="D34" s="5">
-        <v>1783.7952481592715</v>
+        <v>1797.543851649908</v>
       </c>
       <c r="E34" s="5"/>
       <c r="F34" s="5">
@@ -1985,7 +1985,7 @@
       </c>
       <c r="C35" s="6"/>
       <c r="D35" s="5">
-        <v>-243.83066214652581</v>
+        <v>-440.11639145949835</v>
       </c>
       <c r="E35" s="5"/>
       <c r="F35" s="5">
@@ -2022,7 +2022,7 @@
       </c>
       <c r="C36" s="6"/>
       <c r="D36" s="5">
-        <v>1520.9819928855056</v>
+        <v>1515.8089564799636</v>
       </c>
       <c r="E36" s="5"/>
       <c r="F36" s="5">
@@ -2059,7 +2059,7 @@
       </c>
       <c r="C37" s="6"/>
       <c r="D37" s="5">
-        <v>1526.5556934875719</v>
+        <v>1521.0671101142289</v>
       </c>
       <c r="E37" s="5"/>
       <c r="F37" s="5">
@@ -2096,7 +2096,7 @@
       </c>
       <c r="C38" s="6"/>
       <c r="D38" s="5">
-        <v>1531.3693875356348</v>
+        <v>1525.3642902194081</v>
       </c>
       <c r="E38" s="5"/>
       <c r="F38" s="5">
@@ -2129,7 +2129,7 @@
       </c>
       <c r="C39" s="6"/>
       <c r="D39" s="5">
-        <v>17083.220148344564</v>
+        <v>17770.775179445653</v>
       </c>
       <c r="E39" s="5"/>
       <c r="F39" s="5">
@@ -2290,15 +2290,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010020E4BAF79DB213408BB296F3F8F32329" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="9679123e7a51fb6c2fee49c985862cfe">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1a4d52ec-ae83-4798-bc6c-3cf1b4f12457" xmlns:ns3="f0bab05a-e9c1-4e32-93e9-8363aec9c620" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ddaff962f7439efafa6fc254a8996caa" ns2:_="" ns3:_="">
     <xsd:import namespace="1a4d52ec-ae83-4798-bc6c-3cf1b4f12457"/>
@@ -2533,6 +2524,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{47140DD7-5C12-4BA5-9C24-A1CF0564C7A2}">
   <ds:schemaRefs>
@@ -2545,14 +2545,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{618C5CC8-9B8E-49D5-B2E6-D98C4C570E2E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{873E7543-F0E8-474C-8FBB-787032D90621}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2569,4 +2561,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{618C5CC8-9B8E-49D5-B2E6-D98C4C570E2E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/irrdash3.xlsx
+++ b/irrdash3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\JR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\AM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0CF49908-F9E4-48D5-AFD8-3ADBDD68710E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49B4FF75-923D-41DC-B82C-80CB0625F6BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="16">
   <si>
     <t>CPLE6</t>
   </si>
@@ -82,6 +82,9 @@
   </si>
   <si>
     <t>ELET6</t>
+  </si>
+  <si>
+    <t>CPLE3</t>
   </si>
 </sst>
 </file>
@@ -549,7 +552,7 @@
   <dimension ref="B1:N39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="T23" sqref="T23"/>
+      <selection activeCell="V5" sqref="V5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -567,7 +570,7 @@
         <v>12</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>1</v>
@@ -2279,6 +2282,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="f0bab05a-e9c1-4e32-93e9-8363aec9c620" xsi:nil="true"/>
@@ -2289,7 +2301,7 @@
 </p:properties>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010020E4BAF79DB213408BB296F3F8F32329" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="9679123e7a51fb6c2fee49c985862cfe">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1a4d52ec-ae83-4798-bc6c-3cf1b4f12457" xmlns:ns3="f0bab05a-e9c1-4e32-93e9-8363aec9c620" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ddaff962f7439efafa6fc254a8996caa" ns2:_="" ns3:_="">
     <xsd:import namespace="1a4d52ec-ae83-4798-bc6c-3cf1b4f12457"/>
@@ -2524,16 +2536,15 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{618C5CC8-9B8E-49D5-B2E6-D98C4C570E2E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{47140DD7-5C12-4BA5-9C24-A1CF0564C7A2}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -2544,7 +2555,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{873E7543-F0E8-474C-8FBB-787032D90621}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2561,12 +2572,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{618C5CC8-9B8E-49D5-B2E6-D98C4C570E2E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/irrdash3.xlsx
+++ b/irrdash3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\AM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49B4FF75-923D-41DC-B82C-80CB0625F6BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7A819E0-C70A-48EA-B2FB-BA2469919088}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="17">
   <si>
     <t>CPLE6</t>
   </si>
@@ -85,6 +85,9 @@
   </si>
   <si>
     <t>CPLE3</t>
+  </si>
+  <si>
+    <t>AXIA6</t>
   </si>
 </sst>
 </file>
@@ -549,10 +552,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:N39"/>
+  <dimension ref="B1:O39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="V5" sqref="V5"/>
+      <selection activeCell="O4" sqref="O4:O37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -560,12 +563,12 @@
     <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C1" s="3"/>
       <c r="D1" s="4"/>
       <c r="L1" s="3"/>
     </row>
-    <row r="2" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>12</v>
       </c>
@@ -605,8 +608,11 @@
       <c r="N2" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O2" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>10</v>
       </c>
@@ -622,7 +628,7 @@
       <c r="L3" s="5"/>
       <c r="M3" s="5"/>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B4" s="1">
         <v>2025</v>
       </c>
@@ -663,8 +669,11 @@
       <c r="N4" s="5">
         <v>12568.378973210172</v>
       </c>
-    </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O4" s="5">
+        <v>12568.378973210172</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B5" s="1">
         <f>B4+1</f>
         <v>2026</v>
@@ -705,8 +714,11 @@
       <c r="N5" s="5">
         <v>12287.951266142702</v>
       </c>
-    </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O5" s="5">
+        <v>12287.951266142702</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B6" s="1">
         <f t="shared" ref="B6:B39" si="0">B5+1</f>
         <v>2027</v>
@@ -747,8 +759,11 @@
       <c r="N6" s="5">
         <v>10691.467761164782</v>
       </c>
-    </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O6" s="5">
+        <v>10691.467761164782</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B7" s="1">
         <f t="shared" si="0"/>
         <v>2028</v>
@@ -789,8 +804,11 @@
       <c r="N7" s="5">
         <v>9953.2408585075154</v>
       </c>
-    </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O7" s="5">
+        <v>9953.2408585075154</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B8" s="1">
         <f t="shared" si="0"/>
         <v>2029</v>
@@ -831,8 +849,11 @@
       <c r="N8" s="5">
         <v>8976.1581776070689</v>
       </c>
-    </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O8" s="5">
+        <v>8976.1581776070689</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B9" s="1">
         <f t="shared" si="0"/>
         <v>2030</v>
@@ -873,8 +894,11 @@
       <c r="N9" s="5">
         <v>5950.552660369136</v>
       </c>
-    </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O9" s="5">
+        <v>5950.552660369136</v>
+      </c>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B10" s="1">
         <f t="shared" si="0"/>
         <v>2031</v>
@@ -915,8 +939,11 @@
       <c r="N10" s="5">
         <v>9492.8699324378231</v>
       </c>
-    </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O10" s="5">
+        <v>9492.8699324378231</v>
+      </c>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B11" s="1">
         <f t="shared" si="0"/>
         <v>2032</v>
@@ -957,8 +984,11 @@
       <c r="N11" s="5">
         <v>9725.7855973675159</v>
       </c>
-    </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O11" s="5">
+        <v>9725.7855973675159</v>
+      </c>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B12" s="1">
         <f t="shared" si="0"/>
         <v>2033</v>
@@ -999,8 +1029,11 @@
       <c r="N12" s="5">
         <v>11203.02578683494</v>
       </c>
-    </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O12" s="5">
+        <v>11203.02578683494</v>
+      </c>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B13" s="1">
         <f t="shared" si="0"/>
         <v>2034</v>
@@ -1041,8 +1074,11 @@
       <c r="N13" s="5">
         <v>13024.095881989959</v>
       </c>
-    </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O13" s="5">
+        <v>13024.095881989959</v>
+      </c>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B14" s="1">
         <f t="shared" si="0"/>
         <v>2035</v>
@@ -1086,8 +1122,11 @@
       <c r="N14" s="5">
         <v>13115.801552911693</v>
       </c>
-    </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O14" s="5">
+        <v>13115.801552911693</v>
+      </c>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B15" s="1">
         <f t="shared" si="0"/>
         <v>2036</v>
@@ -1131,8 +1170,11 @@
       <c r="N15" s="5">
         <v>13152.930454218638</v>
       </c>
-    </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O15" s="5">
+        <v>13152.930454218638</v>
+      </c>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B16" s="1">
         <f t="shared" si="0"/>
         <v>2037</v>
@@ -1176,8 +1218,11 @@
       <c r="N16" s="5">
         <v>9666.905710989693</v>
       </c>
-    </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O16" s="5">
+        <v>9666.905710989693</v>
+      </c>
+    </row>
+    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B17" s="1">
         <f t="shared" si="0"/>
         <v>2038</v>
@@ -1221,8 +1266,11 @@
       <c r="N17" s="5">
         <v>9921.8047504804363</v>
       </c>
-    </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O17" s="5">
+        <v>9921.8047504804363</v>
+      </c>
+    </row>
+    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B18" s="1">
         <f t="shared" si="0"/>
         <v>2039</v>
@@ -1266,8 +1314,11 @@
       <c r="N18" s="5">
         <v>10586.160935948119</v>
       </c>
-    </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O18" s="5">
+        <v>10586.160935948119</v>
+      </c>
+    </row>
+    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B19" s="1">
         <f t="shared" si="0"/>
         <v>2040</v>
@@ -1311,8 +1362,11 @@
       <c r="N19" s="5">
         <v>5957.7884536267202</v>
       </c>
-    </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O19" s="5">
+        <v>5957.7884536267202</v>
+      </c>
+    </row>
+    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B20" s="1">
         <f t="shared" si="0"/>
         <v>2041</v>
@@ -1356,8 +1410,11 @@
       <c r="N20" s="5">
         <v>10336.892726991075</v>
       </c>
-    </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O20" s="5">
+        <v>10336.892726991075</v>
+      </c>
+    </row>
+    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B21" s="1">
         <f t="shared" si="0"/>
         <v>2042</v>
@@ -1401,8 +1458,11 @@
       <c r="N21" s="5">
         <v>22564.092724488615</v>
       </c>
-    </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O21" s="5">
+        <v>22564.092724488615</v>
+      </c>
+    </row>
+    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B22" s="1">
         <f t="shared" si="0"/>
         <v>2043</v>
@@ -1446,8 +1506,11 @@
       <c r="N22" s="5">
         <v>23526.331700424169</v>
       </c>
-    </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O22" s="5">
+        <v>23526.331700424169</v>
+      </c>
+    </row>
+    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B23" s="1">
         <f t="shared" si="0"/>
         <v>2044</v>
@@ -1491,8 +1554,11 @@
       <c r="N23" s="5">
         <v>1371.2954646369503</v>
       </c>
-    </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O23" s="5">
+        <v>1371.2954646369503</v>
+      </c>
+    </row>
+    <row r="24" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B24" s="1">
         <f t="shared" si="0"/>
         <v>2045</v>
@@ -1536,8 +1602,11 @@
       <c r="N24" s="5">
         <v>4114.1255902047551</v>
       </c>
-    </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O24" s="5">
+        <v>4114.1255902047551</v>
+      </c>
+    </row>
+    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B25" s="1">
         <f t="shared" si="0"/>
         <v>2046</v>
@@ -1581,8 +1650,11 @@
       <c r="N25" s="5">
         <v>5805.1908459028873</v>
       </c>
-    </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O25" s="5">
+        <v>5805.1908459028873</v>
+      </c>
+    </row>
+    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B26" s="1">
         <f t="shared" si="0"/>
         <v>2047</v>
@@ -1626,8 +1698,11 @@
       <c r="N26" s="5">
         <v>37617.974143718733</v>
       </c>
-    </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O26" s="5">
+        <v>37617.974143718733</v>
+      </c>
+    </row>
+    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B27" s="1">
         <f t="shared" si="0"/>
         <v>2048</v>
@@ -1671,8 +1746,11 @@
       <c r="N27" s="5">
         <v>8315.6439090414751</v>
       </c>
-    </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O27" s="5">
+        <v>8315.6439090414751</v>
+      </c>
+    </row>
+    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B28" s="1">
         <f t="shared" si="0"/>
         <v>2049</v>
@@ -1716,8 +1794,11 @@
       <c r="N28" s="5">
         <v>142.91816402348886</v>
       </c>
-    </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O28" s="5">
+        <v>142.91816402348886</v>
+      </c>
+    </row>
+    <row r="29" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B29" s="1">
         <f t="shared" si="0"/>
         <v>2050</v>
@@ -1761,8 +1842,11 @@
       <c r="N29" s="5">
         <v>207.9510466375614</v>
       </c>
-    </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O29" s="5">
+        <v>207.9510466375614</v>
+      </c>
+    </row>
+    <row r="30" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B30" s="1">
         <f t="shared" si="0"/>
         <v>2051</v>
@@ -1806,8 +1890,11 @@
       <c r="N30" s="5">
         <v>3720.1942824702533</v>
       </c>
-    </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O30" s="5">
+        <v>3720.1942824702533</v>
+      </c>
+    </row>
+    <row r="31" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B31" s="1">
         <f t="shared" si="0"/>
         <v>2052</v>
@@ -1851,8 +1938,11 @@
       <c r="N31" s="5">
         <v>-13346.299401545604</v>
       </c>
-    </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O31" s="5">
+        <v>-13346.299401545604</v>
+      </c>
+    </row>
+    <row r="32" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B32" s="1">
         <f t="shared" si="0"/>
         <v>2053</v>
@@ -1896,8 +1986,11 @@
       <c r="N32" s="5">
         <v>-302.12659846118009</v>
       </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O32" s="5">
+        <v>-302.12659846118009</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B33" s="1">
         <f t="shared" si="0"/>
         <v>2054</v>
@@ -1939,8 +2032,11 @@
       <c r="N33" s="5">
         <v>-243.49977630496312</v>
       </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O33" s="5">
+        <v>-243.49977630496312</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B34" s="1">
         <f t="shared" si="0"/>
         <v>2055</v>
@@ -1980,8 +2076,11 @@
       <c r="N34" s="5">
         <v>-198.21412230559554</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O34" s="5">
+        <v>-198.21412230559554</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B35" s="1">
         <f t="shared" si="0"/>
         <v>2056</v>
@@ -2017,8 +2116,11 @@
       <c r="N35" s="5">
         <v>-335.12613459246893</v>
       </c>
-    </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O35" s="5">
+        <v>-335.12613459246893</v>
+      </c>
+    </row>
+    <row r="36" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B36" s="1">
         <f t="shared" si="0"/>
         <v>2057</v>
@@ -2054,8 +2156,11 @@
       <c r="N36" s="5">
         <v>-770.54571906388662</v>
       </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O36" s="5">
+        <v>-770.54571906388662</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B37" s="1">
         <f t="shared" si="0"/>
         <v>2058</v>
@@ -2091,8 +2196,11 @@
       <c r="N37" s="5">
         <v>-9868.2151940255881</v>
       </c>
-    </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O37" s="5">
+        <v>-9868.2151940255881</v>
+      </c>
+    </row>
+    <row r="38" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B38" s="1">
         <f t="shared" si="0"/>
         <v>2059</v>
@@ -2125,7 +2233,7 @@
       </c>
       <c r="N38" s="5"/>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B39" s="1">
         <f t="shared" si="0"/>
         <v>2060</v>
@@ -2282,26 +2390,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="f0bab05a-e9c1-4e32-93e9-8363aec9c620" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1a4d52ec-ae83-4798-bc6c-3cf1b4f12457">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010020E4BAF79DB213408BB296F3F8F32329" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="9679123e7a51fb6c2fee49c985862cfe">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1a4d52ec-ae83-4798-bc6c-3cf1b4f12457" xmlns:ns3="f0bab05a-e9c1-4e32-93e9-8363aec9c620" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ddaff962f7439efafa6fc254a8996caa" ns2:_="" ns3:_="">
     <xsd:import namespace="1a4d52ec-ae83-4798-bc6c-3cf1b4f12457"/>
@@ -2536,10 +2624,41 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="f0bab05a-e9c1-4e32-93e9-8363aec9c620" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1a4d52ec-ae83-4798-bc6c-3cf1b4f12457">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{618C5CC8-9B8E-49D5-B2E6-D98C4C570E2E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{873E7543-F0E8-474C-8FBB-787032D90621}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="1a4d52ec-ae83-4798-bc6c-3cf1b4f12457"/>
+    <ds:schemaRef ds:uri="f0bab05a-e9c1-4e32-93e9-8363aec9c620"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2556,20 +2675,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{873E7543-F0E8-474C-8FBB-787032D90621}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{618C5CC8-9B8E-49D5-B2E6-D98C4C570E2E}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="1a4d52ec-ae83-4798-bc6c-3cf1b4f12457"/>
-    <ds:schemaRef ds:uri="f0bab05a-e9c1-4e32-93e9-8363aec9c620"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/irrdash3.xlsx
+++ b/irrdash3.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\AM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7A819E0-C70A-48EA-B2FB-BA2469919088}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C5C763D-F3CA-4524-AA84-6AE1DB1C35AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="duration" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -555,7 +555,7 @@
   <dimension ref="B1:O39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="O4" sqref="O4:O37"/>
+      <selection activeCell="X12" sqref="X12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -670,7 +670,7 @@
         <v>12568.378973210172</v>
       </c>
       <c r="O4" s="5">
-        <v>12568.378973210172</v>
+        <v>-1998.5981221325214</v>
       </c>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.25">
@@ -715,7 +715,7 @@
         <v>12287.951266142702</v>
       </c>
       <c r="O5" s="5">
-        <v>12287.951266142702</v>
+        <v>16435.781526383507</v>
       </c>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.25">
@@ -760,7 +760,7 @@
         <v>10691.467761164782</v>
       </c>
       <c r="O6" s="5">
-        <v>10691.467761164782</v>
+        <v>20454.849140960243</v>
       </c>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.25">
@@ -805,7 +805,7 @@
         <v>9953.2408585075154</v>
       </c>
       <c r="O7" s="5">
-        <v>9953.2408585075154</v>
+        <v>17038.94422737664</v>
       </c>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.25">
@@ -850,7 +850,7 @@
         <v>8976.1581776070689</v>
       </c>
       <c r="O8" s="5">
-        <v>8976.1581776070689</v>
+        <v>13745.047311162791</v>
       </c>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.25">
@@ -895,7 +895,7 @@
         <v>5950.552660369136</v>
       </c>
       <c r="O9" s="5">
-        <v>5950.552660369136</v>
+        <v>15132.06000946791</v>
       </c>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.25">
@@ -940,7 +940,7 @@
         <v>9492.8699324378231</v>
       </c>
       <c r="O10" s="5">
-        <v>9492.8699324378231</v>
+        <v>15606.987509797171</v>
       </c>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.25">
@@ -985,7 +985,7 @@
         <v>9725.7855973675159</v>
       </c>
       <c r="O11" s="5">
-        <v>9725.7855973675159</v>
+        <v>17016.485124051971</v>
       </c>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.25">
@@ -1030,7 +1030,7 @@
         <v>11203.02578683494</v>
       </c>
       <c r="O12" s="5">
-        <v>11203.02578683494</v>
+        <v>17591.634510507723</v>
       </c>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.25">
@@ -1075,7 +1075,7 @@
         <v>13024.095881989959</v>
       </c>
       <c r="O13" s="5">
-        <v>13024.095881989959</v>
+        <v>18498.030802662179</v>
       </c>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.25">
@@ -1123,7 +1123,7 @@
         <v>13115.801552911693</v>
       </c>
       <c r="O14" s="5">
-        <v>13115.801552911693</v>
+        <v>12827.807462571316</v>
       </c>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.25">
@@ -1171,7 +1171,7 @@
         <v>13152.930454218638</v>
       </c>
       <c r="O15" s="5">
-        <v>13152.930454218638</v>
+        <v>13790.437082697636</v>
       </c>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.25">
@@ -1219,7 +1219,7 @@
         <v>9666.905710989693</v>
       </c>
       <c r="O16" s="5">
-        <v>9666.905710989693</v>
+        <v>15298.703582549764</v>
       </c>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.25">
@@ -1267,7 +1267,7 @@
         <v>9921.8047504804363</v>
       </c>
       <c r="O17" s="5">
-        <v>9921.8047504804363</v>
+        <v>16564.725043283786</v>
       </c>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.25">
@@ -1315,7 +1315,7 @@
         <v>10586.160935948119</v>
       </c>
       <c r="O18" s="5">
-        <v>10586.160935948119</v>
+        <v>17848.879726987452</v>
       </c>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.25">
@@ -1363,7 +1363,7 @@
         <v>5957.7884536267202</v>
       </c>
       <c r="O19" s="5">
-        <v>5957.7884536267202</v>
+        <v>18757.600227044673</v>
       </c>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.25">
@@ -1411,7 +1411,7 @@
         <v>10336.892726991075</v>
       </c>
       <c r="O20" s="5">
-        <v>10336.892726991075</v>
+        <v>20290.664987979435</v>
       </c>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.25">
@@ -1459,7 +1459,7 @@
         <v>22564.092724488615</v>
       </c>
       <c r="O21" s="5">
-        <v>22564.092724488615</v>
+        <v>27634.185731017446</v>
       </c>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.25">
@@ -1507,7 +1507,7 @@
         <v>23526.331700424169</v>
       </c>
       <c r="O22" s="5">
-        <v>23526.331700424169</v>
+        <v>18079.404544884062</v>
       </c>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.25">
@@ -1555,7 +1555,7 @@
         <v>1371.2954646369503</v>
       </c>
       <c r="O23" s="5">
-        <v>1371.2954646369503</v>
+        <v>18649.553918816058</v>
       </c>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.25">
@@ -1603,7 +1603,7 @@
         <v>4114.1255902047551</v>
       </c>
       <c r="O24" s="5">
-        <v>4114.1255902047551</v>
+        <v>18956.452144169099</v>
       </c>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.25">
@@ -1651,7 +1651,7 @@
         <v>5805.1908459028873</v>
       </c>
       <c r="O25" s="5">
-        <v>5805.1908459028873</v>
+        <v>19240.652823209126</v>
       </c>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.25">
@@ -1699,7 +1699,7 @@
         <v>37617.974143718733</v>
       </c>
       <c r="O26" s="5">
-        <v>37617.974143718733</v>
+        <v>17867.330379917476</v>
       </c>
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.25">
@@ -1747,7 +1747,7 @@
         <v>8315.6439090414751</v>
       </c>
       <c r="O27" s="5">
-        <v>8315.6439090414751</v>
+        <v>17166.372303582008</v>
       </c>
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.25">
@@ -1795,7 +1795,7 @@
         <v>142.91816402348886</v>
       </c>
       <c r="O28" s="5">
-        <v>142.91816402348886</v>
+        <v>18060.034715440248</v>
       </c>
     </row>
     <row r="29" spans="2:15" x14ac:dyDescent="0.25">
@@ -1843,7 +1843,7 @@
         <v>207.9510466375614</v>
       </c>
       <c r="O29" s="5">
-        <v>207.9510466375614</v>
+        <v>19741.439858855949</v>
       </c>
     </row>
     <row r="30" spans="2:15" x14ac:dyDescent="0.25">
@@ -1891,7 +1891,7 @@
         <v>3720.1942824702533</v>
       </c>
       <c r="O30" s="5">
-        <v>3720.1942824702533</v>
+        <v>19565.728775564799</v>
       </c>
     </row>
     <row r="31" spans="2:15" x14ac:dyDescent="0.25">
@@ -1939,7 +1939,7 @@
         <v>-13346.299401545604</v>
       </c>
       <c r="O31" s="5">
-        <v>-13346.299401545604</v>
+        <v>19658.773743151509</v>
       </c>
     </row>
     <row r="32" spans="2:15" x14ac:dyDescent="0.25">
@@ -1987,7 +1987,7 @@
         <v>-302.12659846118009</v>
       </c>
       <c r="O32" s="5">
-        <v>-302.12659846118009</v>
+        <v>6505.617728611267</v>
       </c>
     </row>
     <row r="33" spans="2:15" x14ac:dyDescent="0.25">
@@ -2033,7 +2033,7 @@
         <v>-243.49977630496312</v>
       </c>
       <c r="O33" s="5">
-        <v>-243.49977630496312</v>
+        <v>5197.5713810805883</v>
       </c>
     </row>
     <row r="34" spans="2:15" x14ac:dyDescent="0.25">
@@ -2077,7 +2077,7 @@
         <v>-198.21412230559554</v>
       </c>
       <c r="O34" s="5">
-        <v>-198.21412230559554</v>
+        <v>4230.5051756939165</v>
       </c>
     </row>
     <row r="35" spans="2:15" x14ac:dyDescent="0.25">
@@ -2117,7 +2117,7 @@
         <v>-335.12613459246893</v>
       </c>
       <c r="O35" s="5">
-        <v>-335.12613459246893</v>
+        <v>3259.3450200306347</v>
       </c>
     </row>
     <row r="36" spans="2:15" x14ac:dyDescent="0.25">
@@ -2157,7 +2157,7 @@
         <v>-770.54571906388662</v>
       </c>
       <c r="O36" s="5">
-        <v>-770.54571906388662</v>
+        <v>1144.3268849167191</v>
       </c>
     </row>
     <row r="37" spans="2:15" x14ac:dyDescent="0.25">
@@ -2625,6 +2625,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="f0bab05a-e9c1-4e32-93e9-8363aec9c620" xsi:nil="true"/>
@@ -2633,15 +2642,6 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2664,6 +2664,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{618C5CC8-9B8E-49D5-B2E6-D98C4C570E2E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{47140DD7-5C12-4BA5-9C24-A1CF0564C7A2}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -2672,12 +2680,4 @@
     <ds:schemaRef ds:uri="1a4d52ec-ae83-4798-bc6c-3cf1b4f12457"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{618C5CC8-9B8E-49D5-B2E6-D98C4C570E2E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/irrdash3.xlsx
+++ b/irrdash3.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\AM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C5C763D-F3CA-4524-AA84-6AE1DB1C35AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A818B39A-A909-4381-A704-625C46FADFE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="duration" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029" calcOnSave="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -94,10 +94,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.00000%"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -122,6 +123,13 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -229,11 +237,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -271,8 +280,10 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{996D8238-5879-4B1C-B12F-35C96EBCED36}"/>
   </cellStyles>
@@ -552,23 +563,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:O39"/>
+  <dimension ref="B1:P39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="X12" sqref="X12"/>
+      <selection activeCell="R3" sqref="R3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C1" s="3"/>
       <c r="D1" s="4"/>
       <c r="L1" s="3"/>
     </row>
-    <row r="2" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>12</v>
       </c>
@@ -612,7 +624,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>10</v>
       </c>
@@ -627,8 +639,10 @@
       <c r="K3" s="5"/>
       <c r="L3" s="5"/>
       <c r="M3" s="5"/>
-    </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="O3" s="15"/>
+      <c r="P3" s="3"/>
+    </row>
+    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B4" s="1">
         <v>2025</v>
       </c>
@@ -673,7 +687,7 @@
         <v>-1998.5981221325214</v>
       </c>
     </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B5" s="1">
         <f>B4+1</f>
         <v>2026</v>
@@ -718,7 +732,7 @@
         <v>16435.781526383507</v>
       </c>
     </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B6" s="1">
         <f t="shared" ref="B6:B39" si="0">B5+1</f>
         <v>2027</v>
@@ -763,7 +777,7 @@
         <v>20454.849140960243</v>
       </c>
     </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B7" s="1">
         <f t="shared" si="0"/>
         <v>2028</v>
@@ -808,7 +822,7 @@
         <v>17038.94422737664</v>
       </c>
     </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B8" s="1">
         <f t="shared" si="0"/>
         <v>2029</v>
@@ -853,7 +867,7 @@
         <v>13745.047311162791</v>
       </c>
     </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B9" s="1">
         <f t="shared" si="0"/>
         <v>2030</v>
@@ -898,7 +912,7 @@
         <v>15132.06000946791</v>
       </c>
     </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B10" s="1">
         <f t="shared" si="0"/>
         <v>2031</v>
@@ -943,7 +957,7 @@
         <v>15606.987509797171</v>
       </c>
     </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B11" s="1">
         <f t="shared" si="0"/>
         <v>2032</v>
@@ -988,7 +1002,7 @@
         <v>17016.485124051971</v>
       </c>
     </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B12" s="1">
         <f t="shared" si="0"/>
         <v>2033</v>
@@ -1033,7 +1047,7 @@
         <v>17591.634510507723</v>
       </c>
     </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B13" s="1">
         <f t="shared" si="0"/>
         <v>2034</v>
@@ -1078,7 +1092,7 @@
         <v>18498.030802662179</v>
       </c>
     </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B14" s="1">
         <f t="shared" si="0"/>
         <v>2035</v>
@@ -1126,7 +1140,7 @@
         <v>12827.807462571316</v>
       </c>
     </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B15" s="1">
         <f t="shared" si="0"/>
         <v>2036</v>
@@ -1174,7 +1188,7 @@
         <v>13790.437082697636</v>
       </c>
     </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B16" s="1">
         <f t="shared" si="0"/>
         <v>2037</v>
@@ -2390,6 +2404,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="f0bab05a-e9c1-4e32-93e9-8363aec9c620" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1a4d52ec-ae83-4798-bc6c-3cf1b4f12457">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010020E4BAF79DB213408BB296F3F8F32329" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="9679123e7a51fb6c2fee49c985862cfe">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1a4d52ec-ae83-4798-bc6c-3cf1b4f12457" xmlns:ns3="f0bab05a-e9c1-4e32-93e9-8363aec9c620" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ddaff962f7439efafa6fc254a8996caa" ns2:_="" ns3:_="">
     <xsd:import namespace="1a4d52ec-ae83-4798-bc6c-3cf1b4f12457"/>
@@ -2624,27 +2658,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{47140DD7-5C12-4BA5-9C24-A1CF0564C7A2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="f0bab05a-e9c1-4e32-93e9-8363aec9c620"/>
+    <ds:schemaRef ds:uri="1a4d52ec-ae83-4798-bc6c-3cf1b4f12457"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="f0bab05a-e9c1-4e32-93e9-8363aec9c620" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1a4d52ec-ae83-4798-bc6c-3cf1b4f12457">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{618C5CC8-9B8E-49D5-B2E6-D98C4C570E2E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{873E7543-F0E8-474C-8FBB-787032D90621}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2661,23 +2694,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{618C5CC8-9B8E-49D5-B2E6-D98C4C570E2E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{47140DD7-5C12-4BA5-9C24-A1CF0564C7A2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="f0bab05a-e9c1-4e32-93e9-8363aec9c620"/>
-    <ds:schemaRef ds:uri="1a4d52ec-ae83-4798-bc6c-3cf1b4f12457"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/irrdash3.xlsx
+++ b/irrdash3.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\AM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A818B39A-A909-4381-A704-625C46FADFE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4464D8B-D77C-483A-B50B-389BAA4776DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="duration" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -566,7 +566,7 @@
   <dimension ref="B1:P39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="R3" sqref="R3"/>
+      <selection activeCell="S8" sqref="S8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -647,7 +647,7 @@
         <v>2025</v>
       </c>
       <c r="C4" s="5">
-        <v>-121.59310206259966</v>
+        <v>-294.64969276916855</v>
       </c>
       <c r="D4" s="5">
         <v>4611.1790284361814</v>
@@ -693,7 +693,7 @@
         <v>2026</v>
       </c>
       <c r="C5" s="5">
-        <v>1392.0699002682704</v>
+        <v>3373.3243207832961</v>
       </c>
       <c r="D5" s="5">
         <v>2567.4289707736116</v>
@@ -738,7 +738,7 @@
         <v>2027</v>
       </c>
       <c r="C6" s="5">
-        <v>1838.0876872796198</v>
+        <v>4454.1340187283349</v>
       </c>
       <c r="D6" s="5">
         <v>989.20857123354551</v>
@@ -783,7 +783,7 @@
         <v>2028</v>
       </c>
       <c r="C7" s="5">
-        <v>1754.901826303947</v>
+        <v>4252.5544228183471</v>
       </c>
       <c r="D7" s="5">
         <v>221.30914058918347</v>
@@ -828,7 +828,7 @@
         <v>2029</v>
       </c>
       <c r="C8" s="5">
-        <v>1710.7683203219235</v>
+        <v>4145.6081918410773</v>
       </c>
       <c r="D8" s="5">
         <v>2106.6256296028787</v>
@@ -873,7 +873,7 @@
         <v>2030</v>
       </c>
       <c r="C9" s="5">
-        <v>1647.0656812304687</v>
+        <v>3991.2411864889227</v>
       </c>
       <c r="D9" s="5">
         <v>5294.6326235182451</v>
@@ -918,7 +918,7 @@
         <v>2031</v>
       </c>
       <c r="C10" s="5">
-        <v>1917.7340557348034</v>
+        <v>4647.1365624369237</v>
       </c>
       <c r="D10" s="5">
         <v>4427.5790990897876</v>
@@ -963,7 +963,7 @@
         <v>2032</v>
       </c>
       <c r="C11" s="5">
-        <v>2029.3531672554727</v>
+        <v>4917.6168475751447</v>
       </c>
       <c r="D11" s="5">
         <v>6699.9736305483148</v>
@@ -1008,7 +1008,7 @@
         <v>2033</v>
       </c>
       <c r="C12" s="5">
-        <v>1997.8470570346981</v>
+        <v>4841.2698711477851</v>
       </c>
       <c r="D12" s="5">
         <v>6197.7326120145926</v>
@@ -1053,7 +1053,7 @@
         <v>2034</v>
       </c>
       <c r="C13" s="5">
-        <v>1991.984589130936</v>
+        <v>4827.0636839758909</v>
       </c>
       <c r="D13" s="5">
         <v>8111.977184249773</v>
@@ -1098,7 +1098,7 @@
         <v>2035</v>
       </c>
       <c r="C14" s="5">
-        <v>2057.1948533202863</v>
+        <v>4985.0840320289926</v>
       </c>
       <c r="D14" s="5">
         <v>8099.8737408743837</v>
@@ -1146,7 +1146,7 @@
         <v>2036</v>
       </c>
       <c r="C15" s="5">
-        <v>2011.0737052291402</v>
+        <v>4873.3212602541498</v>
       </c>
       <c r="D15" s="5">
         <v>8288.8144031864449</v>
@@ -1194,7 +1194,7 @@
         <v>2037</v>
       </c>
       <c r="C16" s="5">
-        <v>2007.6284353019623</v>
+        <v>4864.9725323384228</v>
       </c>
       <c r="D16" s="5">
         <v>7428.9529537233184</v>
@@ -1242,7 +1242,7 @@
         <v>2038</v>
       </c>
       <c r="C17" s="5">
-        <v>2028.547263757755</v>
+        <v>4915.6639471722756</v>
       </c>
       <c r="D17" s="5">
         <v>7636.3305582043422</v>
@@ -1290,7 +1290,7 @@
         <v>2039</v>
       </c>
       <c r="C18" s="5">
-        <v>2034.06030417581</v>
+        <v>4929.0233864648735</v>
       </c>
       <c r="D18" s="5">
         <v>7537.1078262266747</v>
@@ -1338,7 +1338,7 @@
         <v>2040</v>
       </c>
       <c r="C19" s="5">
-        <v>1996.6375211769482</v>
+        <v>4838.3388712568885</v>
       </c>
       <c r="D19" s="5">
         <v>7239.4228885436014</v>
@@ -1386,7 +1386,7 @@
         <v>2041</v>
       </c>
       <c r="C20" s="5">
-        <v>1842.4093558445461</v>
+        <v>4464.6064739359508</v>
       </c>
       <c r="D20" s="5">
         <v>7128.8511428279435</v>
@@ -1434,7 +1434,7 @@
         <v>2042</v>
       </c>
       <c r="C21" s="5">
-        <v>3128.2932890377224</v>
+        <v>7580.6163414785888</v>
       </c>
       <c r="D21" s="5">
         <v>6983.7524039036143</v>
@@ -1482,7 +1482,7 @@
         <v>2043</v>
       </c>
       <c r="C22" s="5">
-        <v>1739.2665875421385</v>
+        <v>4214.6664323041505</v>
       </c>
       <c r="D22" s="5">
         <v>6736.245310886472</v>
@@ -1530,7 +1530,7 @@
         <v>2044</v>
       </c>
       <c r="C23" s="5">
-        <v>1647.2597047795962</v>
+        <v>3991.7113527908809</v>
       </c>
       <c r="D23" s="5">
         <v>7188.6301287649376</v>
@@ -1578,7 +1578,7 @@
         <v>2045</v>
       </c>
       <c r="C24" s="5">
-        <v>-2195.4704725154825</v>
+        <v>-5320.1595258045809</v>
       </c>
       <c r="D24" s="5">
         <v>7435.8005160484045</v>
@@ -1626,7 +1626,7 @@
         <v>2046</v>
       </c>
       <c r="C25" s="5">
-        <v>8383.1529293208077</v>
+        <v>20314.420745591768</v>
       </c>
       <c r="D25" s="5">
         <v>9736.2645221372186</v>
@@ -1674,7 +1674,7 @@
         <v>2047</v>
       </c>
       <c r="C26" s="5">
-        <v>416.63938550832677</v>
+        <v>1009.6186778125118</v>
       </c>
       <c r="D26" s="5">
         <v>6916.0347688484908</v>
@@ -1722,7 +1722,7 @@
         <v>2048</v>
       </c>
       <c r="C27" s="5">
-        <v>357.61370388398888</v>
+        <v>866.58507918659575</v>
       </c>
       <c r="D27" s="5">
         <v>17792.412517860637</v>
@@ -1770,7 +1770,7 @@
         <v>2049</v>
       </c>
       <c r="C28" s="5">
-        <v>363.24130408974872</v>
+        <v>880.22212473874549</v>
       </c>
       <c r="D28" s="5">
         <v>21724.322353370055</v>
@@ -1818,7 +1818,7 @@
         <v>2050</v>
       </c>
       <c r="C29" s="5">
-        <v>349.11790942905429</v>
+        <v>845.99770059757248</v>
       </c>
       <c r="D29" s="5">
         <v>1858.9630331803621</v>
@@ -1866,7 +1866,7 @@
         <v>2051</v>
       </c>
       <c r="C30" s="5">
-        <v>333.88971618004257</v>
+        <v>809.0960804716151</v>
       </c>
       <c r="D30" s="5">
         <v>1984.3939238409062</v>
@@ -1914,7 +1914,7 @@
         <v>2052</v>
       </c>
       <c r="C31" s="5">
-        <v>449.03465195398087</v>
+        <v>1088.1202962717</v>
       </c>
       <c r="D31" s="5">
         <v>2044.0408195728162</v>
@@ -1962,7 +1962,7 @@
         <v>2053</v>
       </c>
       <c r="C32" s="5">
-        <v>305.07381364064832</v>
+        <v>739.26813228975504</v>
       </c>
       <c r="D32" s="5">
         <v>1996.6431526746217</v>
@@ -2010,7 +2010,7 @@
         <v>2054</v>
       </c>
       <c r="C33" s="5">
-        <v>78.665003562786595</v>
+        <v>190.62445762365363</v>
       </c>
       <c r="D33" s="5">
         <v>1898.8909132589124</v>
@@ -2056,7 +2056,7 @@
         <v>2055</v>
       </c>
       <c r="C34" s="5">
-        <v>-1319.7553754182525</v>
+        <v>-3198.0886193465772</v>
       </c>
       <c r="D34" s="5">
         <v>1797.543851649908</v>
@@ -2404,26 +2404,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="f0bab05a-e9c1-4e32-93e9-8363aec9c620" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1a4d52ec-ae83-4798-bc6c-3cf1b4f12457">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010020E4BAF79DB213408BB296F3F8F32329" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="9679123e7a51fb6c2fee49c985862cfe">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1a4d52ec-ae83-4798-bc6c-3cf1b4f12457" xmlns:ns3="f0bab05a-e9c1-4e32-93e9-8363aec9c620" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ddaff962f7439efafa6fc254a8996caa" ns2:_="" ns3:_="">
     <xsd:import namespace="1a4d52ec-ae83-4798-bc6c-3cf1b4f12457"/>
@@ -2658,26 +2638,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{47140DD7-5C12-4BA5-9C24-A1CF0564C7A2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="f0bab05a-e9c1-4e32-93e9-8363aec9c620"/>
-    <ds:schemaRef ds:uri="1a4d52ec-ae83-4798-bc6c-3cf1b4f12457"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{618C5CC8-9B8E-49D5-B2E6-D98C4C570E2E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="f0bab05a-e9c1-4e32-93e9-8363aec9c620" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1a4d52ec-ae83-4798-bc6c-3cf1b4f12457">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{873E7543-F0E8-474C-8FBB-787032D90621}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2694,4 +2675,23 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{618C5CC8-9B8E-49D5-B2E6-D98C4C570E2E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{47140DD7-5C12-4BA5-9C24-A1CF0564C7A2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="f0bab05a-e9c1-4e32-93e9-8363aec9c620"/>
+    <ds:schemaRef ds:uri="1a4d52ec-ae83-4798-bc6c-3cf1b4f12457"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/irrdash3.xlsx
+++ b/irrdash3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\AM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joao.russo\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4464D8B-D77C-483A-B50B-389BAA4776DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F2AC5AEE-49AC-432E-B747-37E2D7C0F831}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -242,7 +242,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -256,9 +256,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -563,10 +560,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:P39"/>
+  <dimension ref="B1:P38"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="S8" sqref="S8"/>
+      <selection activeCell="Q13" sqref="Q13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -584,13 +581,13 @@
       <c r="B2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="13" t="s">
         <v>15</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="13" t="s">
         <v>2</v>
       </c>
       <c r="F2" s="2" t="s">
@@ -602,7 +599,7 @@
       <c r="H2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="14" t="s">
+      <c r="I2" s="13" t="s">
         <v>14</v>
       </c>
       <c r="J2" s="2" t="s">
@@ -611,7 +608,7 @@
       <c r="K2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="14" t="s">
+      <c r="L2" s="13" t="s">
         <v>9</v>
       </c>
       <c r="M2" s="2" t="s">
@@ -639,1646 +636,1482 @@
       <c r="K3" s="5"/>
       <c r="L3" s="5"/>
       <c r="M3" s="5"/>
-      <c r="O3" s="15"/>
+      <c r="O3" s="14"/>
       <c r="P3" s="3"/>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B4" s="1">
-        <v>2025</v>
-      </c>
-      <c r="C4" s="5">
-        <v>-294.64969276916855</v>
-      </c>
+        <v>2026</v>
+      </c>
+      <c r="C4" s="5"/>
       <c r="D4" s="5">
-        <v>4611.1790284361814</v>
+        <v>2567.4289707736116</v>
       </c>
       <c r="E4" s="5">
-        <v>-1047.5957141760605</v>
+        <v>1423.5911688211188</v>
       </c>
       <c r="F4" s="5">
-        <v>2428.3455854420963</v>
+        <v>6605.1316597436398</v>
       </c>
       <c r="G4" s="5">
-        <v>497.00440293673478</v>
-      </c>
-      <c r="H4" s="5">
-        <v>634.91871668367071</v>
-      </c>
+        <v>1693.9837038587689</v>
+      </c>
+      <c r="H4" s="5"/>
       <c r="I4" s="5">
-        <v>1910.3402658406817</v>
+        <v>1867.7164444544671</v>
       </c>
       <c r="J4" s="5">
-        <v>2470.6685737558964</v>
-      </c>
-      <c r="K4" s="7">
-        <v>390</v>
-      </c>
-      <c r="L4" s="7">
-        <f>-171</f>
-        <v>-171</v>
-      </c>
-      <c r="M4" s="7">
-        <v>93</v>
+        <v>3395.5747095853553</v>
+      </c>
+      <c r="K4" s="5">
+        <v>954.45860804386211</v>
+      </c>
+      <c r="L4" s="5">
+        <v>384.21253758543025</v>
+      </c>
+      <c r="M4" s="5">
+        <v>1226.6329817372125</v>
       </c>
       <c r="N4" s="5">
-        <v>12568.378973210172</v>
+        <v>12287.951266142702</v>
       </c>
       <c r="O4" s="5">
-        <v>-1998.5981221325214</v>
+        <v>16435.781526383507</v>
       </c>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B5" s="1">
-        <f>B4+1</f>
-        <v>2026</v>
-      </c>
-      <c r="C5" s="5">
-        <v>3373.3243207832961</v>
-      </c>
+        <f t="shared" ref="B5:B38" si="0">B4+1</f>
+        <v>2027</v>
+      </c>
+      <c r="C5" s="5"/>
       <c r="D5" s="5">
-        <v>2567.4289707736116</v>
+        <v>989.20857123354551</v>
       </c>
       <c r="E5" s="5">
-        <v>1423.5911688211188</v>
+        <v>836.48604610360985</v>
       </c>
       <c r="F5" s="5">
-        <v>6605.1316597436398</v>
+        <v>7900.2130668713089</v>
       </c>
       <c r="G5" s="5">
-        <v>1693.9837038587689</v>
-      </c>
-      <c r="H5" s="5">
-        <v>2004.1712547254886</v>
-      </c>
+        <v>2259.1950231492797</v>
+      </c>
+      <c r="H5" s="5"/>
       <c r="I5" s="5">
-        <v>1867.7164444544671</v>
+        <v>1625.0577269054047</v>
       </c>
       <c r="J5" s="5">
-        <v>3395.5747095853553</v>
+        <v>3635.0885112152737</v>
       </c>
       <c r="K5" s="5">
-        <v>954.45860804386211</v>
+        <v>1323.0224151276375</v>
       </c>
       <c r="L5" s="5">
-        <v>384.21253758543025</v>
+        <v>681.59040551930434</v>
       </c>
       <c r="M5" s="5">
-        <v>1226.6329817372125</v>
+        <v>1314.4750719842391</v>
       </c>
       <c r="N5" s="5">
-        <v>12287.951266142702</v>
+        <v>10691.467761164782</v>
       </c>
       <c r="O5" s="5">
-        <v>16435.781526383507</v>
+        <v>20454.849140960243</v>
       </c>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B6" s="1">
-        <f t="shared" ref="B6:B39" si="0">B5+1</f>
-        <v>2027</v>
-      </c>
-      <c r="C6" s="5">
-        <v>4454.1340187283349</v>
-      </c>
+        <f t="shared" si="0"/>
+        <v>2028</v>
+      </c>
+      <c r="C6" s="5"/>
       <c r="D6" s="5">
-        <v>989.20857123354551</v>
+        <v>221.30914058918347</v>
       </c>
       <c r="E6" s="5">
-        <v>836.48604610360985</v>
+        <v>1886.5332002018404</v>
       </c>
       <c r="F6" s="5">
-        <v>7900.2130668713089</v>
+        <v>8970.6623737203936</v>
       </c>
       <c r="G6" s="5">
-        <v>2259.1950231492797</v>
-      </c>
-      <c r="H6" s="5">
-        <v>4084.7121578827696</v>
-      </c>
+        <v>2478.0978770114771</v>
+      </c>
+      <c r="H6" s="5"/>
       <c r="I6" s="5">
-        <v>1625.0577269054047</v>
+        <v>1512.8503706123583</v>
       </c>
       <c r="J6" s="5">
-        <v>3635.0885112152737</v>
+        <v>2977.598282919068</v>
       </c>
       <c r="K6" s="5">
-        <v>1323.0224151276375</v>
+        <v>1507.4723309960461</v>
       </c>
       <c r="L6" s="5">
-        <v>681.59040551930434</v>
+        <v>872.03777354326485</v>
       </c>
       <c r="M6" s="5">
-        <v>1314.4750719842391</v>
+        <v>1582.1842275077693</v>
       </c>
       <c r="N6" s="5">
-        <v>10691.467761164782</v>
+        <v>9953.2408585075154</v>
       </c>
       <c r="O6" s="5">
-        <v>20454.849140960243</v>
+        <v>17038.94422737664</v>
       </c>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B7" s="1">
         <f t="shared" si="0"/>
-        <v>2028</v>
-      </c>
-      <c r="C7" s="5">
-        <v>4252.5544228183471</v>
-      </c>
+        <v>2029</v>
+      </c>
+      <c r="C7" s="5"/>
       <c r="D7" s="5">
-        <v>221.30914058918347</v>
+        <v>2106.6256296028787</v>
       </c>
       <c r="E7" s="5">
-        <v>1886.5332002018404</v>
+        <v>2728.8526153584262</v>
       </c>
       <c r="F7" s="5">
-        <v>8970.6623737203936</v>
+        <v>9237.6405361497691</v>
       </c>
       <c r="G7" s="5">
-        <v>2478.0978770114771</v>
-      </c>
-      <c r="H7" s="5">
-        <v>6117.2916382972935</v>
-      </c>
+        <v>3127.6169503912374</v>
+      </c>
+      <c r="H7" s="5"/>
       <c r="I7" s="5">
-        <v>1512.8503706123583</v>
+        <v>1364.3379496901132</v>
       </c>
       <c r="J7" s="5">
-        <v>2977.598282919068</v>
+        <v>3646.3271603092389</v>
       </c>
       <c r="K7" s="5">
-        <v>1507.4723309960461</v>
+        <v>1635.8695434730157</v>
       </c>
       <c r="L7" s="5">
-        <v>872.03777354326485</v>
+        <v>877.4496011171874</v>
       </c>
       <c r="M7" s="5">
-        <v>1582.1842275077693</v>
+        <v>1741.7854333559026</v>
       </c>
       <c r="N7" s="5">
-        <v>9953.2408585075154</v>
+        <v>8976.1581776070689</v>
       </c>
       <c r="O7" s="5">
-        <v>17038.94422737664</v>
+        <v>13745.047311162791</v>
       </c>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B8" s="1">
         <f t="shared" si="0"/>
-        <v>2029</v>
-      </c>
-      <c r="C8" s="5">
-        <v>4145.6081918410773</v>
-      </c>
+        <v>2030</v>
+      </c>
+      <c r="C8" s="5"/>
       <c r="D8" s="5">
-        <v>2106.6256296028787</v>
+        <v>5294.6326235182451</v>
       </c>
       <c r="E8" s="5">
-        <v>2728.8526153584262</v>
+        <v>1996.046006674206</v>
       </c>
       <c r="F8" s="5">
-        <v>9237.6405361497691</v>
+        <v>10839.835620002665</v>
       </c>
       <c r="G8" s="5">
-        <v>3127.6169503912374</v>
-      </c>
-      <c r="H8" s="5">
-        <v>3899.4702261429343</v>
-      </c>
+        <v>3135.4157475244697</v>
+      </c>
+      <c r="H8" s="5"/>
       <c r="I8" s="5">
-        <v>1364.3379496901132</v>
+        <v>904.45875123107317</v>
       </c>
       <c r="J8" s="5">
-        <v>3646.3271603092389</v>
+        <v>3779.3370608942714</v>
       </c>
       <c r="K8" s="5">
-        <v>1635.8695434730157</v>
+        <v>1746.0218707119739</v>
       </c>
       <c r="L8" s="5">
-        <v>877.4496011171874</v>
+        <v>939.73174467553906</v>
       </c>
       <c r="M8" s="5">
-        <v>1741.7854333559026</v>
+        <v>1892.8027068433896</v>
       </c>
       <c r="N8" s="5">
-        <v>8976.1581776070689</v>
+        <v>5950.552660369136</v>
       </c>
       <c r="O8" s="5">
-        <v>13745.047311162791</v>
+        <v>15132.06000946791</v>
       </c>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B9" s="1">
         <f t="shared" si="0"/>
-        <v>2030</v>
-      </c>
-      <c r="C9" s="5">
-        <v>3991.2411864889227</v>
-      </c>
+        <v>2031</v>
+      </c>
+      <c r="C9" s="5"/>
       <c r="D9" s="5">
-        <v>5294.6326235182451</v>
+        <v>4427.5790990897876</v>
       </c>
       <c r="E9" s="5">
-        <v>1996.046006674206</v>
+        <v>3040.4333366384258</v>
       </c>
       <c r="F9" s="5">
-        <v>10839.835620002665</v>
+        <v>10211.313108230523</v>
       </c>
       <c r="G9" s="5">
-        <v>3135.4157475244697</v>
-      </c>
-      <c r="H9" s="5">
-        <v>4383.2125308107861</v>
-      </c>
+        <v>5091.8442177925972</v>
+      </c>
+      <c r="H9" s="5"/>
       <c r="I9" s="5">
-        <v>904.45875123107317</v>
+        <v>1442.8759435865741</v>
       </c>
       <c r="J9" s="5">
-        <v>3779.3370608942714</v>
+        <v>3585.6760560062871</v>
       </c>
       <c r="K9" s="5">
-        <v>1746.0218707119739</v>
+        <v>1824.9420592681549</v>
       </c>
       <c r="L9" s="5">
-        <v>939.73174467553906</v>
+        <v>982.20761953487329</v>
       </c>
       <c r="M9" s="5">
-        <v>1892.8027068433896</v>
+        <v>1978.3573891927106</v>
       </c>
       <c r="N9" s="5">
-        <v>5950.552660369136</v>
+        <v>9492.8699324378231</v>
       </c>
       <c r="O9" s="5">
-        <v>15132.06000946791</v>
+        <v>15606.987509797171</v>
       </c>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B10" s="1">
         <f t="shared" si="0"/>
-        <v>2031</v>
-      </c>
-      <c r="C10" s="5">
-        <v>4647.1365624369237</v>
-      </c>
+        <v>2032</v>
+      </c>
+      <c r="C10" s="5"/>
       <c r="D10" s="5">
-        <v>4427.5790990897876</v>
+        <v>6699.9736305483148</v>
       </c>
       <c r="E10" s="5">
-        <v>3040.4333366384258</v>
+        <v>3079.6282281473705</v>
       </c>
       <c r="F10" s="5">
-        <v>10211.313108230523</v>
+        <v>9987.3934409373414</v>
       </c>
       <c r="G10" s="5">
-        <v>5091.8442177925972</v>
-      </c>
-      <c r="H10" s="5">
-        <v>4145.3991286421342</v>
-      </c>
+        <v>5098.8551820805624</v>
+      </c>
+      <c r="H10" s="5"/>
       <c r="I10" s="5">
-        <v>1442.8759435865741</v>
+        <v>1478.278136200965</v>
       </c>
       <c r="J10" s="5">
-        <v>3585.6760560062871</v>
+        <v>3727.5573586510754</v>
       </c>
       <c r="K10" s="5">
-        <v>1824.9420592681549</v>
+        <v>1907.4294403470753</v>
       </c>
       <c r="L10" s="5">
-        <v>982.20761953487329</v>
+        <v>1026.6034039378494</v>
       </c>
       <c r="M10" s="5">
-        <v>1978.3573891927106</v>
+        <v>2067.7791431842211</v>
       </c>
       <c r="N10" s="5">
-        <v>9492.8699324378231</v>
+        <v>9725.7855973675159</v>
       </c>
       <c r="O10" s="5">
-        <v>15606.987509797171</v>
+        <v>17016.485124051971</v>
       </c>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B11" s="1">
         <f t="shared" si="0"/>
-        <v>2032</v>
-      </c>
-      <c r="C11" s="5">
-        <v>4917.6168475751447</v>
-      </c>
+        <v>2033</v>
+      </c>
+      <c r="C11" s="5"/>
       <c r="D11" s="5">
-        <v>6699.9736305483148</v>
+        <v>6197.7326120145926</v>
       </c>
       <c r="E11" s="5">
-        <v>3079.6282281473705</v>
+        <v>3365.750967532942</v>
       </c>
       <c r="F11" s="5">
-        <v>9987.3934409373414</v>
+        <v>9680.9944600591734</v>
       </c>
       <c r="G11" s="5">
-        <v>5098.8551820805624</v>
-      </c>
-      <c r="H11" s="5">
-        <v>4215.0850783417927</v>
-      </c>
+        <v>5223.4525592457339</v>
+      </c>
+      <c r="H11" s="5"/>
       <c r="I11" s="5">
-        <v>1478.278136200965</v>
+        <v>1702.812375841015</v>
       </c>
       <c r="J11" s="5">
-        <v>3727.5573586510754</v>
+        <v>3643.5858251722557</v>
       </c>
       <c r="K11" s="5">
-        <v>1907.4294403470753</v>
+        <v>1993.6452510507629</v>
       </c>
       <c r="L11" s="5">
-        <v>1026.6034039378494</v>
+        <v>1073.0058777958402</v>
       </c>
       <c r="M11" s="5">
-        <v>2067.7791431842211</v>
+        <v>2161.2427604561476</v>
       </c>
       <c r="N11" s="5">
-        <v>9725.7855973675159</v>
+        <v>11203.02578683494</v>
       </c>
       <c r="O11" s="5">
-        <v>17016.485124051971</v>
+        <v>17591.634510507723</v>
       </c>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B12" s="1">
         <f t="shared" si="0"/>
-        <v>2033</v>
-      </c>
-      <c r="C12" s="5">
-        <v>4841.2698711477851</v>
-      </c>
+        <v>2034</v>
+      </c>
+      <c r="C12" s="5"/>
       <c r="D12" s="5">
-        <v>6197.7326120145926</v>
+        <v>8111.977184249773</v>
       </c>
       <c r="E12" s="5">
-        <v>3365.750967532942</v>
+        <v>3998.2297037974399</v>
       </c>
       <c r="F12" s="5">
-        <v>9680.9944600591734</v>
+        <v>9921.497499168494</v>
       </c>
       <c r="G12" s="5">
-        <v>5223.4525592457339</v>
-      </c>
-      <c r="H12" s="5">
-        <v>4372.7686671726688</v>
-      </c>
+        <v>5584.8625290540622</v>
+      </c>
+      <c r="H12" s="5"/>
       <c r="I12" s="5">
-        <v>1702.812375841015</v>
+        <v>1979.6073019892672</v>
       </c>
       <c r="J12" s="5">
-        <v>3643.5858251722557</v>
+        <v>3664.1788446593159</v>
       </c>
       <c r="K12" s="5">
-        <v>1993.6452510507629</v>
+        <v>2083.758016398257</v>
       </c>
       <c r="L12" s="5">
-        <v>1073.0058777958402</v>
+        <v>1121.5057434722121</v>
       </c>
       <c r="M12" s="5">
-        <v>2161.2427604561476</v>
+        <v>2258.9309332287653</v>
       </c>
       <c r="N12" s="5">
-        <v>11203.02578683494</v>
+        <v>13024.095881989959</v>
       </c>
       <c r="O12" s="5">
-        <v>17591.634510507723</v>
+        <v>18498.030802662179</v>
       </c>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B13" s="1">
         <f t="shared" si="0"/>
-        <v>2034</v>
-      </c>
-      <c r="C13" s="5">
-        <v>4827.0636839758909</v>
-      </c>
+        <v>2035</v>
+      </c>
+      <c r="C13" s="5"/>
       <c r="D13" s="5">
-        <v>8111.977184249773</v>
+        <v>8099.8737408743837</v>
       </c>
       <c r="E13" s="5">
-        <v>3998.2297037974399</v>
+        <v>3357.9892161586899</v>
       </c>
       <c r="F13" s="5">
-        <v>9921.497499168494</v>
+        <v>6527.7649641655671</v>
       </c>
       <c r="G13" s="5">
-        <v>5584.8625290540622</v>
-      </c>
-      <c r="H13" s="5">
-        <v>4240.1806955791226</v>
-      </c>
+        <v>5490.4819889390856</v>
+      </c>
+      <c r="H13" s="5"/>
       <c r="I13" s="5">
-        <v>1979.6073019892672</v>
+        <v>1993.5461747859215</v>
       </c>
       <c r="J13" s="5">
-        <v>3664.1788446593159</v>
+        <v>3812.0348759286694</v>
       </c>
       <c r="K13" s="5">
-        <v>2083.758016398257</v>
+        <f>K12*1.045</f>
+        <v>2177.5271271361785</v>
       </c>
       <c r="L13" s="5">
-        <v>1121.5057434722121</v>
+        <f>L12*1.045</f>
+        <v>1171.9735019284615</v>
       </c>
       <c r="M13" s="5">
-        <v>2258.9309332287653</v>
+        <f>M12*1.045</f>
+        <v>2360.5828252240594</v>
       </c>
       <c r="N13" s="5">
-        <v>13024.095881989959</v>
+        <v>13115.801552911693</v>
       </c>
       <c r="O13" s="5">
-        <v>18498.030802662179</v>
+        <v>12827.807462571316</v>
       </c>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B14" s="1">
         <f t="shared" si="0"/>
-        <v>2035</v>
-      </c>
-      <c r="C14" s="5">
-        <v>4985.0840320289926</v>
-      </c>
+        <v>2036</v>
+      </c>
+      <c r="C14" s="5"/>
       <c r="D14" s="5">
-        <v>8099.8737408743837</v>
+        <v>8288.8144031864449</v>
       </c>
       <c r="E14" s="5">
-        <v>3357.9892161586899</v>
+        <v>3890.7284841014853</v>
       </c>
       <c r="F14" s="5">
-        <v>6527.7649641655671</v>
+        <v>9674.569649226436</v>
       </c>
       <c r="G14" s="5">
-        <v>5490.4819889390856</v>
-      </c>
-      <c r="H14" s="5">
-        <v>3841.6157904558904</v>
-      </c>
+        <v>5570.4881470965656</v>
+      </c>
+      <c r="H14" s="5"/>
       <c r="I14" s="5">
-        <v>1993.5461747859215</v>
+        <v>1999.1896102157625</v>
       </c>
       <c r="J14" s="5">
-        <v>3812.0348759286694</v>
+        <v>3318.8099678628996</v>
       </c>
       <c r="K14" s="5">
-        <f>K13*1.045</f>
-        <v>2177.5271271361785</v>
+        <f t="shared" ref="K14:M29" si="1">K13*1.045</f>
+        <v>2275.5158478573062</v>
       </c>
       <c r="L14" s="5">
-        <f>L13*1.045</f>
-        <v>1171.9735019284615</v>
+        <f t="shared" si="1"/>
+        <v>1224.7123095152422</v>
       </c>
       <c r="M14" s="5">
-        <f>M13*1.045</f>
-        <v>2360.5828252240594</v>
+        <f t="shared" si="1"/>
+        <v>2466.8090523591418</v>
       </c>
       <c r="N14" s="5">
-        <v>13115.801552911693</v>
+        <v>13152.930454218638</v>
       </c>
       <c r="O14" s="5">
-        <v>12827.807462571316</v>
+        <v>13790.437082697636</v>
       </c>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B15" s="1">
         <f t="shared" si="0"/>
-        <v>2036</v>
-      </c>
-      <c r="C15" s="5">
-        <v>4873.3212602541498</v>
-      </c>
+        <v>2037</v>
+      </c>
+      <c r="C15" s="5"/>
       <c r="D15" s="5">
-        <v>8288.8144031864449</v>
+        <v>7428.9529537233184</v>
       </c>
       <c r="E15" s="5">
-        <v>3890.7284841014853</v>
+        <v>3795.421343208634</v>
       </c>
       <c r="F15" s="5">
-        <v>9674.569649226436</v>
+        <v>9501.6374868994753</v>
       </c>
       <c r="G15" s="5">
-        <v>5570.4881470965656</v>
-      </c>
-      <c r="H15" s="5">
-        <v>4400.1977012755015</v>
-      </c>
+        <v>5430.9492258061327</v>
+      </c>
+      <c r="H15" s="5"/>
       <c r="I15" s="5">
-        <v>1999.1896102157625</v>
+        <v>1469.3286433478743</v>
       </c>
       <c r="J15" s="5">
-        <v>3318.8099678628996</v>
+        <v>3417.6935498699613</v>
       </c>
       <c r="K15" s="5">
-        <f t="shared" ref="K15:M30" si="1">K14*1.045</f>
-        <v>2275.5158478573062</v>
+        <f t="shared" si="1"/>
+        <v>2377.9140610108848</v>
       </c>
       <c r="L15" s="5">
         <f t="shared" si="1"/>
-        <v>1224.7123095152422</v>
+        <v>1279.824363443428</v>
       </c>
       <c r="M15" s="5">
         <f t="shared" si="1"/>
-        <v>2466.8090523591418</v>
+        <v>2577.8154597153029</v>
       </c>
       <c r="N15" s="5">
-        <v>13152.930454218638</v>
+        <v>9666.905710989693</v>
       </c>
       <c r="O15" s="5">
-        <v>13790.437082697636</v>
+        <v>15298.703582549764</v>
       </c>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B16" s="1">
         <f t="shared" si="0"/>
-        <v>2037</v>
-      </c>
-      <c r="C16" s="5">
-        <v>4864.9725323384228</v>
-      </c>
+        <v>2038</v>
+      </c>
+      <c r="C16" s="5"/>
       <c r="D16" s="5">
-        <v>7428.9529537233184</v>
+        <v>7636.3305582043422</v>
       </c>
       <c r="E16" s="5">
-        <v>3795.421343208634</v>
+        <v>4241.1276645324469</v>
       </c>
       <c r="F16" s="5">
-        <v>9501.6374868994753</v>
+        <v>9477.7672293524847</v>
       </c>
       <c r="G16" s="5">
-        <v>5430.9492258061327</v>
-      </c>
-      <c r="H16" s="5">
-        <v>3904.8083792461571</v>
-      </c>
+        <v>5281.6984417918602</v>
+      </c>
+      <c r="H16" s="5"/>
       <c r="I16" s="5">
-        <v>1469.3286433478743</v>
+        <v>1508.0722156017994</v>
       </c>
       <c r="J16" s="5">
-        <v>3417.6935498699613</v>
+        <v>3449.9858942749584</v>
       </c>
       <c r="K16" s="5">
         <f t="shared" si="1"/>
-        <v>2377.9140610108848</v>
+        <v>2484.9201937563744</v>
       </c>
       <c r="L16" s="5">
         <f t="shared" si="1"/>
-        <v>1279.824363443428</v>
+        <v>1337.4164597983822</v>
       </c>
       <c r="M16" s="5">
         <f t="shared" si="1"/>
-        <v>2577.8154597153029</v>
+        <v>2693.8171554024916</v>
       </c>
       <c r="N16" s="5">
-        <v>9666.905710989693</v>
+        <v>9921.8047504804363</v>
       </c>
       <c r="O16" s="5">
-        <v>15298.703582549764</v>
+        <v>16564.725043283786</v>
       </c>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B17" s="1">
         <f t="shared" si="0"/>
-        <v>2038</v>
-      </c>
-      <c r="C17" s="5">
-        <v>4915.6639471722756</v>
-      </c>
+        <v>2039</v>
+      </c>
+      <c r="C17" s="5"/>
       <c r="D17" s="5">
-        <v>7636.3305582043422</v>
+        <v>7537.1078262266747</v>
       </c>
       <c r="E17" s="5">
-        <v>4241.1276645324469</v>
+        <v>4700.1076438236432</v>
       </c>
       <c r="F17" s="5">
-        <v>9477.7672293524847</v>
+        <v>9451.957591022785</v>
       </c>
       <c r="G17" s="5">
-        <v>5281.6984417918602</v>
-      </c>
-      <c r="H17" s="5">
-        <v>3180.1465108740372</v>
-      </c>
+        <v>5455.0497239954748</v>
+      </c>
+      <c r="H17" s="5"/>
       <c r="I17" s="5">
-        <v>1508.0722156017994</v>
+        <v>1609.051536376933</v>
       </c>
       <c r="J17" s="5">
-        <v>3449.9858942749584</v>
+        <v>1591.4154739747762</v>
       </c>
       <c r="K17" s="5">
         <f t="shared" si="1"/>
-        <v>2484.9201937563744</v>
+        <v>2596.7416024754111</v>
       </c>
       <c r="L17" s="5">
         <f t="shared" si="1"/>
-        <v>1337.4164597983822</v>
+        <v>1397.6002004893094</v>
       </c>
       <c r="M17" s="5">
         <f t="shared" si="1"/>
-        <v>2693.8171554024916</v>
+        <v>2815.0389273956034</v>
       </c>
       <c r="N17" s="5">
-        <v>9921.8047504804363</v>
+        <v>10586.160935948119</v>
       </c>
       <c r="O17" s="5">
-        <v>16564.725043283786</v>
+        <v>17848.879726987452</v>
       </c>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B18" s="1">
         <f t="shared" si="0"/>
-        <v>2039</v>
-      </c>
-      <c r="C18" s="5">
-        <v>4929.0233864648735</v>
-      </c>
+        <v>2040</v>
+      </c>
+      <c r="C18" s="5"/>
       <c r="D18" s="5">
-        <v>7537.1078262266747</v>
+        <v>7239.4228885436014</v>
       </c>
       <c r="E18" s="5">
-        <v>4700.1076438236432</v>
+        <v>4448.8476307615656</v>
       </c>
       <c r="F18" s="5">
-        <v>9451.957591022785</v>
+        <v>9809.1114632965837</v>
       </c>
       <c r="G18" s="5">
-        <v>5455.0497239954748</v>
-      </c>
-      <c r="H18" s="5">
-        <v>2985.349127054737</v>
-      </c>
+        <v>5562.4537677373455</v>
+      </c>
+      <c r="H18" s="5"/>
       <c r="I18" s="5">
-        <v>1609.051536376933</v>
+        <v>905.55856109873594</v>
       </c>
       <c r="J18" s="5">
-        <v>1591.4154739747762</v>
+        <v>2387.1653240800347</v>
       </c>
       <c r="K18" s="5">
         <f t="shared" si="1"/>
-        <v>2596.7416024754111</v>
+        <v>2713.5949745868043</v>
       </c>
       <c r="L18" s="5">
         <f t="shared" si="1"/>
-        <v>1397.6002004893094</v>
+        <v>1460.4922095113282</v>
       </c>
       <c r="M18" s="5">
         <f t="shared" si="1"/>
-        <v>2815.0389273956034</v>
+        <v>2941.7156791284056</v>
       </c>
       <c r="N18" s="5">
-        <v>10586.160935948119</v>
+        <v>5957.7884536267202</v>
       </c>
       <c r="O18" s="5">
-        <v>17848.879726987452</v>
+        <v>18757.600227044673</v>
       </c>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B19" s="1">
         <f t="shared" si="0"/>
-        <v>2040</v>
-      </c>
-      <c r="C19" s="5">
-        <v>4838.3388712568885</v>
-      </c>
+        <v>2041</v>
+      </c>
+      <c r="C19" s="5"/>
       <c r="D19" s="5">
-        <v>7239.4228885436014</v>
+        <v>7128.8511428279435</v>
       </c>
       <c r="E19" s="5">
-        <v>4448.8476307615656</v>
+        <v>4404.6638333651717</v>
       </c>
       <c r="F19" s="5">
-        <v>9809.1114632965837</v>
+        <v>8177.7095148837079</v>
       </c>
       <c r="G19" s="5">
-        <v>5562.4537677373455</v>
-      </c>
-      <c r="H19" s="5">
-        <v>3146.9679929508952</v>
-      </c>
+        <v>4547.2721925786218</v>
+      </c>
+      <c r="H19" s="5"/>
       <c r="I19" s="5">
-        <v>905.55856109873594</v>
+        <v>1571.163826467832</v>
       </c>
       <c r="J19" s="5">
-        <v>2387.1653240800347</v>
+        <v>1701.053814332302</v>
       </c>
       <c r="K19" s="5">
         <f t="shared" si="1"/>
-        <v>2713.5949745868043</v>
+        <v>2835.7067484432105</v>
       </c>
       <c r="L19" s="5">
         <f t="shared" si="1"/>
-        <v>1460.4922095113282</v>
+        <v>1526.2143589393379</v>
       </c>
       <c r="M19" s="5">
         <f t="shared" si="1"/>
-        <v>2941.7156791284056</v>
+        <v>3074.0928846891834</v>
       </c>
       <c r="N19" s="5">
-        <v>5957.7884536267202</v>
+        <v>10336.892726991075</v>
       </c>
       <c r="O19" s="5">
-        <v>18757.600227044673</v>
+        <v>20290.664987979435</v>
       </c>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B20" s="1">
         <f t="shared" si="0"/>
-        <v>2041</v>
-      </c>
-      <c r="C20" s="5">
-        <v>4464.6064739359508</v>
-      </c>
+        <v>2042</v>
+      </c>
+      <c r="C20" s="5"/>
       <c r="D20" s="5">
-        <v>7128.8511428279435</v>
+        <v>6983.7524039036143</v>
       </c>
       <c r="E20" s="5">
-        <v>4404.6638333651717</v>
+        <v>4322.8251616964926</v>
       </c>
       <c r="F20" s="5">
-        <v>8177.7095148837079</v>
+        <v>6902.4335581849218</v>
       </c>
       <c r="G20" s="5">
-        <v>4547.2721925786218</v>
-      </c>
-      <c r="H20" s="5">
-        <v>2438.287854523574</v>
-      </c>
+        <v>4591.0521644979535</v>
+      </c>
+      <c r="H20" s="5"/>
       <c r="I20" s="5">
-        <v>1571.163826467832</v>
+        <v>3429.6463359064046</v>
       </c>
       <c r="J20" s="5">
-        <v>1701.053814332302</v>
+        <v>1502.8038567993208</v>
       </c>
       <c r="K20" s="5">
         <f t="shared" si="1"/>
-        <v>2835.7067484432105</v>
+        <v>2963.3135521231548</v>
       </c>
       <c r="L20" s="5">
         <f t="shared" si="1"/>
-        <v>1526.2143589393379</v>
+        <v>1594.8940050916081</v>
       </c>
       <c r="M20" s="5">
         <f t="shared" si="1"/>
-        <v>3074.0928846891834</v>
+        <v>3212.4270645001966</v>
       </c>
       <c r="N20" s="5">
-        <v>10336.892726991075</v>
+        <v>22564.092724488615</v>
       </c>
       <c r="O20" s="5">
-        <v>20290.664987979435</v>
+        <v>27634.185731017446</v>
       </c>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B21" s="1">
         <f t="shared" si="0"/>
-        <v>2042</v>
-      </c>
-      <c r="C21" s="5">
-        <v>7580.6163414785888</v>
-      </c>
+        <v>2043</v>
+      </c>
+      <c r="C21" s="5"/>
       <c r="D21" s="5">
-        <v>6983.7524039036143</v>
+        <v>6736.245310886472</v>
       </c>
       <c r="E21" s="5">
-        <v>4322.8251616964926</v>
+        <v>4704.9869228474563</v>
       </c>
       <c r="F21" s="5">
-        <v>6902.4335581849218</v>
+        <v>6264.1358442520304</v>
       </c>
       <c r="G21" s="5">
-        <v>4591.0521644979535</v>
-      </c>
-      <c r="H21" s="5">
-        <v>738.06028430544143</v>
-      </c>
+        <v>4343.9829427370814</v>
+      </c>
+      <c r="H21" s="5"/>
       <c r="I21" s="5">
-        <v>3429.6463359064046</v>
+        <v>3575.9025766681743</v>
       </c>
       <c r="J21" s="5">
-        <v>1502.8038567993208</v>
+        <v>1286.1994885699846</v>
       </c>
       <c r="K21" s="5">
         <f t="shared" si="1"/>
-        <v>2963.3135521231548</v>
+        <v>3096.6626619686963</v>
       </c>
       <c r="L21" s="5">
         <f t="shared" si="1"/>
-        <v>1594.8940050916081</v>
+        <v>1666.6642353207303</v>
       </c>
       <c r="M21" s="5">
         <f t="shared" si="1"/>
-        <v>3212.4270645001966</v>
+        <v>3356.986282402705</v>
       </c>
       <c r="N21" s="5">
-        <v>22564.092724488615</v>
+        <v>23526.331700424169</v>
       </c>
       <c r="O21" s="5">
-        <v>27634.185731017446</v>
+        <v>18079.404544884062</v>
       </c>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B22" s="1">
         <f t="shared" si="0"/>
-        <v>2043</v>
-      </c>
-      <c r="C22" s="5">
-        <v>4214.6664323041505</v>
-      </c>
+        <v>2044</v>
+      </c>
+      <c r="C22" s="5"/>
       <c r="D22" s="5">
-        <v>6736.245310886472</v>
+        <v>7188.6301287649376</v>
       </c>
       <c r="E22" s="5">
-        <v>4704.9869228474563</v>
+        <v>5466.3907696940523</v>
       </c>
       <c r="F22" s="5">
-        <v>6264.1358442520304</v>
+        <v>7208.5854147848531</v>
       </c>
       <c r="G22" s="5">
-        <v>4343.9829427370814</v>
-      </c>
-      <c r="H22" s="5">
-        <v>601.78349273418473</v>
-      </c>
+        <v>4864.1456318902165</v>
+      </c>
+      <c r="H22" s="5"/>
       <c r="I22" s="5">
-        <v>3575.9025766681743</v>
+        <v>208.43109107741782</v>
       </c>
       <c r="J22" s="5">
-        <v>1286.1994885699846</v>
+        <v>1344.2654914942575</v>
       </c>
       <c r="K22" s="5">
         <f t="shared" si="1"/>
-        <v>3096.6626619686963</v>
+        <v>3236.0124817572873</v>
       </c>
       <c r="L22" s="5">
         <f t="shared" si="1"/>
-        <v>1666.6642353207303</v>
+        <v>1741.664125910163</v>
       </c>
       <c r="M22" s="5">
         <f t="shared" si="1"/>
-        <v>3356.986282402705</v>
+        <v>3508.0506651108267</v>
       </c>
       <c r="N22" s="5">
-        <v>23526.331700424169</v>
+        <v>1371.2954646369503</v>
       </c>
       <c r="O22" s="5">
-        <v>18079.404544884062</v>
+        <v>18649.553918816058</v>
       </c>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B23" s="1">
         <f t="shared" si="0"/>
-        <v>2044</v>
-      </c>
-      <c r="C23" s="5">
-        <v>3991.7113527908809</v>
-      </c>
+        <v>2045</v>
+      </c>
+      <c r="C23" s="5"/>
       <c r="D23" s="5">
-        <v>7188.6301287649376</v>
+        <v>7435.8005160484045</v>
       </c>
       <c r="E23" s="5">
-        <v>5466.3907696940523</v>
+        <v>6800.1708681005994</v>
       </c>
       <c r="F23" s="5">
-        <v>7208.5854147848531</v>
+        <v>7251.4632082702119</v>
       </c>
       <c r="G23" s="5">
-        <v>4864.1456318902165</v>
-      </c>
-      <c r="H23" s="5">
-        <v>626.68616578319768</v>
-      </c>
+        <v>4826.8320156433474</v>
+      </c>
+      <c r="H23" s="5"/>
       <c r="I23" s="5">
-        <v>208.43109107741782</v>
+        <v>625.32963005381805</v>
       </c>
       <c r="J23" s="5">
-        <v>1344.2654914942575</v>
+        <v>239.15492205244067</v>
       </c>
       <c r="K23" s="5">
         <f t="shared" si="1"/>
-        <v>3236.0124817572873</v>
+        <v>3381.6330434363649</v>
       </c>
       <c r="L23" s="5">
         <f t="shared" si="1"/>
-        <v>1741.664125910163</v>
+        <v>1820.0390115761202</v>
       </c>
       <c r="M23" s="5">
         <f t="shared" si="1"/>
-        <v>3508.0506651108267</v>
+        <v>3665.9129450408136</v>
       </c>
       <c r="N23" s="5">
-        <v>1371.2954646369503</v>
+        <v>4114.1255902047551</v>
       </c>
       <c r="O23" s="5">
-        <v>18649.553918816058</v>
+        <v>18956.452144169099</v>
       </c>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B24" s="1">
         <f t="shared" si="0"/>
-        <v>2045</v>
-      </c>
-      <c r="C24" s="5">
-        <v>-5320.1595258045809</v>
-      </c>
+        <v>2046</v>
+      </c>
+      <c r="C24" s="5"/>
       <c r="D24" s="5">
-        <v>7435.8005160484045</v>
+        <v>9736.2645221372186</v>
       </c>
       <c r="E24" s="5">
-        <v>6800.1708681005994</v>
+        <v>4836.6248297612428</v>
       </c>
       <c r="F24" s="5">
-        <v>7251.4632082702119</v>
+        <v>8154.2210641793599</v>
       </c>
       <c r="G24" s="5">
-        <v>4826.8320156433474</v>
-      </c>
-      <c r="H24" s="5">
-        <v>-2769.3016555129261</v>
-      </c>
+        <v>4107.4633820636591</v>
+      </c>
+      <c r="H24" s="5"/>
       <c r="I24" s="5">
-        <v>625.32963005381805</v>
+        <v>882.36437232330456</v>
       </c>
       <c r="J24" s="5">
-        <v>239.15492205244067</v>
+        <v>362.63640822107453</v>
       </c>
       <c r="K24" s="5">
         <f t="shared" si="1"/>
-        <v>3381.6330434363649</v>
+        <v>3533.8065303910012</v>
       </c>
       <c r="L24" s="5">
         <f t="shared" si="1"/>
-        <v>1820.0390115761202</v>
+        <v>1901.9407670970454</v>
       </c>
       <c r="M24" s="5">
         <f t="shared" si="1"/>
-        <v>3665.9129450408136</v>
+        <v>3830.8790275676502</v>
       </c>
       <c r="N24" s="5">
-        <v>4114.1255902047551</v>
+        <v>5805.1908459028873</v>
       </c>
       <c r="O24" s="5">
-        <v>18956.452144169099</v>
+        <v>19240.652823209126</v>
       </c>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B25" s="1">
         <f t="shared" si="0"/>
-        <v>2046</v>
-      </c>
-      <c r="C25" s="5">
-        <v>20314.420745591768</v>
-      </c>
+        <v>2047</v>
+      </c>
+      <c r="C25" s="5"/>
       <c r="D25" s="5">
-        <v>9736.2645221372186</v>
+        <v>6916.0347688484908</v>
       </c>
       <c r="E25" s="5">
-        <v>4836.6248297612428</v>
+        <v>4570.7074782877553</v>
       </c>
       <c r="F25" s="5">
-        <v>8154.2210641793599</v>
+        <v>8198.0874546577325</v>
       </c>
       <c r="G25" s="5">
-        <v>4107.4633820636591</v>
-      </c>
-      <c r="H25" s="5">
-        <v>-2520.1257992102474</v>
-      </c>
+        <v>4204.7632074703888</v>
+      </c>
+      <c r="H25" s="5"/>
       <c r="I25" s="5">
-        <v>882.36437232330456</v>
+        <v>5717.7724254876202</v>
       </c>
       <c r="J25" s="5">
-        <v>362.63640822107453</v>
+        <v>472.14988904221639</v>
       </c>
       <c r="K25" s="5">
         <f t="shared" si="1"/>
-        <v>3533.8065303910012</v>
+        <v>3692.8278242585961</v>
       </c>
       <c r="L25" s="5">
         <f t="shared" si="1"/>
-        <v>1901.9407670970454</v>
+        <v>1987.5281016164124</v>
       </c>
       <c r="M25" s="5">
         <f t="shared" si="1"/>
-        <v>3830.8790275676502</v>
+        <v>4003.2685838081943</v>
       </c>
       <c r="N25" s="5">
-        <v>5805.1908459028873</v>
+        <v>37617.974143718733</v>
       </c>
       <c r="O25" s="5">
-        <v>19240.652823209126</v>
+        <v>17867.330379917476</v>
       </c>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B26" s="1">
         <f t="shared" si="0"/>
-        <v>2047</v>
-      </c>
-      <c r="C26" s="5">
-        <v>1009.6186778125118</v>
-      </c>
+        <v>2048</v>
+      </c>
+      <c r="C26" s="5"/>
       <c r="D26" s="5">
-        <v>6916.0347688484908</v>
+        <v>17792.412517860637</v>
       </c>
       <c r="E26" s="5">
-        <v>4570.7074782877553</v>
+        <v>65371.712835673432</v>
       </c>
       <c r="F26" s="5">
-        <v>8198.0874546577325</v>
+        <v>8278.9794027489297</v>
       </c>
       <c r="G26" s="5">
-        <v>4204.7632074703888</v>
-      </c>
-      <c r="H26" s="5">
-        <v>-2175.9164101714859</v>
-      </c>
+        <v>3929.1449403481429</v>
+      </c>
+      <c r="H26" s="5"/>
       <c r="I26" s="5">
-        <v>5717.7724254876202</v>
+        <v>1263.9425839796477</v>
       </c>
       <c r="J26" s="5">
-        <v>472.14988904221639</v>
+        <v>514.78768513764919</v>
       </c>
       <c r="K26" s="5">
         <f t="shared" si="1"/>
-        <v>3692.8278242585961</v>
+        <v>3859.0050763502327</v>
       </c>
       <c r="L26" s="5">
         <f t="shared" si="1"/>
-        <v>1987.5281016164124</v>
+        <v>2076.966866189151</v>
       </c>
       <c r="M26" s="5">
         <f t="shared" si="1"/>
-        <v>4003.2685838081943</v>
+        <v>4183.4156700795629</v>
       </c>
       <c r="N26" s="5">
-        <v>37617.974143718733</v>
+        <v>8315.6439090414751</v>
       </c>
       <c r="O26" s="5">
-        <v>17867.330379917476</v>
+        <v>17166.372303582008</v>
       </c>
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B27" s="1">
         <f t="shared" si="0"/>
-        <v>2048</v>
-      </c>
-      <c r="C27" s="5">
-        <v>866.58507918659575</v>
-      </c>
+        <v>2049</v>
+      </c>
+      <c r="C27" s="5"/>
       <c r="D27" s="5">
-        <v>17792.412517860637</v>
+        <v>21724.322353370055</v>
       </c>
       <c r="E27" s="5">
-        <v>65371.712835673432</v>
+        <v>176.52578358770324</v>
       </c>
       <c r="F27" s="5">
-        <v>8278.9794027489297</v>
+        <v>8351.1674389202817</v>
       </c>
       <c r="G27" s="5">
-        <v>3929.1449403481429</v>
-      </c>
-      <c r="H27" s="5">
-        <v>-1881.4274824677523</v>
-      </c>
+        <v>4359.9855593499242</v>
+      </c>
+      <c r="H27" s="5"/>
       <c r="I27" s="5">
-        <v>1263.9425839796477</v>
+        <v>21.722954410910749</v>
       </c>
       <c r="J27" s="5">
-        <v>514.78768513764919</v>
+        <v>51.21045494692499</v>
       </c>
       <c r="K27" s="5">
         <f t="shared" si="1"/>
-        <v>3859.0050763502327</v>
+        <v>4032.660304785993</v>
       </c>
       <c r="L27" s="5">
         <f t="shared" si="1"/>
-        <v>2076.966866189151</v>
+        <v>2170.4303751676625</v>
       </c>
       <c r="M27" s="5">
         <f t="shared" si="1"/>
-        <v>4183.4156700795629</v>
+        <v>4371.669375233143</v>
       </c>
       <c r="N27" s="5">
-        <v>8315.6439090414751</v>
+        <v>142.91816402348886</v>
       </c>
       <c r="O27" s="5">
-        <v>17166.372303582008</v>
+        <v>18060.034715440248</v>
       </c>
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B28" s="1">
         <f t="shared" si="0"/>
-        <v>2049</v>
-      </c>
-      <c r="C28" s="5">
-        <v>880.22212473874549</v>
-      </c>
+        <v>2050</v>
+      </c>
+      <c r="C28" s="5"/>
       <c r="D28" s="5">
-        <v>21724.322353370055</v>
+        <v>1858.9630331803621</v>
       </c>
       <c r="E28" s="5">
-        <v>176.52578358770324</v>
+        <v>163.40515541828785</v>
       </c>
       <c r="F28" s="5">
-        <v>8351.1674389202817</v>
+        <v>8321.4072834855524</v>
       </c>
       <c r="G28" s="5">
-        <v>4359.9855593499242</v>
-      </c>
-      <c r="H28" s="5">
-        <v>-1802.3619580907712</v>
-      </c>
+        <v>5226.3542632588751</v>
+      </c>
+      <c r="H28" s="5"/>
       <c r="I28" s="5">
-        <v>21.722954410910749</v>
+        <v>31.607676579629818</v>
       </c>
       <c r="J28" s="5">
-        <v>51.21045494692499</v>
+        <v>68.529977450706909</v>
       </c>
       <c r="K28" s="5">
         <f t="shared" si="1"/>
-        <v>4032.660304785993</v>
+        <v>4214.1300185013624</v>
       </c>
       <c r="L28" s="5">
         <f t="shared" si="1"/>
-        <v>2170.4303751676625</v>
+        <v>2268.0997420502072</v>
       </c>
       <c r="M28" s="5">
         <f t="shared" si="1"/>
-        <v>4371.669375233143</v>
+        <v>4568.3944971186338</v>
       </c>
       <c r="N28" s="5">
-        <v>142.91816402348886</v>
+        <v>207.9510466375614</v>
       </c>
       <c r="O28" s="5">
-        <v>18060.034715440248</v>
+        <v>19741.439858855949</v>
       </c>
     </row>
     <row r="29" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B29" s="1">
         <f t="shared" si="0"/>
-        <v>2050</v>
-      </c>
-      <c r="C29" s="5">
-        <v>845.99770059757248</v>
-      </c>
+        <v>2051</v>
+      </c>
+      <c r="C29" s="5"/>
       <c r="D29" s="5">
-        <v>1858.9630331803621</v>
+        <v>1984.3939238409062</v>
       </c>
       <c r="E29" s="5">
-        <v>163.40515541828785</v>
+        <v>115.73315299785321</v>
       </c>
       <c r="F29" s="5">
-        <v>8321.4072834855524</v>
+        <v>9144.8197090018821</v>
       </c>
       <c r="G29" s="5">
-        <v>5226.3542632588751</v>
-      </c>
-      <c r="H29" s="5">
-        <v>168.25225081348492</v>
-      </c>
+        <v>5055.0627512252313</v>
+      </c>
+      <c r="H29" s="5"/>
       <c r="I29" s="5">
-        <v>31.607676579629818</v>
+        <v>565.45374305641292</v>
       </c>
       <c r="J29" s="5">
-        <v>68.529977450706909</v>
+        <v>99.397506451781567</v>
       </c>
       <c r="K29" s="5">
         <f t="shared" si="1"/>
-        <v>4214.1300185013624</v>
+        <v>4403.7658693339235</v>
       </c>
       <c r="L29" s="5">
         <f t="shared" si="1"/>
-        <v>2268.0997420502072</v>
+        <v>2370.1642304424663</v>
       </c>
       <c r="M29" s="5">
         <f t="shared" si="1"/>
-        <v>4568.3944971186338</v>
+        <v>4773.972249488972</v>
       </c>
       <c r="N29" s="5">
-        <v>207.9510466375614</v>
+        <v>3720.1942824702533</v>
       </c>
       <c r="O29" s="5">
-        <v>19741.439858855949</v>
+        <v>19565.728775564799</v>
       </c>
     </row>
     <row r="30" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B30" s="1">
         <f t="shared" si="0"/>
-        <v>2051</v>
-      </c>
-      <c r="C30" s="5">
-        <v>809.0960804716151</v>
-      </c>
+        <v>2052</v>
+      </c>
+      <c r="C30" s="5"/>
       <c r="D30" s="5">
-        <v>1984.3939238409062</v>
+        <v>2044.0408195728162</v>
       </c>
       <c r="E30" s="5">
-        <v>115.73315299785321</v>
+        <v>91.809703028503719</v>
       </c>
       <c r="F30" s="5">
-        <v>9144.8197090018821</v>
+        <v>9162.796070732622</v>
       </c>
       <c r="G30" s="5">
-        <v>5055.0627512252313</v>
-      </c>
-      <c r="H30" s="5">
-        <v>146.78636228306991</v>
-      </c>
+        <v>5039.7898278747607</v>
+      </c>
+      <c r="H30" s="5"/>
       <c r="I30" s="5">
-        <v>565.45374305641292</v>
+        <v>-2028.5808695841597</v>
       </c>
       <c r="J30" s="5">
-        <v>99.397506451781567</v>
+        <v>150.46339294311417</v>
       </c>
       <c r="K30" s="5">
-        <f t="shared" si="1"/>
-        <v>4403.7658693339235</v>
+        <f t="shared" ref="K30:M38" si="2">K29*1.045</f>
+        <v>4601.9353334539501</v>
       </c>
       <c r="L30" s="5">
-        <f t="shared" si="1"/>
-        <v>2370.1642304424663</v>
+        <f t="shared" si="2"/>
+        <v>2476.8216208123772</v>
       </c>
       <c r="M30" s="5">
-        <f t="shared" si="1"/>
-        <v>4773.972249488972</v>
+        <f t="shared" si="2"/>
+        <v>4988.8010007159755</v>
       </c>
       <c r="N30" s="5">
-        <v>3720.1942824702533</v>
+        <v>-13346.299401545604</v>
       </c>
       <c r="O30" s="5">
-        <v>19565.728775564799</v>
+        <v>19658.773743151509</v>
       </c>
     </row>
     <row r="31" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B31" s="1">
         <f t="shared" si="0"/>
-        <v>2052</v>
-      </c>
-      <c r="C31" s="5">
-        <v>1088.1202962717</v>
-      </c>
+        <v>2053</v>
+      </c>
+      <c r="C31" s="5"/>
       <c r="D31" s="5">
-        <v>2044.0408195728162</v>
+        <v>1996.6431526746217</v>
       </c>
       <c r="E31" s="5">
-        <v>91.809703028503719</v>
+        <v>0</v>
       </c>
       <c r="F31" s="5">
-        <v>9162.796070732622</v>
+        <v>9216.2516001340518</v>
       </c>
       <c r="G31" s="5">
-        <v>5039.7898278747607</v>
-      </c>
-      <c r="H31" s="5">
-        <v>139.18288371686043</v>
-      </c>
+        <v>4744.7092284408018</v>
+      </c>
+      <c r="H31" s="5"/>
       <c r="I31" s="5">
-        <v>-2028.5808695841597</v>
+        <v>-45.921960791611475</v>
       </c>
       <c r="J31" s="5">
-        <v>150.46339294311417</v>
+        <v>269.27948694934048</v>
       </c>
       <c r="K31" s="5">
-        <f t="shared" ref="K31:M39" si="2">K30*1.045</f>
-        <v>4601.9353334539501</v>
+        <f t="shared" si="2"/>
+        <v>4809.0224234593779</v>
       </c>
       <c r="L31" s="5">
         <f t="shared" si="2"/>
-        <v>2476.8216208123772</v>
+        <v>2588.2785937489339</v>
       </c>
       <c r="M31" s="5">
         <f t="shared" si="2"/>
-        <v>4988.8010007159755</v>
+        <v>5213.2970457481943</v>
       </c>
       <c r="N31" s="5">
-        <v>-13346.299401545604</v>
+        <v>-302.12659846118009</v>
       </c>
       <c r="O31" s="5">
-        <v>19658.773743151509</v>
+        <v>6505.617728611267</v>
       </c>
     </row>
     <row r="32" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B32" s="1">
         <f t="shared" si="0"/>
-        <v>2053</v>
-      </c>
-      <c r="C32" s="5">
-        <v>739.26813228975504</v>
-      </c>
+        <v>2054</v>
+      </c>
+      <c r="C32" s="5"/>
       <c r="D32" s="5">
-        <v>1996.6431526746217</v>
-      </c>
-      <c r="E32" s="5">
-        <v>0</v>
-      </c>
+        <v>1898.8909132589124</v>
+      </c>
+      <c r="E32" s="5"/>
       <c r="F32" s="5">
-        <v>9216.2516001340518</v>
+        <v>9262.1506561333863</v>
       </c>
       <c r="G32" s="5">
-        <v>4744.7092284408018</v>
-      </c>
-      <c r="H32" s="5">
-        <v>131.58178701880718</v>
-      </c>
+        <v>-14671.572646668461</v>
+      </c>
+      <c r="H32" s="5"/>
       <c r="I32" s="5">
-        <v>-45.921960791611475</v>
+        <v>-37.010932626242912</v>
       </c>
       <c r="J32" s="5">
-        <v>269.27948694934048</v>
+        <v>307.0113537120485</v>
       </c>
       <c r="K32" s="5">
         <f t="shared" si="2"/>
-        <v>4809.0224234593779</v>
+        <v>5025.4284325150493</v>
       </c>
       <c r="L32" s="5">
         <f t="shared" si="2"/>
-        <v>2588.2785937489339</v>
+        <v>2704.7511304676359</v>
       </c>
       <c r="M32" s="5">
         <f t="shared" si="2"/>
-        <v>5213.2970457481943</v>
+        <v>5447.8954128068626</v>
       </c>
       <c r="N32" s="5">
-        <v>-302.12659846118009</v>
+        <v>-243.49977630496312</v>
       </c>
       <c r="O32" s="5">
-        <v>6505.617728611267</v>
+        <v>5197.5713810805883</v>
       </c>
     </row>
     <row r="33" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B33" s="1">
         <f t="shared" si="0"/>
-        <v>2054</v>
-      </c>
-      <c r="C33" s="5">
-        <v>190.62445762365363</v>
-      </c>
+        <v>2055</v>
+      </c>
+      <c r="C33" s="5"/>
       <c r="D33" s="5">
-        <v>1898.8909132589124</v>
+        <v>1797.543851649908</v>
       </c>
       <c r="E33" s="5"/>
       <c r="F33" s="5">
-        <v>9262.1506561333863</v>
+        <v>9211.7283853004719</v>
       </c>
       <c r="G33" s="5">
-        <v>-14671.572646668461</v>
-      </c>
-      <c r="H33" s="5">
-        <v>701.42523164397414</v>
-      </c>
+        <v>55386.705890640995</v>
+      </c>
+      <c r="H33" s="5"/>
       <c r="I33" s="5">
-        <v>-37.010932626242912</v>
+        <v>-30.127705403040821</v>
       </c>
       <c r="J33" s="5">
-        <v>307.0113537120485</v>
+        <v>28.019573813242371</v>
       </c>
       <c r="K33" s="5">
         <f t="shared" si="2"/>
-        <v>5025.4284325150493</v>
+        <v>5251.5727119782259</v>
       </c>
       <c r="L33" s="5">
         <f t="shared" si="2"/>
-        <v>2704.7511304676359</v>
+        <v>2826.4649313386794</v>
       </c>
       <c r="M33" s="5">
         <f t="shared" si="2"/>
-        <v>5447.8954128068626</v>
+        <v>5693.050706383171</v>
       </c>
       <c r="N33" s="5">
-        <v>-243.49977630496312</v>
+        <v>-198.21412230559554</v>
       </c>
       <c r="O33" s="5">
-        <v>5197.5713810805883</v>
+        <v>4230.5051756939165</v>
       </c>
     </row>
     <row r="34" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B34" s="1">
         <f t="shared" si="0"/>
-        <v>2055</v>
-      </c>
-      <c r="C34" s="5">
-        <v>-3198.0886193465772</v>
-      </c>
+        <v>2056</v>
+      </c>
+      <c r="C34" s="6"/>
       <c r="D34" s="5">
-        <v>1797.543851649908</v>
+        <v>-440.11639145949835</v>
       </c>
       <c r="E34" s="5"/>
       <c r="F34" s="5">
-        <v>9211.7283853004719</v>
-      </c>
-      <c r="G34" s="5">
-        <v>55386.705890640995</v>
-      </c>
+        <v>10226.484665801081</v>
+      </c>
+      <c r="G34" s="5"/>
       <c r="H34" s="5"/>
       <c r="I34" s="5">
-        <v>-30.127705403040821</v>
+        <v>-50.937750239084195</v>
       </c>
       <c r="J34" s="5">
-        <v>28.019573813242371</v>
+        <v>-236.84261895953409</v>
       </c>
       <c r="K34" s="5">
         <f t="shared" si="2"/>
-        <v>5251.5727119782259</v>
+        <v>5487.893484017246</v>
       </c>
       <c r="L34" s="5">
         <f t="shared" si="2"/>
-        <v>2826.4649313386794</v>
+        <v>2953.6558532489198</v>
       </c>
       <c r="M34" s="5">
         <f t="shared" si="2"/>
-        <v>5693.050706383171</v>
+        <v>5949.2379881704137</v>
       </c>
       <c r="N34" s="5">
-        <v>-198.21412230559554</v>
+        <v>-335.12613459246893</v>
       </c>
       <c r="O34" s="5">
-        <v>4230.5051756939165</v>
+        <v>3259.3450200306347</v>
       </c>
     </row>
     <row r="35" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B35" s="1">
         <f t="shared" si="0"/>
-        <v>2056</v>
+        <v>2057</v>
       </c>
       <c r="C35" s="6"/>
       <c r="D35" s="5">
-        <v>-440.11639145949835</v>
+        <v>1515.8089564799636</v>
       </c>
       <c r="E35" s="5"/>
       <c r="F35" s="5">
-        <v>10226.484665801081</v>
+        <v>10213.216200994053</v>
       </c>
       <c r="G35" s="5"/>
       <c r="H35" s="5"/>
       <c r="I35" s="5">
-        <v>-50.937750239084195</v>
+        <v>-117.11967923122944</v>
       </c>
       <c r="J35" s="5">
-        <v>-236.84261895953409</v>
+        <v>-657.70216614234812</v>
       </c>
       <c r="K35" s="5">
         <f t="shared" si="2"/>
-        <v>5487.893484017246</v>
+        <v>5734.8486907980214</v>
       </c>
       <c r="L35" s="5">
         <f t="shared" si="2"/>
-        <v>2953.6558532489198</v>
+        <v>3086.5703666451209</v>
       </c>
       <c r="M35" s="5">
         <f t="shared" si="2"/>
-        <v>5949.2379881704137</v>
+        <v>6216.9536976380823</v>
       </c>
       <c r="N35" s="5">
-        <v>-335.12613459246893</v>
+        <v>-770.54571906388662</v>
       </c>
       <c r="O35" s="5">
-        <v>3259.3450200306347</v>
+        <v>1144.3268849167191</v>
       </c>
     </row>
     <row r="36" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B36" s="1">
         <f t="shared" si="0"/>
-        <v>2057</v>
+        <v>2058</v>
       </c>
       <c r="C36" s="6"/>
       <c r="D36" s="5">
-        <v>1515.8089564799636</v>
+        <v>1521.0671101142289</v>
       </c>
       <c r="E36" s="5"/>
       <c r="F36" s="5">
-        <v>10213.216200994053</v>
+        <v>10248.472431009239</v>
       </c>
       <c r="G36" s="5"/>
       <c r="H36" s="5"/>
       <c r="I36" s="5">
-        <v>-117.11967923122944</v>
+        <v>-1499.9268304457303</v>
       </c>
       <c r="J36" s="5">
-        <v>-657.70216614234812</v>
+        <v>-585.34752945623063</v>
       </c>
       <c r="K36" s="5">
         <f t="shared" si="2"/>
-        <v>5734.8486907980214</v>
+        <v>5992.9168818839316</v>
       </c>
       <c r="L36" s="5">
         <f t="shared" si="2"/>
-        <v>3086.5703666451209</v>
+        <v>3225.466033144151</v>
       </c>
       <c r="M36" s="5">
         <f t="shared" si="2"/>
-        <v>6216.9536976380823</v>
+        <v>6496.7166140317959</v>
       </c>
       <c r="N36" s="5">
-        <v>-770.54571906388662</v>
+        <v>-9868.2151940255881</v>
       </c>
       <c r="O36" s="5">
-        <v>1144.3268849167191</v>
+        <v>-9868.2151940255881</v>
       </c>
     </row>
     <row r="37" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B37" s="1">
         <f t="shared" si="0"/>
-        <v>2058</v>
+        <v>2059</v>
       </c>
       <c r="C37" s="6"/>
       <c r="D37" s="5">
-        <v>1521.0671101142289</v>
+        <v>1525.3642902194081</v>
       </c>
       <c r="E37" s="5"/>
       <c r="F37" s="5">
-        <v>10248.472431009239</v>
+        <v>10277.342439080616</v>
       </c>
       <c r="G37" s="5"/>
       <c r="H37" s="5"/>
-      <c r="I37" s="5">
-        <v>-1499.9268304457303</v>
-      </c>
+      <c r="I37" s="5"/>
       <c r="J37" s="5">
-        <v>-585.34752945623063</v>
+        <v>-501.98046488067251</v>
       </c>
       <c r="K37" s="5">
         <f t="shared" si="2"/>
-        <v>5992.9168818839316</v>
+        <v>6262.5981415687083</v>
       </c>
       <c r="L37" s="5">
         <f t="shared" si="2"/>
-        <v>3225.466033144151</v>
+        <v>3370.6120046356377</v>
       </c>
       <c r="M37" s="5">
         <f t="shared" si="2"/>
-        <v>6496.7166140317959</v>
-      </c>
-      <c r="N37" s="5">
-        <v>-9868.2151940255881</v>
-      </c>
-      <c r="O37" s="5">
-        <v>-9868.2151940255881</v>
-      </c>
+        <v>6789.068861663226</v>
+      </c>
+      <c r="N37" s="5"/>
     </row>
     <row r="38" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B38" s="1">
         <f t="shared" si="0"/>
-        <v>2059</v>
+        <v>2060</v>
       </c>
       <c r="C38" s="6"/>
       <c r="D38" s="5">
-        <v>1525.3642902194081</v>
+        <v>17770.775179445653</v>
       </c>
       <c r="E38" s="5"/>
       <c r="F38" s="5">
-        <v>10277.342439080616</v>
+        <v>126239.11166860364</v>
       </c>
       <c r="G38" s="5"/>
       <c r="H38" s="5"/>
       <c r="I38" s="5"/>
       <c r="J38" s="5">
-        <v>-501.98046488067251</v>
+        <v>61.548390186488291</v>
       </c>
       <c r="K38" s="5">
         <f t="shared" si="2"/>
-        <v>6262.5981415687083</v>
+        <v>6544.4150579392999</v>
       </c>
       <c r="L38" s="5">
         <f t="shared" si="2"/>
-        <v>3370.6120046356377</v>
+        <v>3522.2895448442414</v>
       </c>
       <c r="M38" s="5">
         <f t="shared" si="2"/>
-        <v>6789.068861663226</v>
+        <v>7094.5769604380703</v>
       </c>
       <c r="N38" s="5"/>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B39" s="1">
-        <f t="shared" si="0"/>
-        <v>2060</v>
-      </c>
-      <c r="C39" s="6"/>
-      <c r="D39" s="5">
-        <v>17770.775179445653</v>
-      </c>
-      <c r="E39" s="5"/>
-      <c r="F39" s="5">
-        <v>126239.11166860364</v>
-      </c>
-      <c r="G39" s="5"/>
-      <c r="H39" s="5"/>
-      <c r="I39" s="5"/>
-      <c r="J39" s="5">
-        <v>61.548390186488291</v>
-      </c>
-      <c r="K39" s="5">
-        <f t="shared" si="2"/>
-        <v>6544.4150579392999</v>
-      </c>
-      <c r="L39" s="5">
-        <f t="shared" si="2"/>
-        <v>3522.2895448442414</v>
-      </c>
-      <c r="M39" s="5">
-        <f t="shared" si="2"/>
-        <v>7094.5769604380703</v>
-      </c>
-      <c r="N39" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2297,104 +2130,104 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C2" s="8"/>
-      <c r="D2" s="9" t="s">
+      <c r="C2" s="7"/>
+      <c r="D2" s="8" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="11">
+      <c r="D3" s="10">
         <v>9.2337396205789979</v>
       </c>
     </row>
     <row r="4" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="13">
+      <c r="D4" s="12">
         <v>12.522138549936855</v>
       </c>
     </row>
     <row r="5" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="13">
+      <c r="D5" s="12">
         <v>14.433849503735471</v>
       </c>
     </row>
     <row r="6" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="13">
+      <c r="D6" s="12">
         <v>12.162680142300024</v>
       </c>
     </row>
     <row r="7" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="13">
+      <c r="D7" s="12">
         <v>12.529197741721557</v>
       </c>
     </row>
     <row r="8" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="13">
+      <c r="D8" s="12">
         <v>6.1975707644774349</v>
       </c>
     </row>
     <row r="9" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="13">
+      <c r="D9" s="12">
         <v>8.190683748997424</v>
       </c>
     </row>
     <row r="10" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="13">
+      <c r="D10" s="12">
         <v>6.6642665374344405</v>
       </c>
     </row>
     <row r="11" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="13">
+      <c r="D11" s="12">
         <v>11.006125118224018</v>
       </c>
     </row>
     <row r="12" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="13">
+      <c r="D12" s="12">
         <v>11.671918388589615</v>
       </c>
     </row>
     <row r="13" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C13" s="12" t="s">
+      <c r="C13" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="13">
+      <c r="D13" s="12">
         <v>11.199476972806313</v>
       </c>
     </row>
     <row r="14" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C14" s="12" t="s">
+      <c r="C14" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="D14" s="13">
+      <c r="D14" s="12">
         <v>8.1906837489974222</v>
       </c>
     </row>
@@ -2639,15 +2472,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="f0bab05a-e9c1-4e32-93e9-8363aec9c620" xsi:nil="true"/>
@@ -2656,6 +2480,15 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2678,14 +2511,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{618C5CC8-9B8E-49D5-B2E6-D98C4C570E2E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{47140DD7-5C12-4BA5-9C24-A1CF0564C7A2}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -2694,4 +2519,12 @@
     <ds:schemaRef ds:uri="1a4d52ec-ae83-4798-bc6c-3cf1b4f12457"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{618C5CC8-9B8E-49D5-B2E6-D98C4C570E2E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/irrdash3.xlsx
+++ b/irrdash3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joao.russo\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F2AC5AEE-49AC-432E-B747-37E2D7C0F831}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CCEE1F21-C0C5-4D34-BD4F-F3E9CC536C1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="duration" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029" calcOnSave="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -563,7 +563,7 @@
   <dimension ref="B1:P38"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q13" sqref="Q13"/>
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -643,7 +643,9 @@
       <c r="B4" s="1">
         <v>2026</v>
       </c>
-      <c r="C4" s="5"/>
+      <c r="C4" s="5">
+        <v>3355.6310226535552</v>
+      </c>
       <c r="D4" s="5">
         <v>2567.4289707736116</v>
       </c>
@@ -684,7 +686,9 @@
         <f t="shared" ref="B5:B38" si="0">B4+1</f>
         <v>2027</v>
       </c>
-      <c r="C5" s="5"/>
+      <c r="C5" s="5">
+        <v>3648.0809990148869</v>
+      </c>
       <c r="D5" s="5">
         <v>989.20857123354551</v>
       </c>
@@ -725,7 +729,9 @@
         <f t="shared" si="0"/>
         <v>2028</v>
       </c>
-      <c r="C6" s="5"/>
+      <c r="C6" s="5">
+        <v>3516.3657843565247</v>
+      </c>
       <c r="D6" s="5">
         <v>221.30914058918347</v>
       </c>
@@ -766,7 +772,9 @@
         <f t="shared" si="0"/>
         <v>2029</v>
       </c>
-      <c r="C7" s="5"/>
+      <c r="C7" s="5">
+        <v>4404.0969892183703</v>
+      </c>
       <c r="D7" s="5">
         <v>2106.6256296028787</v>
       </c>
@@ -807,7 +815,9 @@
         <f t="shared" si="0"/>
         <v>2030</v>
       </c>
-      <c r="C8" s="5"/>
+      <c r="C8" s="5">
+        <v>4172.721419324309</v>
+      </c>
       <c r="D8" s="5">
         <v>5294.6326235182451</v>
       </c>
@@ -848,7 +858,9 @@
         <f t="shared" si="0"/>
         <v>2031</v>
       </c>
-      <c r="C9" s="5"/>
+      <c r="C9" s="5">
+        <v>5015.9554961040903</v>
+      </c>
       <c r="D9" s="5">
         <v>4427.5790990897876</v>
       </c>
@@ -889,7 +901,9 @@
         <f t="shared" si="0"/>
         <v>2032</v>
       </c>
-      <c r="C10" s="5"/>
+      <c r="C10" s="5">
+        <v>5439.0650793936511</v>
+      </c>
       <c r="D10" s="5">
         <v>6699.9736305483148</v>
       </c>
@@ -930,7 +944,9 @@
         <f t="shared" si="0"/>
         <v>2033</v>
       </c>
-      <c r="C11" s="5"/>
+      <c r="C11" s="5">
+        <v>5386.5079994594525</v>
+      </c>
       <c r="D11" s="5">
         <v>6197.7326120145926</v>
       </c>
@@ -971,7 +987,9 @@
         <f t="shared" si="0"/>
         <v>2034</v>
       </c>
-      <c r="C12" s="5"/>
+      <c r="C12" s="5">
+        <v>5392.4408464370508</v>
+      </c>
       <c r="D12" s="5">
         <v>8111.977184249773</v>
       </c>
@@ -1012,7 +1030,9 @@
         <f t="shared" si="0"/>
         <v>2035</v>
       </c>
-      <c r="C13" s="5"/>
+      <c r="C13" s="5">
+        <v>5576.4507899787477</v>
+      </c>
       <c r="D13" s="5">
         <v>8099.8737408743837</v>
       </c>
@@ -1056,7 +1076,9 @@
         <f t="shared" si="0"/>
         <v>2036</v>
       </c>
-      <c r="C14" s="5"/>
+      <c r="C14" s="5">
+        <v>5485.2119506925355</v>
+      </c>
       <c r="D14" s="5">
         <v>8288.8144031864449</v>
       </c>
@@ -1100,7 +1122,9 @@
         <f t="shared" si="0"/>
         <v>2037</v>
       </c>
-      <c r="C15" s="5"/>
+      <c r="C15" s="5">
+        <v>5501.4965014230147</v>
+      </c>
       <c r="D15" s="5">
         <v>7428.9529537233184</v>
       </c>
@@ -1144,7 +1168,9 @@
         <f t="shared" si="0"/>
         <v>2038</v>
       </c>
-      <c r="C16" s="5"/>
+      <c r="C16" s="5">
+        <v>5579.2530405437765</v>
+      </c>
       <c r="D16" s="5">
         <v>7636.3305582043422</v>
       </c>
@@ -1188,7 +1214,9 @@
         <f t="shared" si="0"/>
         <v>2039</v>
       </c>
-      <c r="C17" s="5"/>
+      <c r="C17" s="5">
+        <v>5620.0178954415696</v>
+      </c>
       <c r="D17" s="5">
         <v>7537.1078262266747</v>
       </c>
@@ -1232,7 +1260,9 @@
         <f t="shared" si="0"/>
         <v>2040</v>
       </c>
-      <c r="C18" s="5"/>
+      <c r="C18" s="5">
+        <v>5558.1872775448492</v>
+      </c>
       <c r="D18" s="5">
         <v>7239.4228885436014</v>
       </c>
@@ -1276,7 +1306,9 @@
         <f t="shared" si="0"/>
         <v>2041</v>
       </c>
-      <c r="C19" s="5"/>
+      <c r="C19" s="5">
+        <v>5214.9476809986072</v>
+      </c>
       <c r="D19" s="5">
         <v>7128.8511428279435</v>
       </c>
@@ -1320,7 +1352,9 @@
         <f t="shared" si="0"/>
         <v>2042</v>
       </c>
-      <c r="C20" s="5"/>
+      <c r="C20" s="5">
+        <v>7886.7460001911013</v>
+      </c>
       <c r="D20" s="5">
         <v>6983.7524039036143</v>
       </c>
@@ -1364,7 +1398,9 @@
         <f t="shared" si="0"/>
         <v>2043</v>
       </c>
-      <c r="C21" s="5"/>
+      <c r="C21" s="5">
+        <v>4299.1560322753585</v>
+      </c>
       <c r="D21" s="5">
         <v>6736.245310886472</v>
       </c>
@@ -1408,7 +1444,9 @@
         <f t="shared" si="0"/>
         <v>2044</v>
       </c>
-      <c r="C22" s="5"/>
+      <c r="C22" s="5">
+        <v>4177.7101415028701</v>
+      </c>
       <c r="D22" s="5">
         <v>7188.6301287649376</v>
       </c>
@@ -1452,7 +1490,9 @@
         <f t="shared" si="0"/>
         <v>2045</v>
       </c>
-      <c r="C23" s="5"/>
+      <c r="C23" s="5">
+        <v>-5446.5476336899646</v>
+      </c>
       <c r="D23" s="5">
         <v>7435.8005160484045</v>
       </c>
@@ -1496,7 +1536,9 @@
         <f t="shared" si="0"/>
         <v>2046</v>
       </c>
-      <c r="C24" s="5"/>
+      <c r="C24" s="5">
+        <v>20336.627758370814</v>
+      </c>
       <c r="D24" s="5">
         <v>9736.2645221372186</v>
       </c>
@@ -1540,7 +1582,9 @@
         <f t="shared" si="0"/>
         <v>2047</v>
       </c>
-      <c r="C25" s="5"/>
+      <c r="C25" s="5">
+        <v>1020.9113378688274</v>
+      </c>
       <c r="D25" s="5">
         <v>6916.0347688484908</v>
       </c>
@@ -1584,7 +1628,9 @@
         <f t="shared" si="0"/>
         <v>2048</v>
       </c>
-      <c r="C26" s="5"/>
+      <c r="C26" s="5">
+        <v>877.39136048143951</v>
+      </c>
       <c r="D26" s="5">
         <v>17792.412517860637</v>
       </c>
@@ -1628,7 +1674,9 @@
         <f t="shared" si="0"/>
         <v>2049</v>
       </c>
-      <c r="C27" s="5"/>
+      <c r="C27" s="5">
+        <v>890.5629436049453</v>
+      </c>
       <c r="D27" s="5">
         <v>21724.322353370055</v>
       </c>
@@ -1672,7 +1720,9 @@
         <f t="shared" si="0"/>
         <v>2050</v>
       </c>
-      <c r="C28" s="5"/>
+      <c r="C28" s="5">
+        <v>855.89358197199385</v>
+      </c>
       <c r="D28" s="5">
         <v>1858.9630331803621</v>
       </c>
@@ -1716,7 +1766,9 @@
         <f t="shared" si="0"/>
         <v>2051</v>
       </c>
-      <c r="C29" s="5"/>
+      <c r="C29" s="5">
+        <v>818.56619953545169</v>
+      </c>
       <c r="D29" s="5">
         <v>1984.3939238409062</v>
       </c>
@@ -1760,7 +1812,9 @@
         <f t="shared" si="0"/>
         <v>2052</v>
       </c>
-      <c r="C30" s="5"/>
+      <c r="C30" s="5">
+        <v>1097.1827270047909</v>
+      </c>
       <c r="D30" s="5">
         <v>2044.0408195728162</v>
       </c>
@@ -1804,7 +1858,9 @@
         <f t="shared" si="0"/>
         <v>2053</v>
       </c>
-      <c r="C31" s="5"/>
+      <c r="C31" s="5">
+        <v>747.63784296569611</v>
+      </c>
       <c r="D31" s="5">
         <v>1996.6431526746217</v>
       </c>
@@ -1848,7 +1904,9 @@
         <f t="shared" si="0"/>
         <v>2054</v>
       </c>
-      <c r="C32" s="5"/>
+      <c r="C32" s="5">
+        <v>198.59772050578201</v>
+      </c>
       <c r="D32" s="5">
         <v>1898.8909132589124</v>
       </c>
@@ -1890,7 +1948,9 @@
         <f t="shared" si="0"/>
         <v>2055</v>
       </c>
-      <c r="C33" s="5"/>
+      <c r="C33" s="5">
+        <v>-3189.1643075290062</v>
+      </c>
       <c r="D33" s="5">
         <v>1797.543851649908</v>
       </c>
@@ -2237,6 +2297,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="f0bab05a-e9c1-4e32-93e9-8363aec9c620" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1a4d52ec-ae83-4798-bc6c-3cf1b4f12457">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010020E4BAF79DB213408BB296F3F8F32329" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="9679123e7a51fb6c2fee49c985862cfe">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1a4d52ec-ae83-4798-bc6c-3cf1b4f12457" xmlns:ns3="f0bab05a-e9c1-4e32-93e9-8363aec9c620" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ddaff962f7439efafa6fc254a8996caa" ns2:_="" ns3:_="">
     <xsd:import namespace="1a4d52ec-ae83-4798-bc6c-3cf1b4f12457"/>
@@ -2471,27 +2551,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="f0bab05a-e9c1-4e32-93e9-8363aec9c620" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1a4d52ec-ae83-4798-bc6c-3cf1b4f12457">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{618C5CC8-9B8E-49D5-B2E6-D98C4C570E2E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{47140DD7-5C12-4BA5-9C24-A1CF0564C7A2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="f0bab05a-e9c1-4e32-93e9-8363aec9c620"/>
+    <ds:schemaRef ds:uri="1a4d52ec-ae83-4798-bc6c-3cf1b4f12457"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{873E7543-F0E8-474C-8FBB-787032D90621}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2508,23 +2587,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{47140DD7-5C12-4BA5-9C24-A1CF0564C7A2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="f0bab05a-e9c1-4e32-93e9-8363aec9c620"/>
-    <ds:schemaRef ds:uri="1a4d52ec-ae83-4798-bc6c-3cf1b4f12457"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{618C5CC8-9B8E-49D5-B2E6-D98C4C570E2E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/irrdash3.xlsx
+++ b/irrdash3.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joao.russo\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CCEE1F21-C0C5-4D34-BD4F-F3E9CC536C1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4BBB38A3-B1DE-4480-8E16-00D96504E201}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -563,7 +563,7 @@
   <dimension ref="B1:P38"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+      <selection activeCell="Q16" sqref="Q16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -663,7 +663,7 @@
         <v>1867.7164444544671</v>
       </c>
       <c r="J4" s="5">
-        <v>3395.5747095853553</v>
+        <v>2501.9953071004629</v>
       </c>
       <c r="K4" s="5">
         <v>954.45860804386211</v>
@@ -706,7 +706,7 @@
         <v>1625.0577269054047</v>
       </c>
       <c r="J5" s="5">
-        <v>3635.0885112152737</v>
+        <v>3835.6244504194347</v>
       </c>
       <c r="K5" s="5">
         <v>1323.0224151276375</v>
@@ -749,7 +749,7 @@
         <v>1512.8503706123583</v>
       </c>
       <c r="J6" s="5">
-        <v>2977.598282919068</v>
+        <v>3285.1223048517027</v>
       </c>
       <c r="K6" s="5">
         <v>1507.4723309960461</v>
@@ -792,7 +792,7 @@
         <v>1364.3379496901132</v>
       </c>
       <c r="J7" s="5">
-        <v>3646.3271603092389</v>
+        <v>3937.1846059278014</v>
       </c>
       <c r="K7" s="5">
         <v>1635.8695434730157</v>
@@ -835,7 +835,7 @@
         <v>904.45875123107317</v>
       </c>
       <c r="J8" s="5">
-        <v>3779.3370608942714</v>
+        <v>4170.6304024117471</v>
       </c>
       <c r="K8" s="5">
         <v>1746.0218707119739</v>
@@ -878,7 +878,7 @@
         <v>1442.8759435865741</v>
       </c>
       <c r="J9" s="5">
-        <v>3585.6760560062871</v>
+        <v>4248.1864762641917</v>
       </c>
       <c r="K9" s="5">
         <v>1824.9420592681549</v>
@@ -921,7 +921,7 @@
         <v>1478.278136200965</v>
       </c>
       <c r="J10" s="5">
-        <v>3727.5573586510754</v>
+        <v>4454.0089124215929</v>
       </c>
       <c r="K10" s="5">
         <v>1907.4294403470753</v>
@@ -964,7 +964,7 @@
         <v>1702.812375841015</v>
       </c>
       <c r="J11" s="5">
-        <v>3643.5858251722557</v>
+        <v>4278.6716997757094</v>
       </c>
       <c r="K11" s="5">
         <v>1993.6452510507629</v>
@@ -1007,7 +1007,7 @@
         <v>1979.6073019892672</v>
       </c>
       <c r="J12" s="5">
-        <v>3664.1788446593159</v>
+        <v>4259.000194904238</v>
       </c>
       <c r="K12" s="5">
         <v>2083.758016398257</v>
@@ -1050,7 +1050,7 @@
         <v>1993.5461747859215</v>
       </c>
       <c r="J13" s="5">
-        <v>3812.0348759286694</v>
+        <v>4383.4562577475817</v>
       </c>
       <c r="K13" s="5">
         <f>K12*1.045</f>
@@ -1096,7 +1096,7 @@
         <v>1999.1896102157625</v>
       </c>
       <c r="J14" s="5">
-        <v>3318.8099678628996</v>
+        <v>3832.9880163038811</v>
       </c>
       <c r="K14" s="5">
         <f t="shared" ref="K14:M29" si="1">K13*1.045</f>
@@ -1142,7 +1142,7 @@
         <v>1469.3286433478743</v>
       </c>
       <c r="J15" s="5">
-        <v>3417.6935498699613</v>
+        <v>3913.2565172921413</v>
       </c>
       <c r="K15" s="5">
         <f t="shared" si="1"/>
@@ -1188,7 +1188,7 @@
         <v>1508.0722156017994</v>
       </c>
       <c r="J16" s="5">
-        <v>3449.9858942749584</v>
+        <v>3937.7147867173735</v>
       </c>
       <c r="K16" s="5">
         <f t="shared" si="1"/>
@@ -1234,7 +1234,7 @@
         <v>1609.051536376933</v>
       </c>
       <c r="J17" s="5">
-        <v>1591.4154739747762</v>
+        <v>2101.0446766878317</v>
       </c>
       <c r="K17" s="5">
         <f t="shared" si="1"/>
@@ -1280,7 +1280,7 @@
         <v>905.55856109873594</v>
       </c>
       <c r="J18" s="5">
-        <v>2387.1653240800347</v>
+        <v>2935.3275547712306</v>
       </c>
       <c r="K18" s="5">
         <f t="shared" si="1"/>
@@ -1326,7 +1326,7 @@
         <v>1571.163826467832</v>
       </c>
       <c r="J19" s="5">
-        <v>1701.053814332302</v>
+        <v>2176.8108881056482</v>
       </c>
       <c r="K19" s="5">
         <f t="shared" si="1"/>
@@ -1372,7 +1372,7 @@
         <v>3429.6463359064046</v>
       </c>
       <c r="J20" s="5">
-        <v>1502.8038567993208</v>
+        <v>2023.8412444417288</v>
       </c>
       <c r="K20" s="5">
         <f t="shared" si="1"/>
@@ -1418,7 +1418,7 @@
         <v>3575.9025766681743</v>
       </c>
       <c r="J21" s="5">
-        <v>1286.1994885699846</v>
+        <v>1870.1047578422101</v>
       </c>
       <c r="K21" s="5">
         <f t="shared" si="1"/>
@@ -1464,7 +1464,7 @@
         <v>208.43109107741782</v>
       </c>
       <c r="J22" s="5">
-        <v>1344.2654914942575</v>
+        <v>1961.2355100722823</v>
       </c>
       <c r="K22" s="5">
         <f t="shared" si="1"/>
@@ -1510,7 +1510,7 @@
         <v>625.32963005381805</v>
       </c>
       <c r="J23" s="5">
-        <v>239.15492205244067</v>
+        <v>807.89927763605942</v>
       </c>
       <c r="K23" s="5">
         <f t="shared" si="1"/>
@@ -1556,7 +1556,7 @@
         <v>882.36437232330456</v>
       </c>
       <c r="J24" s="5">
-        <v>362.63640822107453</v>
+        <v>854.24973682712641</v>
       </c>
       <c r="K24" s="5">
         <f t="shared" si="1"/>
@@ -1602,7 +1602,7 @@
         <v>5717.7724254876202</v>
       </c>
       <c r="J25" s="5">
-        <v>472.14988904221639</v>
+        <v>873.16574575509287</v>
       </c>
       <c r="K25" s="5">
         <f t="shared" si="1"/>
@@ -1648,7 +1648,7 @@
         <v>1263.9425839796477</v>
       </c>
       <c r="J26" s="5">
-        <v>514.78768513764919</v>
+        <v>790.38698278973141</v>
       </c>
       <c r="K26" s="5">
         <f t="shared" si="1"/>
@@ -1694,7 +1694,7 @@
         <v>21.722954410910749</v>
       </c>
       <c r="J27" s="5">
-        <v>51.21045494692499</v>
+        <v>-116.07390559453955</v>
       </c>
       <c r="K27" s="5">
         <f t="shared" si="1"/>
@@ -1740,7 +1740,7 @@
         <v>31.607676579629818</v>
       </c>
       <c r="J28" s="5">
-        <v>68.529977450706909</v>
+        <v>-227.95215347026419</v>
       </c>
       <c r="K28" s="5">
         <f t="shared" si="1"/>
@@ -1786,7 +1786,7 @@
         <v>565.45374305641292</v>
       </c>
       <c r="J29" s="5">
-        <v>99.397506451781567</v>
+        <v>-184.46003839554967</v>
       </c>
       <c r="K29" s="5">
         <f t="shared" si="1"/>
@@ -1832,7 +1832,7 @@
         <v>-2028.5808695841597</v>
       </c>
       <c r="J30" s="5">
-        <v>150.46339294311417</v>
+        <v>-106.31302552011442</v>
       </c>
       <c r="K30" s="5">
         <f t="shared" ref="K30:M38" si="2">K29*1.045</f>
@@ -1878,7 +1878,7 @@
         <v>-45.921960791611475</v>
       </c>
       <c r="J31" s="5">
-        <v>269.27948694934048</v>
+        <v>13.935187786349861</v>
       </c>
       <c r="K31" s="5">
         <f t="shared" si="2"/>
@@ -1922,7 +1922,7 @@
         <v>-37.010932626242912</v>
       </c>
       <c r="J32" s="5">
-        <v>307.0113537120485</v>
+        <v>81.213714187589304</v>
       </c>
       <c r="K32" s="5">
         <f t="shared" si="2"/>
@@ -1966,7 +1966,7 @@
         <v>-30.127705403040821</v>
       </c>
       <c r="J33" s="5">
-        <v>28.019573813242371</v>
+        <v>-210.5734693421868</v>
       </c>
       <c r="K33" s="5">
         <f t="shared" si="2"/>
@@ -2006,7 +2006,7 @@
         <v>-50.937750239084195</v>
       </c>
       <c r="J34" s="5">
-        <v>-236.84261895953409</v>
+        <v>-583.55332889163435</v>
       </c>
       <c r="K34" s="5">
         <f t="shared" si="2"/>
@@ -2046,7 +2046,7 @@
         <v>-117.11967923122944</v>
       </c>
       <c r="J35" s="5">
-        <v>-657.70216614234812</v>
+        <v>-978.1043834942775</v>
       </c>
       <c r="K35" s="5">
         <f t="shared" si="2"/>
@@ -2086,7 +2086,7 @@
         <v>-1499.9268304457303</v>
       </c>
       <c r="J36" s="5">
-        <v>-585.34752945623063</v>
+        <v>-931.82308742781004</v>
       </c>
       <c r="K36" s="5">
         <f t="shared" si="2"/>
@@ -2124,7 +2124,7 @@
       <c r="H37" s="5"/>
       <c r="I37" s="5"/>
       <c r="J37" s="5">
-        <v>-501.98046488067251</v>
+        <v>-896.1880222748066</v>
       </c>
       <c r="K37" s="5">
         <f t="shared" si="2"/>
@@ -2157,7 +2157,7 @@
       <c r="H38" s="5"/>
       <c r="I38" s="5"/>
       <c r="J38" s="5">
-        <v>61.548390186488291</v>
+        <v>-248.57038566350593</v>
       </c>
       <c r="K38" s="5">
         <f t="shared" si="2"/>
@@ -2297,26 +2297,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="f0bab05a-e9c1-4e32-93e9-8363aec9c620" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1a4d52ec-ae83-4798-bc6c-3cf1b4f12457">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010020E4BAF79DB213408BB296F3F8F32329" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="9679123e7a51fb6c2fee49c985862cfe">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1a4d52ec-ae83-4798-bc6c-3cf1b4f12457" xmlns:ns3="f0bab05a-e9c1-4e32-93e9-8363aec9c620" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ddaff962f7439efafa6fc254a8996caa" ns2:_="" ns3:_="">
     <xsd:import namespace="1a4d52ec-ae83-4798-bc6c-3cf1b4f12457"/>
@@ -2551,10 +2531,41 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="f0bab05a-e9c1-4e32-93e9-8363aec9c620" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1a4d52ec-ae83-4798-bc6c-3cf1b4f12457">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{618C5CC8-9B8E-49D5-B2E6-D98C4C570E2E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{873E7543-F0E8-474C-8FBB-787032D90621}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="1a4d52ec-ae83-4798-bc6c-3cf1b4f12457"/>
+    <ds:schemaRef ds:uri="f0bab05a-e9c1-4e32-93e9-8363aec9c620"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2571,20 +2582,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{873E7543-F0E8-474C-8FBB-787032D90621}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{618C5CC8-9B8E-49D5-B2E6-D98C4C570E2E}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="1a4d52ec-ae83-4798-bc6c-3cf1b4f12457"/>
-    <ds:schemaRef ds:uri="f0bab05a-e9c1-4e32-93e9-8363aec9c620"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/irrdash3.xlsx
+++ b/irrdash3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joao.russo\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4BBB38A3-B1DE-4480-8E16-00D96504E201}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{21019790-D8EB-4950-B78C-C23350B87DE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -563,7 +563,7 @@
   <dimension ref="B1:P38"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q16" sqref="Q16"/>
+      <selection activeCell="C4" sqref="C4:C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -644,7 +644,7 @@
         <v>2026</v>
       </c>
       <c r="C4" s="5">
-        <v>3355.6310226535552</v>
+        <v>3235.4861380697657</v>
       </c>
       <c r="D4" s="5">
         <v>2567.4289707736116</v>
@@ -678,7 +678,7 @@
         <v>12287.951266142702</v>
       </c>
       <c r="O4" s="5">
-        <v>16435.781526383507</v>
+        <v>18511.406301685623</v>
       </c>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.25">
@@ -687,7 +687,7 @@
         <v>2027</v>
       </c>
       <c r="C5" s="5">
-        <v>3648.0809990148869</v>
+        <v>3660.143747464982</v>
       </c>
       <c r="D5" s="5">
         <v>989.20857123354551</v>
@@ -721,7 +721,7 @@
         <v>10691.467761164782</v>
       </c>
       <c r="O5" s="5">
-        <v>20454.849140960243</v>
+        <v>22879.286074147032</v>
       </c>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.25">
@@ -730,7 +730,7 @@
         <v>2028</v>
       </c>
       <c r="C6" s="5">
-        <v>3516.3657843565247</v>
+        <v>3582.3763563740481</v>
       </c>
       <c r="D6" s="5">
         <v>221.30914058918347</v>
@@ -764,7 +764,7 @@
         <v>9953.2408585075154</v>
       </c>
       <c r="O6" s="5">
-        <v>17038.94422737664</v>
+        <v>21037.072244304934</v>
       </c>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.25">
@@ -773,7 +773,7 @@
         <v>2029</v>
       </c>
       <c r="C7" s="5">
-        <v>4404.0969892183703</v>
+        <v>4425.1607962207636</v>
       </c>
       <c r="D7" s="5">
         <v>2106.6256296028787</v>
@@ -807,7 +807,7 @@
         <v>8976.1581776070689</v>
       </c>
       <c r="O7" s="5">
-        <v>13745.047311162791</v>
+        <v>14257.130957783082</v>
       </c>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.25">
@@ -816,7 +816,7 @@
         <v>2030</v>
       </c>
       <c r="C8" s="5">
-        <v>4172.721419324309</v>
+        <v>4210.439705807612</v>
       </c>
       <c r="D8" s="5">
         <v>5294.6326235182451</v>
@@ -850,7 +850,7 @@
         <v>5950.552660369136</v>
       </c>
       <c r="O8" s="5">
-        <v>15132.06000946791</v>
+        <v>14572.640722376331</v>
       </c>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.25">
@@ -859,7 +859,7 @@
         <v>2031</v>
       </c>
       <c r="C9" s="5">
-        <v>5015.9554961040903</v>
+        <v>5058.9868636215051</v>
       </c>
       <c r="D9" s="5">
         <v>4427.5790990897876</v>
@@ -893,7 +893,7 @@
         <v>9492.8699324378231</v>
       </c>
       <c r="O9" s="5">
-        <v>15606.987509797171</v>
+        <v>14256.83359063529</v>
       </c>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.25">
@@ -902,7 +902,7 @@
         <v>2032</v>
       </c>
       <c r="C10" s="5">
-        <v>5439.0650793936511</v>
+        <v>5490.5886142238132</v>
       </c>
       <c r="D10" s="5">
         <v>6699.9736305483148</v>
@@ -936,7 +936,7 @@
         <v>9725.7855973675159</v>
       </c>
       <c r="O10" s="5">
-        <v>17016.485124051971</v>
+        <v>14916.449828221348</v>
       </c>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.25">
@@ -945,7 +945,7 @@
         <v>2033</v>
       </c>
       <c r="C11" s="5">
-        <v>5386.5079994594525</v>
+        <v>5449.6911283321651</v>
       </c>
       <c r="D11" s="5">
         <v>6197.7326120145926</v>
@@ -979,7 +979,7 @@
         <v>11203.02578683494</v>
       </c>
       <c r="O11" s="5">
-        <v>17591.634510507723</v>
+        <v>14802.022900230375</v>
       </c>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.25">
@@ -988,7 +988,7 @@
         <v>2034</v>
       </c>
       <c r="C12" s="5">
-        <v>5392.4408464370508</v>
+        <v>5465.2057201785474</v>
       </c>
       <c r="D12" s="5">
         <v>8111.977184249773</v>
@@ -1022,7 +1022,7 @@
         <v>13024.095881989959</v>
       </c>
       <c r="O12" s="5">
-        <v>18498.030802662179</v>
+        <v>14927.501604703333</v>
       </c>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.25">
@@ -1031,7 +1031,7 @@
         <v>2035</v>
       </c>
       <c r="C13" s="5">
-        <v>5576.4507899787477</v>
+        <v>5657.9555381712644</v>
       </c>
       <c r="D13" s="5">
         <v>8099.8737408743837</v>
@@ -1068,7 +1068,7 @@
         <v>13115.801552911693</v>
       </c>
       <c r="O13" s="5">
-        <v>12827.807462571316</v>
+        <v>8966.776435412432</v>
       </c>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.25">
@@ -1077,7 +1077,7 @@
         <v>2036</v>
       </c>
       <c r="C14" s="5">
-        <v>5485.2119506925355</v>
+        <v>5565.9368892212588</v>
       </c>
       <c r="D14" s="5">
         <v>8288.8144031864449</v>
@@ -1114,7 +1114,7 @@
         <v>13152.930454218638</v>
       </c>
       <c r="O14" s="5">
-        <v>13790.437082697636</v>
+        <v>9170.2795180922367</v>
       </c>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.25">
@@ -1123,7 +1123,7 @@
         <v>2037</v>
       </c>
       <c r="C15" s="5">
-        <v>5501.4965014230147</v>
+        <v>5581.4196732150995</v>
       </c>
       <c r="D15" s="5">
         <v>7428.9529537233184</v>
@@ -1160,7 +1160,7 @@
         <v>9666.905710989693</v>
       </c>
       <c r="O15" s="5">
-        <v>15298.703582549764</v>
+        <v>9901.0095168224398</v>
       </c>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.25">
@@ -1169,7 +1169,7 @@
         <v>2038</v>
       </c>
       <c r="C16" s="5">
-        <v>5579.2530405437765</v>
+        <v>5667.3724990695691</v>
       </c>
       <c r="D16" s="5">
         <v>7636.3305582043422</v>
@@ -1206,7 +1206,7 @@
         <v>9921.8047504804363</v>
       </c>
       <c r="O16" s="5">
-        <v>16564.725043283786</v>
+        <v>16924.708304675674</v>
       </c>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.25">
@@ -1215,7 +1215,7 @@
         <v>2039</v>
       </c>
       <c r="C17" s="5">
-        <v>5620.0178954415696</v>
+        <v>5714.844584718162</v>
       </c>
       <c r="D17" s="5">
         <v>7537.1078262266747</v>
@@ -1252,7 +1252,7 @@
         <v>10586.160935948119</v>
       </c>
       <c r="O17" s="5">
-        <v>17848.879726987452</v>
+        <v>18304.907510996669</v>
       </c>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.25">
@@ -1261,7 +1261,7 @@
         <v>2040</v>
       </c>
       <c r="C18" s="5">
-        <v>5558.1872775448492</v>
+        <v>5646.4806655678176</v>
       </c>
       <c r="D18" s="5">
         <v>7239.4228885436014</v>
@@ -1298,7 +1298,7 @@
         <v>5957.7884536267202</v>
       </c>
       <c r="O18" s="5">
-        <v>18757.600227044673</v>
+        <v>19338.066657106887</v>
       </c>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.25">
@@ -1307,7 +1307,7 @@
         <v>2041</v>
       </c>
       <c r="C19" s="5">
-        <v>5214.9476809986072</v>
+        <v>5314.7528189505028</v>
       </c>
       <c r="D19" s="5">
         <v>7128.8511428279435</v>
@@ -1344,7 +1344,7 @@
         <v>10336.892726991075</v>
       </c>
       <c r="O19" s="5">
-        <v>20290.664987979435</v>
+        <v>20929.557974011255</v>
       </c>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.25">
@@ -1353,7 +1353,7 @@
         <v>2042</v>
       </c>
       <c r="C20" s="5">
-        <v>7886.7460001911013</v>
+        <v>7991.7263392091545</v>
       </c>
       <c r="D20" s="5">
         <v>6983.7524039036143</v>
@@ -1390,7 +1390,7 @@
         <v>22564.092724488615</v>
       </c>
       <c r="O20" s="5">
-        <v>27634.185731017446</v>
+        <v>28513.605545167349</v>
       </c>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.25">
@@ -1399,7 +1399,7 @@
         <v>2043</v>
       </c>
       <c r="C21" s="5">
-        <v>4299.1560322753585</v>
+        <v>4418.7495968982048</v>
       </c>
       <c r="D21" s="5">
         <v>6736.245310886472</v>
@@ -1436,7 +1436,7 @@
         <v>23526.331700424169</v>
       </c>
       <c r="O21" s="5">
-        <v>18079.404544884062</v>
+        <v>19008.491823315748</v>
       </c>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.25">
@@ -1445,7 +1445,7 @@
         <v>2044</v>
       </c>
       <c r="C22" s="5">
-        <v>4177.7101415028701</v>
+        <v>4302.338533913191</v>
       </c>
       <c r="D22" s="5">
         <v>7188.6301287649376</v>
@@ -1482,7 +1482,7 @@
         <v>1371.2954646369503</v>
       </c>
       <c r="O22" s="5">
-        <v>18649.553918816058</v>
+        <v>19847.81212405007</v>
       </c>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.25">
@@ -1491,7 +1491,7 @@
         <v>2045</v>
       </c>
       <c r="C23" s="5">
-        <v>-5446.5476336899646</v>
+        <v>-5318.5893187219672</v>
       </c>
       <c r="D23" s="5">
         <v>7435.8005160484045</v>
@@ -1528,7 +1528,7 @@
         <v>4114.1255902047551</v>
       </c>
       <c r="O23" s="5">
-        <v>18956.452144169099</v>
+        <v>20539.534716877293</v>
       </c>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.25">
@@ -1537,7 +1537,7 @@
         <v>2046</v>
       </c>
       <c r="C24" s="5">
-        <v>20336.627758370814</v>
+        <v>20472.232012192413</v>
       </c>
       <c r="D24" s="5">
         <v>9736.2645221372186</v>
@@ -1574,7 +1574,7 @@
         <v>5805.1908459028873</v>
       </c>
       <c r="O24" s="5">
-        <v>19240.652823209126</v>
+        <v>20702.885848859736</v>
       </c>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.25">
@@ -1583,7 +1583,7 @@
         <v>2047</v>
       </c>
       <c r="C25" s="5">
-        <v>1020.9113378688274</v>
+        <v>1150.1898105245825</v>
       </c>
       <c r="D25" s="5">
         <v>6916.0347688484908</v>
@@ -1620,7 +1620,7 @@
         <v>37617.974143718733</v>
       </c>
       <c r="O25" s="5">
-        <v>17867.330379917476</v>
+        <v>19166.341385098109</v>
       </c>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.25">
@@ -1629,7 +1629,7 @@
         <v>2048</v>
       </c>
       <c r="C26" s="5">
-        <v>877.39136048143951</v>
+        <v>1000.2915388927777</v>
       </c>
       <c r="D26" s="5">
         <v>17792.412517860637</v>
@@ -1666,7 +1666,7 @@
         <v>8315.6439090414751</v>
       </c>
       <c r="O26" s="5">
-        <v>17166.372303582008</v>
+        <v>18421.354309677256</v>
       </c>
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.25">
@@ -1675,7 +1675,7 @@
         <v>2049</v>
       </c>
       <c r="C27" s="5">
-        <v>890.5629436049453</v>
+        <v>1013.2949582724123</v>
       </c>
       <c r="D27" s="5">
         <v>21724.322353370055</v>
@@ -1712,7 +1712,7 @@
         <v>142.91816402348886</v>
       </c>
       <c r="O27" s="5">
-        <v>18060.034715440248</v>
+        <v>19402.446106210256</v>
       </c>
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.25">
@@ -1721,7 +1721,7 @@
         <v>2050</v>
       </c>
       <c r="C28" s="5">
-        <v>855.89358197199385</v>
+        <v>982.63393501217752</v>
       </c>
       <c r="D28" s="5">
         <v>1858.9630331803621</v>
@@ -1758,7 +1758,7 @@
         <v>207.9510466375614</v>
       </c>
       <c r="O28" s="5">
-        <v>19741.439858855949</v>
+        <v>21169.265550508873</v>
       </c>
     </row>
     <row r="29" spans="2:15" x14ac:dyDescent="0.25">
@@ -1767,7 +1767,7 @@
         <v>2051</v>
       </c>
       <c r="C29" s="5">
-        <v>818.56619953545169</v>
+        <v>949.36586851326774</v>
       </c>
       <c r="D29" s="5">
         <v>1984.3939238409062</v>
@@ -1804,7 +1804,7 @@
         <v>3720.1942824702533</v>
       </c>
       <c r="O29" s="5">
-        <v>19565.728775564799</v>
+        <v>20989.256995824366</v>
       </c>
     </row>
     <row r="30" spans="2:15" x14ac:dyDescent="0.25">
@@ -1813,7 +1813,7 @@
         <v>2052</v>
       </c>
       <c r="C30" s="5">
-        <v>1097.1827270047909</v>
+        <v>1227.873670728768</v>
       </c>
       <c r="D30" s="5">
         <v>2044.0408195728162</v>
@@ -1850,7 +1850,7 @@
         <v>-13346.299401545604</v>
       </c>
       <c r="O30" s="5">
-        <v>19658.773743151509</v>
+        <v>21125.568010647345</v>
       </c>
     </row>
     <row r="31" spans="2:15" x14ac:dyDescent="0.25">
@@ -1859,7 +1859,7 @@
         <v>2053</v>
       </c>
       <c r="C31" s="5">
-        <v>747.63784296569611</v>
+        <v>826.4587927119029</v>
       </c>
       <c r="D31" s="5">
         <v>1996.6431526746217</v>
@@ -1896,7 +1896,7 @@
         <v>-302.12659846118009</v>
       </c>
       <c r="O31" s="5">
-        <v>6505.617728611267</v>
+        <v>6548.0965375347387</v>
       </c>
     </row>
     <row r="32" spans="2:15" x14ac:dyDescent="0.25">
@@ -1905,7 +1905,7 @@
         <v>2054</v>
       </c>
       <c r="C32" s="5">
-        <v>198.59772050578201</v>
+        <v>236.94676705743296</v>
       </c>
       <c r="D32" s="5">
         <v>1898.8909132589124</v>
@@ -1940,7 +1940,7 @@
         <v>-243.49977630496312</v>
       </c>
       <c r="O32" s="5">
-        <v>5197.5713810805883</v>
+        <v>5188.8253978749399</v>
       </c>
     </row>
     <row r="33" spans="2:15" x14ac:dyDescent="0.25">
@@ -1949,7 +1949,7 @@
         <v>2055</v>
       </c>
       <c r="C33" s="5">
-        <v>-3189.1643075290062</v>
+        <v>-3197.1599030428097</v>
       </c>
       <c r="D33" s="5">
         <v>1797.543851649908</v>
@@ -1984,7 +1984,7 @@
         <v>-198.21412230559554</v>
       </c>
       <c r="O33" s="5">
-        <v>4230.5051756939165</v>
+        <v>4226.6679307624145</v>
       </c>
     </row>
     <row r="34" spans="2:15" x14ac:dyDescent="0.25">
@@ -2024,7 +2024,7 @@
         <v>-335.12613459246893</v>
       </c>
       <c r="O34" s="5">
-        <v>3259.3450200306347</v>
+        <v>3261.4552517639413</v>
       </c>
     </row>
     <row r="35" spans="2:15" x14ac:dyDescent="0.25">
@@ -2064,7 +2064,7 @@
         <v>-770.54571906388662</v>
       </c>
       <c r="O35" s="5">
-        <v>1144.3268849167191</v>
+        <v>1144.9852322624533</v>
       </c>
     </row>
     <row r="36" spans="2:15" x14ac:dyDescent="0.25">
@@ -2103,9 +2103,7 @@
       <c r="N36" s="5">
         <v>-9868.2151940255881</v>
       </c>
-      <c r="O36" s="5">
-        <v>-9868.2151940255881</v>
-      </c>
+      <c r="O36" s="5"/>
     </row>
     <row r="37" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B37" s="1">
@@ -2297,6 +2295,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="f0bab05a-e9c1-4e32-93e9-8363aec9c620" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1a4d52ec-ae83-4798-bc6c-3cf1b4f12457">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010020E4BAF79DB213408BB296F3F8F32329" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="9679123e7a51fb6c2fee49c985862cfe">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1a4d52ec-ae83-4798-bc6c-3cf1b4f12457" xmlns:ns3="f0bab05a-e9c1-4e32-93e9-8363aec9c620" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ddaff962f7439efafa6fc254a8996caa" ns2:_="" ns3:_="">
     <xsd:import namespace="1a4d52ec-ae83-4798-bc6c-3cf1b4f12457"/>
@@ -2531,27 +2549,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="f0bab05a-e9c1-4e32-93e9-8363aec9c620" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1a4d52ec-ae83-4798-bc6c-3cf1b4f12457">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{618C5CC8-9B8E-49D5-B2E6-D98C4C570E2E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{47140DD7-5C12-4BA5-9C24-A1CF0564C7A2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="f0bab05a-e9c1-4e32-93e9-8363aec9c620"/>
+    <ds:schemaRef ds:uri="1a4d52ec-ae83-4798-bc6c-3cf1b4f12457"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{873E7543-F0E8-474C-8FBB-787032D90621}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2568,23 +2585,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{47140DD7-5C12-4BA5-9C24-A1CF0564C7A2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="f0bab05a-e9c1-4e32-93e9-8363aec9c620"/>
-    <ds:schemaRef ds:uri="1a4d52ec-ae83-4798-bc6c-3cf1b4f12457"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{618C5CC8-9B8E-49D5-B2E6-D98C4C570E2E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/irrdash3.xlsx
+++ b/irrdash3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joao.russo\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{21019790-D8EB-4950-B78C-C23350B87DE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1A31B74C-AABC-420E-BE24-2E33F80907FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -562,8 +562,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:P38"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:C33"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -647,7 +647,7 @@
         <v>3235.4861380697657</v>
       </c>
       <c r="D4" s="5">
-        <v>2567.4289707736116</v>
+        <v>2346.2961342640269</v>
       </c>
       <c r="E4" s="5">
         <v>1423.5911688211188</v>
@@ -690,7 +690,7 @@
         <v>3660.143747464982</v>
       </c>
       <c r="D5" s="5">
-        <v>989.20857123354551</v>
+        <v>1008.0047307031887</v>
       </c>
       <c r="E5" s="5">
         <v>836.48604610360985</v>
@@ -733,7 +733,7 @@
         <v>3582.3763563740481</v>
       </c>
       <c r="D6" s="5">
-        <v>221.30914058918347</v>
+        <v>-383.33124786745475</v>
       </c>
       <c r="E6" s="5">
         <v>1886.5332002018404</v>
@@ -776,7 +776,7 @@
         <v>4425.1607962207636</v>
       </c>
       <c r="D7" s="5">
-        <v>2106.6256296028787</v>
+        <v>2230.8222624931559</v>
       </c>
       <c r="E7" s="5">
         <v>2728.8526153584262</v>
@@ -819,7 +819,7 @@
         <v>4210.439705807612</v>
       </c>
       <c r="D8" s="5">
-        <v>5294.6326235182451</v>
+        <v>5320.9952403656134</v>
       </c>
       <c r="E8" s="5">
         <v>1996.046006674206</v>
@@ -862,7 +862,7 @@
         <v>5058.9868636215051</v>
       </c>
       <c r="D9" s="5">
-        <v>4427.5790990897876</v>
+        <v>5838.2169035851375</v>
       </c>
       <c r="E9" s="5">
         <v>3040.4333366384258</v>
@@ -905,7 +905,7 @@
         <v>5490.5886142238132</v>
       </c>
       <c r="D10" s="5">
-        <v>6699.9736305483148</v>
+        <v>7470.658368937854</v>
       </c>
       <c r="E10" s="5">
         <v>3079.6282281473705</v>
@@ -948,7 +948,7 @@
         <v>5449.6911283321651</v>
       </c>
       <c r="D11" s="5">
-        <v>6197.7326120145926</v>
+        <v>5493.0997048113531</v>
       </c>
       <c r="E11" s="5">
         <v>3365.750967532942</v>
@@ -991,7 +991,7 @@
         <v>5465.2057201785474</v>
       </c>
       <c r="D12" s="5">
-        <v>8111.977184249773</v>
+        <v>11308.504943659194</v>
       </c>
       <c r="E12" s="5">
         <v>3998.2297037974399</v>
@@ -1034,7 +1034,7 @@
         <v>5657.9555381712644</v>
       </c>
       <c r="D13" s="5">
-        <v>8099.8737408743837</v>
+        <v>11680.517848620657</v>
       </c>
       <c r="E13" s="5">
         <v>3357.9892161586899</v>
@@ -1080,7 +1080,7 @@
         <v>5565.9368892212588</v>
       </c>
       <c r="D14" s="5">
-        <v>8288.8144031864449</v>
+        <v>11587.516251420138</v>
       </c>
       <c r="E14" s="5">
         <v>3890.7284841014853</v>
@@ -1126,7 +1126,7 @@
         <v>5581.4196732150995</v>
       </c>
       <c r="D15" s="5">
-        <v>7428.9529537233184</v>
+        <v>10348.675117827352</v>
       </c>
       <c r="E15" s="5">
         <v>3795.421343208634</v>
@@ -1172,7 +1172,7 @@
         <v>5667.3724990695691</v>
       </c>
       <c r="D16" s="5">
-        <v>7636.3305582043422</v>
+        <v>9768.6833032279974</v>
       </c>
       <c r="E16" s="5">
         <v>4241.1276645324469</v>
@@ -1218,7 +1218,7 @@
         <v>5714.844584718162</v>
       </c>
       <c r="D17" s="5">
-        <v>7537.1078262266747</v>
+        <v>10155.942786401696</v>
       </c>
       <c r="E17" s="5">
         <v>4700.1076438236432</v>
@@ -1264,7 +1264,7 @@
         <v>5646.4806655678176</v>
       </c>
       <c r="D18" s="5">
-        <v>7239.4228885436014</v>
+        <v>10330.306705276818</v>
       </c>
       <c r="E18" s="5">
         <v>4448.8476307615656</v>
@@ -1310,7 +1310,7 @@
         <v>5314.7528189505028</v>
       </c>
       <c r="D19" s="5">
-        <v>7128.8511428279435</v>
+        <v>9547.3412998822914</v>
       </c>
       <c r="E19" s="5">
         <v>4404.6638333651717</v>
@@ -1356,7 +1356,7 @@
         <v>7991.7263392091545</v>
       </c>
       <c r="D20" s="5">
-        <v>6983.7524039036143</v>
+        <v>5116.222974985365</v>
       </c>
       <c r="E20" s="5">
         <v>4322.8251616964926</v>
@@ -1402,7 +1402,7 @@
         <v>4418.7495968982048</v>
       </c>
       <c r="D21" s="5">
-        <v>6736.245310886472</v>
+        <v>5225.6606237213318</v>
       </c>
       <c r="E21" s="5">
         <v>4704.9869228474563</v>
@@ -1448,7 +1448,7 @@
         <v>4302.338533913191</v>
       </c>
       <c r="D22" s="5">
-        <v>7188.6301287649376</v>
+        <v>7421.6683063923683</v>
       </c>
       <c r="E22" s="5">
         <v>5466.3907696940523</v>
@@ -1494,7 +1494,7 @@
         <v>-5318.5893187219672</v>
       </c>
       <c r="D23" s="5">
-        <v>7435.8005160484045</v>
+        <v>8047.2674890790931</v>
       </c>
       <c r="E23" s="5">
         <v>6800.1708681005994</v>
@@ -1540,7 +1540,7 @@
         <v>20472.232012192413</v>
       </c>
       <c r="D24" s="5">
-        <v>9736.2645221372186</v>
+        <v>17133.14369506764</v>
       </c>
       <c r="E24" s="5">
         <v>4836.6248297612428</v>
@@ -1586,7 +1586,7 @@
         <v>1150.1898105245825</v>
       </c>
       <c r="D25" s="5">
-        <v>6916.0347688484908</v>
+        <v>6640.3369228731744</v>
       </c>
       <c r="E25" s="5">
         <v>4570.7074782877553</v>
@@ -1632,7 +1632,7 @@
         <v>1000.2915388927777</v>
       </c>
       <c r="D26" s="5">
-        <v>17792.412517860637</v>
+        <v>-36256.629550042744</v>
       </c>
       <c r="E26" s="5">
         <v>65371.712835673432</v>
@@ -1678,7 +1678,7 @@
         <v>1013.2949582724123</v>
       </c>
       <c r="D27" s="5">
-        <v>21724.322353370055</v>
+        <v>58720.223253545359</v>
       </c>
       <c r="E27" s="5">
         <v>176.52578358770324</v>
@@ -1724,7 +1724,7 @@
         <v>982.63393501217752</v>
       </c>
       <c r="D28" s="5">
-        <v>1858.9630331803621</v>
+        <v>1953.156109231425</v>
       </c>
       <c r="E28" s="5">
         <v>163.40515541828785</v>
@@ -1770,7 +1770,7 @@
         <v>949.36586851326774</v>
       </c>
       <c r="D29" s="5">
-        <v>1984.3939238409062</v>
+        <v>2076.2237893806973</v>
       </c>
       <c r="E29" s="5">
         <v>115.73315299785321</v>
@@ -1816,7 +1816,7 @@
         <v>1227.873670728768</v>
       </c>
       <c r="D30" s="5">
-        <v>2044.0408195728162</v>
+        <v>5663.0097529148252</v>
       </c>
       <c r="E30" s="5">
         <v>91.809703028503719</v>
@@ -1862,7 +1862,7 @@
         <v>826.4587927119029</v>
       </c>
       <c r="D31" s="5">
-        <v>1996.6431526746217</v>
+        <v>2025.9664180611614</v>
       </c>
       <c r="E31" s="5">
         <v>0</v>
@@ -1908,7 +1908,7 @@
         <v>236.94676705743296</v>
       </c>
       <c r="D32" s="5">
-        <v>1898.8909132589124</v>
+        <v>1919.8539728117053</v>
       </c>
       <c r="E32" s="5"/>
       <c r="F32" s="5">
@@ -1952,7 +1952,7 @@
         <v>-3197.1599030428097</v>
       </c>
       <c r="D33" s="5">
-        <v>1797.543851649908</v>
+        <v>1809.1392026497824</v>
       </c>
       <c r="E33" s="5"/>
       <c r="F33" s="5">
@@ -1994,7 +1994,7 @@
       </c>
       <c r="C34" s="6"/>
       <c r="D34" s="5">
-        <v>-440.11639145949835</v>
+        <v>-438.17127495682212</v>
       </c>
       <c r="E34" s="5"/>
       <c r="F34" s="5">
@@ -2034,7 +2034,7 @@
       </c>
       <c r="C35" s="6"/>
       <c r="D35" s="5">
-        <v>1515.8089564799636</v>
+        <v>1515.8477492685827</v>
       </c>
       <c r="E35" s="5"/>
       <c r="F35" s="5">
@@ -2074,7 +2074,7 @@
       </c>
       <c r="C36" s="6"/>
       <c r="D36" s="5">
-        <v>1521.0671101142289</v>
+        <v>1521.1057646670865</v>
       </c>
       <c r="E36" s="5"/>
       <c r="F36" s="5">
@@ -2112,7 +2112,7 @@
       </c>
       <c r="C37" s="6"/>
       <c r="D37" s="5">
-        <v>1525.3642902194081</v>
+        <v>1525.4028087225845</v>
       </c>
       <c r="E37" s="5"/>
       <c r="F37" s="5">
@@ -2145,7 +2145,7 @@
       </c>
       <c r="C38" s="6"/>
       <c r="D38" s="5">
-        <v>17770.775179445653</v>
+        <v>17770.841584153739</v>
       </c>
       <c r="E38" s="5"/>
       <c r="F38" s="5">
@@ -2304,17 +2304,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="f0bab05a-e9c1-4e32-93e9-8363aec9c620" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1a4d52ec-ae83-4798-bc6c-3cf1b4f12457">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010020E4BAF79DB213408BB296F3F8F32329" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="9679123e7a51fb6c2fee49c985862cfe">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1a4d52ec-ae83-4798-bc6c-3cf1b4f12457" xmlns:ns3="f0bab05a-e9c1-4e32-93e9-8363aec9c620" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ddaff962f7439efafa6fc254a8996caa" ns2:_="" ns3:_="">
     <xsd:import namespace="1a4d52ec-ae83-4798-bc6c-3cf1b4f12457"/>
@@ -2549,6 +2538,17 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="f0bab05a-e9c1-4e32-93e9-8363aec9c620" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1a4d52ec-ae83-4798-bc6c-3cf1b4f12457">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{618C5CC8-9B8E-49D5-B2E6-D98C4C570E2E}">
   <ds:schemaRefs>
@@ -2558,17 +2558,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{47140DD7-5C12-4BA5-9C24-A1CF0564C7A2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="f0bab05a-e9c1-4e32-93e9-8363aec9c620"/>
-    <ds:schemaRef ds:uri="1a4d52ec-ae83-4798-bc6c-3cf1b4f12457"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{873E7543-F0E8-474C-8FBB-787032D90621}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2585,4 +2574,15 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{47140DD7-5C12-4BA5-9C24-A1CF0564C7A2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="f0bab05a-e9c1-4e32-93e9-8363aec9c620"/>
+    <ds:schemaRef ds:uri="1a4d52ec-ae83-4798-bc6c-3cf1b4f12457"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>